--- a/tema-test/Hoja de Pruebas.xlsx
+++ b/tema-test/Hoja de Pruebas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dam-2\desarrollo-de-interfaces\repositorio-desarrollo-interfaces\tema-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F58601-45E9-473A-99CC-1D47BFB70000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033EA89A-BEBE-4C16-B502-7778A645873C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="687" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="687" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRUEBAS UNITARIAS" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="86">
   <si>
     <t>Resumen</t>
   </si>
@@ -757,6 +757,9 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -778,9 +781,6 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -791,6 +791,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
@@ -804,9 +807,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1528,7 +1528,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp254.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" checked="Checked"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp255.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1568,7 +1568,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp263.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" checked="Checked"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp264.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1576,7 +1576,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp265.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" checked="Checked" firstButton="1" fmlaLink="#REF!"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" firstButton="1" fmlaLink="#REF!"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp266.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1620,7 +1620,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp275.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" checked="Checked"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp276.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1648,7 +1648,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp281.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" checked="Checked"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp282.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1672,7 +1672,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp287.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" checked="Checked"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp288.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1680,7 +1680,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp289.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" checked="Checked" firstButton="1" fmlaLink="#REF!"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" firstButton="1" fmlaLink="#REF!"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp29.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1724,7 +1724,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp299.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" checked="Checked"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1756,7 +1756,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp305.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" checked="Checked"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp306.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1784,7 +1784,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp311.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" checked="Checked"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp312.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1808,7 +1808,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp317.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" checked="Checked"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp318.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1836,7 +1836,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp323.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" checked="Checked"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp324.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1860,7 +1860,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp329.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" checked="Checked"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp33.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1888,7 +1888,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp335.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" checked="Checked"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp336.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1916,7 +1916,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp341.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" checked="Checked"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp342.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1940,7 +1940,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp347.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" checked="Checked"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp348.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1968,7 +1968,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp353.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" checked="Checked"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp354.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1992,7 +1992,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp359.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" checked="Checked"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp36.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2020,7 +2020,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp365.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" checked="Checked"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp366.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2048,7 +2048,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp371.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" checked="Checked"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp372.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2056,7 +2056,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp373.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" checked="Checked" firstButton="1" fmlaLink="#REF!"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" firstButton="1" fmlaLink="#REF!"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp374.xml><?xml version="1.0" encoding="utf-8"?>
@@ -36628,7 +36628,7 @@
   </sheetPr>
   <dimension ref="B2:AA30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D26" sqref="D26:Q26"/>
     </sheetView>
   </sheetViews>
@@ -36954,12 +36954,12 @@
         <v>9</v>
       </c>
       <c r="E15" s="17"/>
-      <c r="F15" s="29" t="s">
+      <c r="F15" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
       <c r="J15" s="17"/>
       <c r="K15" s="17"/>
       <c r="L15" s="17"/>
@@ -37043,7 +37043,7 @@
       </c>
       <c r="K17" s="19"/>
       <c r="L17" s="17"/>
-      <c r="M17" s="45"/>
+      <c r="M17" s="29"/>
       <c r="N17" s="22"/>
       <c r="O17" s="22"/>
       <c r="P17" s="22"/>
@@ -37149,7 +37149,7 @@
       <c r="N20" s="22"/>
       <c r="O20" s="22"/>
       <c r="P20" s="22"/>
-      <c r="Q20" s="45"/>
+      <c r="Q20" s="29"/>
       <c r="R20" s="4"/>
       <c r="S20" s="3"/>
     </row>
@@ -37278,84 +37278,84 @@
     <row r="25" spans="2:19" ht="30" customHeight="1">
       <c r="B25" s="3"/>
       <c r="C25" s="4"/>
-      <c r="D25" s="29" t="s">
+      <c r="D25" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="29"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="30"/>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="30"/>
       <c r="R25" s="4"/>
       <c r="S25" s="3"/>
     </row>
     <row r="26" spans="2:19" ht="30" customHeight="1">
       <c r="B26" s="3"/>
       <c r="C26" s="4"/>
-      <c r="D26" s="30" t="s">
+      <c r="D26" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="31"/>
-      <c r="O26" s="31"/>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="32"/>
+      <c r="P26" s="32"/>
+      <c r="Q26" s="33"/>
       <c r="R26" s="4"/>
       <c r="S26" s="3"/>
     </row>
     <row r="27" spans="2:19" ht="30" customHeight="1">
       <c r="B27" s="3"/>
       <c r="C27" s="4"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="34"/>
-      <c r="N27" s="34"/>
-      <c r="O27" s="34"/>
-      <c r="P27" s="34"/>
-      <c r="Q27" s="35"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="35"/>
+      <c r="O27" s="35"/>
+      <c r="P27" s="35"/>
+      <c r="Q27" s="36"/>
       <c r="R27" s="4"/>
       <c r="S27" s="3"/>
     </row>
     <row r="28" spans="2:19" ht="30" customHeight="1">
       <c r="B28" s="3"/>
       <c r="C28" s="4"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="34"/>
-      <c r="M28" s="34"/>
-      <c r="N28" s="34"/>
-      <c r="O28" s="34"/>
-      <c r="P28" s="34"/>
-      <c r="Q28" s="35"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="35"/>
+      <c r="O28" s="35"/>
+      <c r="P28" s="35"/>
+      <c r="Q28" s="36"/>
       <c r="R28" s="4"/>
       <c r="S28" s="3"/>
     </row>
@@ -40197,8 +40197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N182"/>
   <sheetViews>
-    <sheetView topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="A124" sqref="A124"/>
+    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.69921875" defaultRowHeight="15"/>
@@ -40207,31 +40207,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="str">
         <f>'PRUEBAS UNITARIAS'!D17</f>
         <v>PU-01</v>
       </c>
-      <c r="B2" s="37" t="s">
-        <v>61</v>
-      </c>
+      <c r="B2" s="37"/>
       <c r="C2" s="38"/>
       <c r="D2" s="38"/>
       <c r="E2" s="38"/>
@@ -40245,250 +40243,250 @@
     </row>
     <row r="3" spans="1:14">
       <c r="B3" s="40"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="42"/>
     </row>
     <row r="4" spans="1:14">
       <c r="B4" s="40"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="42"/>
     </row>
     <row r="5" spans="1:14">
       <c r="B5" s="40"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="42"/>
     </row>
     <row r="6" spans="1:14">
       <c r="B6" s="40"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="42"/>
     </row>
     <row r="7" spans="1:14">
       <c r="B7" s="40"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="42"/>
     </row>
     <row r="8" spans="1:14">
       <c r="B8" s="40"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="42"/>
     </row>
     <row r="9" spans="1:14">
       <c r="B9" s="40"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="42"/>
     </row>
     <row r="10" spans="1:14">
       <c r="B10" s="40"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="42"/>
     </row>
     <row r="11" spans="1:14">
       <c r="B11" s="40"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="42"/>
     </row>
     <row r="12" spans="1:14">
       <c r="B12" s="40"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="42"/>
     </row>
     <row r="13" spans="1:14">
       <c r="B13" s="40"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="42"/>
     </row>
     <row r="14" spans="1:14">
       <c r="B14" s="40"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="42"/>
     </row>
     <row r="15" spans="1:14">
       <c r="B15" s="40"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="42"/>
     </row>
     <row r="16" spans="1:14">
       <c r="B16" s="40"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="42"/>
     </row>
     <row r="17" spans="1:12">
       <c r="B17" s="40"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="42"/>
     </row>
     <row r="18" spans="1:12">
       <c r="B18" s="40"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="42"/>
     </row>
     <row r="19" spans="1:12">
       <c r="B19" s="40"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="42"/>
     </row>
     <row r="20" spans="1:12">
       <c r="B20" s="40"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="42"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="B21" s="42"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="44"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="45"/>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="str">
@@ -40511,250 +40509,250 @@
     </row>
     <row r="24" spans="1:12">
       <c r="B24" s="40"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="42"/>
     </row>
     <row r="25" spans="1:12">
       <c r="B25" s="40"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="42"/>
     </row>
     <row r="26" spans="1:12">
       <c r="B26" s="40"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="42"/>
     </row>
     <row r="27" spans="1:12">
       <c r="B27" s="40"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="42"/>
     </row>
     <row r="28" spans="1:12">
       <c r="B28" s="40"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="42"/>
     </row>
     <row r="29" spans="1:12">
       <c r="B29" s="40"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="36"/>
-      <c r="L29" s="41"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="42"/>
     </row>
     <row r="30" spans="1:12">
       <c r="B30" s="40"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="36"/>
-      <c r="K30" s="36"/>
-      <c r="L30" s="41"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="42"/>
     </row>
     <row r="31" spans="1:12">
       <c r="B31" s="40"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="36"/>
-      <c r="L31" s="41"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="42"/>
     </row>
     <row r="32" spans="1:12">
       <c r="B32" s="40"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="36"/>
-      <c r="L32" s="41"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="42"/>
     </row>
     <row r="33" spans="1:12">
       <c r="B33" s="40"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="41"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="41"/>
+      <c r="J33" s="41"/>
+      <c r="K33" s="41"/>
+      <c r="L33" s="42"/>
     </row>
     <row r="34" spans="1:12">
       <c r="B34" s="40"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="36"/>
-      <c r="K34" s="36"/>
-      <c r="L34" s="41"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="41"/>
+      <c r="J34" s="41"/>
+      <c r="K34" s="41"/>
+      <c r="L34" s="42"/>
     </row>
     <row r="35" spans="1:12">
       <c r="B35" s="40"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="36"/>
-      <c r="K35" s="36"/>
-      <c r="L35" s="41"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="41"/>
+      <c r="J35" s="41"/>
+      <c r="K35" s="41"/>
+      <c r="L35" s="42"/>
     </row>
     <row r="36" spans="1:12">
       <c r="B36" s="40"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="36"/>
-      <c r="I36" s="36"/>
-      <c r="J36" s="36"/>
-      <c r="K36" s="36"/>
-      <c r="L36" s="41"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="41"/>
+      <c r="I36" s="41"/>
+      <c r="J36" s="41"/>
+      <c r="K36" s="41"/>
+      <c r="L36" s="42"/>
     </row>
     <row r="37" spans="1:12">
       <c r="B37" s="40"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="36"/>
-      <c r="K37" s="36"/>
-      <c r="L37" s="41"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41"/>
+      <c r="J37" s="41"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="42"/>
     </row>
     <row r="38" spans="1:12">
       <c r="B38" s="40"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="36"/>
-      <c r="J38" s="36"/>
-      <c r="K38" s="36"/>
-      <c r="L38" s="41"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="41"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="41"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="42"/>
     </row>
     <row r="39" spans="1:12">
       <c r="B39" s="40"/>
-      <c r="C39" s="36"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="36"/>
-      <c r="J39" s="36"/>
-      <c r="K39" s="36"/>
-      <c r="L39" s="41"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="42"/>
     </row>
     <row r="40" spans="1:12">
       <c r="B40" s="40"/>
-      <c r="C40" s="36"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="36"/>
-      <c r="J40" s="36"/>
-      <c r="K40" s="36"/>
-      <c r="L40" s="41"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="42"/>
     </row>
     <row r="41" spans="1:12">
       <c r="B41" s="40"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="36"/>
-      <c r="J41" s="36"/>
-      <c r="K41" s="36"/>
-      <c r="L41" s="41"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="42"/>
     </row>
     <row r="42" spans="1:12">
-      <c r="B42" s="42"/>
-      <c r="C42" s="43"/>
-      <c r="D42" s="43"/>
-      <c r="E42" s="43"/>
-      <c r="F42" s="43"/>
-      <c r="G42" s="43"/>
-      <c r="H42" s="43"/>
-      <c r="I42" s="43"/>
-      <c r="J42" s="43"/>
-      <c r="K42" s="43"/>
-      <c r="L42" s="44"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="44"/>
+      <c r="E42" s="44"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="44"/>
+      <c r="H42" s="44"/>
+      <c r="I42" s="44"/>
+      <c r="J42" s="44"/>
+      <c r="K42" s="44"/>
+      <c r="L42" s="45"/>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" t="str">
@@ -40777,250 +40775,250 @@
     </row>
     <row r="44" spans="1:12">
       <c r="B44" s="40"/>
-      <c r="C44" s="36"/>
-      <c r="D44" s="36"/>
-      <c r="E44" s="36"/>
-      <c r="F44" s="36"/>
-      <c r="G44" s="36"/>
-      <c r="H44" s="36"/>
-      <c r="I44" s="36"/>
-      <c r="J44" s="36"/>
-      <c r="K44" s="36"/>
-      <c r="L44" s="41"/>
+      <c r="C44" s="41"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="41"/>
+      <c r="F44" s="41"/>
+      <c r="G44" s="41"/>
+      <c r="H44" s="41"/>
+      <c r="I44" s="41"/>
+      <c r="J44" s="41"/>
+      <c r="K44" s="41"/>
+      <c r="L44" s="42"/>
     </row>
     <row r="45" spans="1:12">
       <c r="B45" s="40"/>
-      <c r="C45" s="36"/>
-      <c r="D45" s="36"/>
-      <c r="E45" s="36"/>
-      <c r="F45" s="36"/>
-      <c r="G45" s="36"/>
-      <c r="H45" s="36"/>
-      <c r="I45" s="36"/>
-      <c r="J45" s="36"/>
-      <c r="K45" s="36"/>
-      <c r="L45" s="41"/>
+      <c r="C45" s="41"/>
+      <c r="D45" s="41"/>
+      <c r="E45" s="41"/>
+      <c r="F45" s="41"/>
+      <c r="G45" s="41"/>
+      <c r="H45" s="41"/>
+      <c r="I45" s="41"/>
+      <c r="J45" s="41"/>
+      <c r="K45" s="41"/>
+      <c r="L45" s="42"/>
     </row>
     <row r="46" spans="1:12">
       <c r="B46" s="40"/>
-      <c r="C46" s="36"/>
-      <c r="D46" s="36"/>
-      <c r="E46" s="36"/>
-      <c r="F46" s="36"/>
-      <c r="G46" s="36"/>
-      <c r="H46" s="36"/>
-      <c r="I46" s="36"/>
-      <c r="J46" s="36"/>
-      <c r="K46" s="36"/>
-      <c r="L46" s="41"/>
+      <c r="C46" s="41"/>
+      <c r="D46" s="41"/>
+      <c r="E46" s="41"/>
+      <c r="F46" s="41"/>
+      <c r="G46" s="41"/>
+      <c r="H46" s="41"/>
+      <c r="I46" s="41"/>
+      <c r="J46" s="41"/>
+      <c r="K46" s="41"/>
+      <c r="L46" s="42"/>
     </row>
     <row r="47" spans="1:12">
       <c r="B47" s="40"/>
-      <c r="C47" s="36"/>
-      <c r="D47" s="36"/>
-      <c r="E47" s="36"/>
-      <c r="F47" s="36"/>
-      <c r="G47" s="36"/>
-      <c r="H47" s="36"/>
-      <c r="I47" s="36"/>
-      <c r="J47" s="36"/>
-      <c r="K47" s="36"/>
-      <c r="L47" s="41"/>
+      <c r="C47" s="41"/>
+      <c r="D47" s="41"/>
+      <c r="E47" s="41"/>
+      <c r="F47" s="41"/>
+      <c r="G47" s="41"/>
+      <c r="H47" s="41"/>
+      <c r="I47" s="41"/>
+      <c r="J47" s="41"/>
+      <c r="K47" s="41"/>
+      <c r="L47" s="42"/>
     </row>
     <row r="48" spans="1:12">
       <c r="B48" s="40"/>
-      <c r="C48" s="36"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="36"/>
-      <c r="F48" s="36"/>
-      <c r="G48" s="36"/>
-      <c r="H48" s="36"/>
-      <c r="I48" s="36"/>
-      <c r="J48" s="36"/>
-      <c r="K48" s="36"/>
-      <c r="L48" s="41"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="41"/>
+      <c r="E48" s="41"/>
+      <c r="F48" s="41"/>
+      <c r="G48" s="41"/>
+      <c r="H48" s="41"/>
+      <c r="I48" s="41"/>
+      <c r="J48" s="41"/>
+      <c r="K48" s="41"/>
+      <c r="L48" s="42"/>
     </row>
     <row r="49" spans="1:12">
       <c r="B49" s="40"/>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="36"/>
-      <c r="K49" s="36"/>
-      <c r="L49" s="41"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="41"/>
+      <c r="E49" s="41"/>
+      <c r="F49" s="41"/>
+      <c r="G49" s="41"/>
+      <c r="H49" s="41"/>
+      <c r="I49" s="41"/>
+      <c r="J49" s="41"/>
+      <c r="K49" s="41"/>
+      <c r="L49" s="42"/>
     </row>
     <row r="50" spans="1:12">
       <c r="B50" s="40"/>
-      <c r="C50" s="36"/>
-      <c r="D50" s="36"/>
-      <c r="E50" s="36"/>
-      <c r="F50" s="36"/>
-      <c r="G50" s="36"/>
-      <c r="H50" s="36"/>
-      <c r="I50" s="36"/>
-      <c r="J50" s="36"/>
-      <c r="K50" s="36"/>
-      <c r="L50" s="41"/>
+      <c r="C50" s="41"/>
+      <c r="D50" s="41"/>
+      <c r="E50" s="41"/>
+      <c r="F50" s="41"/>
+      <c r="G50" s="41"/>
+      <c r="H50" s="41"/>
+      <c r="I50" s="41"/>
+      <c r="J50" s="41"/>
+      <c r="K50" s="41"/>
+      <c r="L50" s="42"/>
     </row>
     <row r="51" spans="1:12">
       <c r="B51" s="40"/>
-      <c r="C51" s="36"/>
-      <c r="D51" s="36"/>
-      <c r="E51" s="36"/>
-      <c r="F51" s="36"/>
-      <c r="G51" s="36"/>
-      <c r="H51" s="36"/>
-      <c r="I51" s="36"/>
-      <c r="J51" s="36"/>
-      <c r="K51" s="36"/>
-      <c r="L51" s="41"/>
+      <c r="C51" s="41"/>
+      <c r="D51" s="41"/>
+      <c r="E51" s="41"/>
+      <c r="F51" s="41"/>
+      <c r="G51" s="41"/>
+      <c r="H51" s="41"/>
+      <c r="I51" s="41"/>
+      <c r="J51" s="41"/>
+      <c r="K51" s="41"/>
+      <c r="L51" s="42"/>
     </row>
     <row r="52" spans="1:12">
       <c r="B52" s="40"/>
-      <c r="C52" s="36"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="36"/>
-      <c r="J52" s="36"/>
-      <c r="K52" s="36"/>
-      <c r="L52" s="41"/>
+      <c r="C52" s="41"/>
+      <c r="D52" s="41"/>
+      <c r="E52" s="41"/>
+      <c r="F52" s="41"/>
+      <c r="G52" s="41"/>
+      <c r="H52" s="41"/>
+      <c r="I52" s="41"/>
+      <c r="J52" s="41"/>
+      <c r="K52" s="41"/>
+      <c r="L52" s="42"/>
     </row>
     <row r="53" spans="1:12">
       <c r="B53" s="40"/>
-      <c r="C53" s="36"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="36"/>
-      <c r="J53" s="36"/>
-      <c r="K53" s="36"/>
-      <c r="L53" s="41"/>
+      <c r="C53" s="41"/>
+      <c r="D53" s="41"/>
+      <c r="E53" s="41"/>
+      <c r="F53" s="41"/>
+      <c r="G53" s="41"/>
+      <c r="H53" s="41"/>
+      <c r="I53" s="41"/>
+      <c r="J53" s="41"/>
+      <c r="K53" s="41"/>
+      <c r="L53" s="42"/>
     </row>
     <row r="54" spans="1:12">
       <c r="B54" s="40"/>
-      <c r="C54" s="36"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="36"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="36"/>
-      <c r="I54" s="36"/>
-      <c r="J54" s="36"/>
-      <c r="K54" s="36"/>
-      <c r="L54" s="41"/>
+      <c r="C54" s="41"/>
+      <c r="D54" s="41"/>
+      <c r="E54" s="41"/>
+      <c r="F54" s="41"/>
+      <c r="G54" s="41"/>
+      <c r="H54" s="41"/>
+      <c r="I54" s="41"/>
+      <c r="J54" s="41"/>
+      <c r="K54" s="41"/>
+      <c r="L54" s="42"/>
     </row>
     <row r="55" spans="1:12">
       <c r="B55" s="40"/>
-      <c r="C55" s="36"/>
-      <c r="D55" s="36"/>
-      <c r="E55" s="36"/>
-      <c r="F55" s="36"/>
-      <c r="G55" s="36"/>
-      <c r="H55" s="36"/>
-      <c r="I55" s="36"/>
-      <c r="J55" s="36"/>
-      <c r="K55" s="36"/>
-      <c r="L55" s="41"/>
+      <c r="C55" s="41"/>
+      <c r="D55" s="41"/>
+      <c r="E55" s="41"/>
+      <c r="F55" s="41"/>
+      <c r="G55" s="41"/>
+      <c r="H55" s="41"/>
+      <c r="I55" s="41"/>
+      <c r="J55" s="41"/>
+      <c r="K55" s="41"/>
+      <c r="L55" s="42"/>
     </row>
     <row r="56" spans="1:12">
       <c r="B56" s="40"/>
-      <c r="C56" s="36"/>
-      <c r="D56" s="36"/>
-      <c r="E56" s="36"/>
-      <c r="F56" s="36"/>
-      <c r="G56" s="36"/>
-      <c r="H56" s="36"/>
-      <c r="I56" s="36"/>
-      <c r="J56" s="36"/>
-      <c r="K56" s="36"/>
-      <c r="L56" s="41"/>
+      <c r="C56" s="41"/>
+      <c r="D56" s="41"/>
+      <c r="E56" s="41"/>
+      <c r="F56" s="41"/>
+      <c r="G56" s="41"/>
+      <c r="H56" s="41"/>
+      <c r="I56" s="41"/>
+      <c r="J56" s="41"/>
+      <c r="K56" s="41"/>
+      <c r="L56" s="42"/>
     </row>
     <row r="57" spans="1:12">
       <c r="B57" s="40"/>
-      <c r="C57" s="36"/>
-      <c r="D57" s="36"/>
-      <c r="E57" s="36"/>
-      <c r="F57" s="36"/>
-      <c r="G57" s="36"/>
-      <c r="H57" s="36"/>
-      <c r="I57" s="36"/>
-      <c r="J57" s="36"/>
-      <c r="K57" s="36"/>
-      <c r="L57" s="41"/>
+      <c r="C57" s="41"/>
+      <c r="D57" s="41"/>
+      <c r="E57" s="41"/>
+      <c r="F57" s="41"/>
+      <c r="G57" s="41"/>
+      <c r="H57" s="41"/>
+      <c r="I57" s="41"/>
+      <c r="J57" s="41"/>
+      <c r="K57" s="41"/>
+      <c r="L57" s="42"/>
     </row>
     <row r="58" spans="1:12">
       <c r="B58" s="40"/>
-      <c r="C58" s="36"/>
-      <c r="D58" s="36"/>
-      <c r="E58" s="36"/>
-      <c r="F58" s="36"/>
-      <c r="G58" s="36"/>
-      <c r="H58" s="36"/>
-      <c r="I58" s="36"/>
-      <c r="J58" s="36"/>
-      <c r="K58" s="36"/>
-      <c r="L58" s="41"/>
+      <c r="C58" s="41"/>
+      <c r="D58" s="41"/>
+      <c r="E58" s="41"/>
+      <c r="F58" s="41"/>
+      <c r="G58" s="41"/>
+      <c r="H58" s="41"/>
+      <c r="I58" s="41"/>
+      <c r="J58" s="41"/>
+      <c r="K58" s="41"/>
+      <c r="L58" s="42"/>
     </row>
     <row r="59" spans="1:12">
       <c r="B59" s="40"/>
-      <c r="C59" s="36"/>
-      <c r="D59" s="36"/>
-      <c r="E59" s="36"/>
-      <c r="F59" s="36"/>
-      <c r="G59" s="36"/>
-      <c r="H59" s="36"/>
-      <c r="I59" s="36"/>
-      <c r="J59" s="36"/>
-      <c r="K59" s="36"/>
-      <c r="L59" s="41"/>
+      <c r="C59" s="41"/>
+      <c r="D59" s="41"/>
+      <c r="E59" s="41"/>
+      <c r="F59" s="41"/>
+      <c r="G59" s="41"/>
+      <c r="H59" s="41"/>
+      <c r="I59" s="41"/>
+      <c r="J59" s="41"/>
+      <c r="K59" s="41"/>
+      <c r="L59" s="42"/>
     </row>
     <row r="60" spans="1:12">
       <c r="B60" s="40"/>
-      <c r="C60" s="36"/>
-      <c r="D60" s="36"/>
-      <c r="E60" s="36"/>
-      <c r="F60" s="36"/>
-      <c r="G60" s="36"/>
-      <c r="H60" s="36"/>
-      <c r="I60" s="36"/>
-      <c r="J60" s="36"/>
-      <c r="K60" s="36"/>
-      <c r="L60" s="41"/>
+      <c r="C60" s="41"/>
+      <c r="D60" s="41"/>
+      <c r="E60" s="41"/>
+      <c r="F60" s="41"/>
+      <c r="G60" s="41"/>
+      <c r="H60" s="41"/>
+      <c r="I60" s="41"/>
+      <c r="J60" s="41"/>
+      <c r="K60" s="41"/>
+      <c r="L60" s="42"/>
     </row>
     <row r="61" spans="1:12">
       <c r="B61" s="40"/>
-      <c r="C61" s="36"/>
-      <c r="D61" s="36"/>
-      <c r="E61" s="36"/>
-      <c r="F61" s="36"/>
-      <c r="G61" s="36"/>
-      <c r="H61" s="36"/>
-      <c r="I61" s="36"/>
-      <c r="J61" s="36"/>
-      <c r="K61" s="36"/>
-      <c r="L61" s="41"/>
+      <c r="C61" s="41"/>
+      <c r="D61" s="41"/>
+      <c r="E61" s="41"/>
+      <c r="F61" s="41"/>
+      <c r="G61" s="41"/>
+      <c r="H61" s="41"/>
+      <c r="I61" s="41"/>
+      <c r="J61" s="41"/>
+      <c r="K61" s="41"/>
+      <c r="L61" s="42"/>
     </row>
     <row r="62" spans="1:12">
-      <c r="B62" s="42"/>
-      <c r="C62" s="43"/>
-      <c r="D62" s="43"/>
-      <c r="E62" s="43"/>
-      <c r="F62" s="43"/>
-      <c r="G62" s="43"/>
-      <c r="H62" s="43"/>
-      <c r="I62" s="43"/>
-      <c r="J62" s="43"/>
-      <c r="K62" s="43"/>
-      <c r="L62" s="44"/>
+      <c r="B62" s="43"/>
+      <c r="C62" s="44"/>
+      <c r="D62" s="44"/>
+      <c r="E62" s="44"/>
+      <c r="F62" s="44"/>
+      <c r="G62" s="44"/>
+      <c r="H62" s="44"/>
+      <c r="I62" s="44"/>
+      <c r="J62" s="44"/>
+      <c r="K62" s="44"/>
+      <c r="L62" s="45"/>
     </row>
     <row r="63" spans="1:12">
       <c r="A63" t="str">
@@ -41043,250 +41041,250 @@
     </row>
     <row r="64" spans="1:12">
       <c r="B64" s="40"/>
-      <c r="C64" s="36"/>
-      <c r="D64" s="36"/>
-      <c r="E64" s="36"/>
-      <c r="F64" s="36"/>
-      <c r="G64" s="36"/>
-      <c r="H64" s="36"/>
-      <c r="I64" s="36"/>
-      <c r="J64" s="36"/>
-      <c r="K64" s="36"/>
-      <c r="L64" s="41"/>
+      <c r="C64" s="41"/>
+      <c r="D64" s="41"/>
+      <c r="E64" s="41"/>
+      <c r="F64" s="41"/>
+      <c r="G64" s="41"/>
+      <c r="H64" s="41"/>
+      <c r="I64" s="41"/>
+      <c r="J64" s="41"/>
+      <c r="K64" s="41"/>
+      <c r="L64" s="42"/>
     </row>
     <row r="65" spans="2:12">
       <c r="B65" s="40"/>
-      <c r="C65" s="36"/>
-      <c r="D65" s="36"/>
-      <c r="E65" s="36"/>
-      <c r="F65" s="36"/>
-      <c r="G65" s="36"/>
-      <c r="H65" s="36"/>
-      <c r="I65" s="36"/>
-      <c r="J65" s="36"/>
-      <c r="K65" s="36"/>
-      <c r="L65" s="41"/>
+      <c r="C65" s="41"/>
+      <c r="D65" s="41"/>
+      <c r="E65" s="41"/>
+      <c r="F65" s="41"/>
+      <c r="G65" s="41"/>
+      <c r="H65" s="41"/>
+      <c r="I65" s="41"/>
+      <c r="J65" s="41"/>
+      <c r="K65" s="41"/>
+      <c r="L65" s="42"/>
     </row>
     <row r="66" spans="2:12">
       <c r="B66" s="40"/>
-      <c r="C66" s="36"/>
-      <c r="D66" s="36"/>
-      <c r="E66" s="36"/>
-      <c r="F66" s="36"/>
-      <c r="G66" s="36"/>
-      <c r="H66" s="36"/>
-      <c r="I66" s="36"/>
-      <c r="J66" s="36"/>
-      <c r="K66" s="36"/>
-      <c r="L66" s="41"/>
+      <c r="C66" s="41"/>
+      <c r="D66" s="41"/>
+      <c r="E66" s="41"/>
+      <c r="F66" s="41"/>
+      <c r="G66" s="41"/>
+      <c r="H66" s="41"/>
+      <c r="I66" s="41"/>
+      <c r="J66" s="41"/>
+      <c r="K66" s="41"/>
+      <c r="L66" s="42"/>
     </row>
     <row r="67" spans="2:12">
       <c r="B67" s="40"/>
-      <c r="C67" s="36"/>
-      <c r="D67" s="36"/>
-      <c r="E67" s="36"/>
-      <c r="F67" s="36"/>
-      <c r="G67" s="36"/>
-      <c r="H67" s="36"/>
-      <c r="I67" s="36"/>
-      <c r="J67" s="36"/>
-      <c r="K67" s="36"/>
-      <c r="L67" s="41"/>
+      <c r="C67" s="41"/>
+      <c r="D67" s="41"/>
+      <c r="E67" s="41"/>
+      <c r="F67" s="41"/>
+      <c r="G67" s="41"/>
+      <c r="H67" s="41"/>
+      <c r="I67" s="41"/>
+      <c r="J67" s="41"/>
+      <c r="K67" s="41"/>
+      <c r="L67" s="42"/>
     </row>
     <row r="68" spans="2:12">
       <c r="B68" s="40"/>
-      <c r="C68" s="36"/>
-      <c r="D68" s="36"/>
-      <c r="E68" s="36"/>
-      <c r="F68" s="36"/>
-      <c r="G68" s="36"/>
-      <c r="H68" s="36"/>
-      <c r="I68" s="36"/>
-      <c r="J68" s="36"/>
-      <c r="K68" s="36"/>
-      <c r="L68" s="41"/>
+      <c r="C68" s="41"/>
+      <c r="D68" s="41"/>
+      <c r="E68" s="41"/>
+      <c r="F68" s="41"/>
+      <c r="G68" s="41"/>
+      <c r="H68" s="41"/>
+      <c r="I68" s="41"/>
+      <c r="J68" s="41"/>
+      <c r="K68" s="41"/>
+      <c r="L68" s="42"/>
     </row>
     <row r="69" spans="2:12">
       <c r="B69" s="40"/>
-      <c r="C69" s="36"/>
-      <c r="D69" s="36"/>
-      <c r="E69" s="36"/>
-      <c r="F69" s="36"/>
-      <c r="G69" s="36"/>
-      <c r="H69" s="36"/>
-      <c r="I69" s="36"/>
-      <c r="J69" s="36"/>
-      <c r="K69" s="36"/>
-      <c r="L69" s="41"/>
+      <c r="C69" s="41"/>
+      <c r="D69" s="41"/>
+      <c r="E69" s="41"/>
+      <c r="F69" s="41"/>
+      <c r="G69" s="41"/>
+      <c r="H69" s="41"/>
+      <c r="I69" s="41"/>
+      <c r="J69" s="41"/>
+      <c r="K69" s="41"/>
+      <c r="L69" s="42"/>
     </row>
     <row r="70" spans="2:12">
       <c r="B70" s="40"/>
-      <c r="C70" s="36"/>
-      <c r="D70" s="36"/>
-      <c r="E70" s="36"/>
-      <c r="F70" s="36"/>
-      <c r="G70" s="36"/>
-      <c r="H70" s="36"/>
-      <c r="I70" s="36"/>
-      <c r="J70" s="36"/>
-      <c r="K70" s="36"/>
-      <c r="L70" s="41"/>
+      <c r="C70" s="41"/>
+      <c r="D70" s="41"/>
+      <c r="E70" s="41"/>
+      <c r="F70" s="41"/>
+      <c r="G70" s="41"/>
+      <c r="H70" s="41"/>
+      <c r="I70" s="41"/>
+      <c r="J70" s="41"/>
+      <c r="K70" s="41"/>
+      <c r="L70" s="42"/>
     </row>
     <row r="71" spans="2:12">
       <c r="B71" s="40"/>
-      <c r="C71" s="36"/>
-      <c r="D71" s="36"/>
-      <c r="E71" s="36"/>
-      <c r="F71" s="36"/>
-      <c r="G71" s="36"/>
-      <c r="H71" s="36"/>
-      <c r="I71" s="36"/>
-      <c r="J71" s="36"/>
-      <c r="K71" s="36"/>
-      <c r="L71" s="41"/>
+      <c r="C71" s="41"/>
+      <c r="D71" s="41"/>
+      <c r="E71" s="41"/>
+      <c r="F71" s="41"/>
+      <c r="G71" s="41"/>
+      <c r="H71" s="41"/>
+      <c r="I71" s="41"/>
+      <c r="J71" s="41"/>
+      <c r="K71" s="41"/>
+      <c r="L71" s="42"/>
     </row>
     <row r="72" spans="2:12">
       <c r="B72" s="40"/>
-      <c r="C72" s="36"/>
-      <c r="D72" s="36"/>
-      <c r="E72" s="36"/>
-      <c r="F72" s="36"/>
-      <c r="G72" s="36"/>
-      <c r="H72" s="36"/>
-      <c r="I72" s="36"/>
-      <c r="J72" s="36"/>
-      <c r="K72" s="36"/>
-      <c r="L72" s="41"/>
+      <c r="C72" s="41"/>
+      <c r="D72" s="41"/>
+      <c r="E72" s="41"/>
+      <c r="F72" s="41"/>
+      <c r="G72" s="41"/>
+      <c r="H72" s="41"/>
+      <c r="I72" s="41"/>
+      <c r="J72" s="41"/>
+      <c r="K72" s="41"/>
+      <c r="L72" s="42"/>
     </row>
     <row r="73" spans="2:12">
       <c r="B73" s="40"/>
-      <c r="C73" s="36"/>
-      <c r="D73" s="36"/>
-      <c r="E73" s="36"/>
-      <c r="F73" s="36"/>
-      <c r="G73" s="36"/>
-      <c r="H73" s="36"/>
-      <c r="I73" s="36"/>
-      <c r="J73" s="36"/>
-      <c r="K73" s="36"/>
-      <c r="L73" s="41"/>
+      <c r="C73" s="41"/>
+      <c r="D73" s="41"/>
+      <c r="E73" s="41"/>
+      <c r="F73" s="41"/>
+      <c r="G73" s="41"/>
+      <c r="H73" s="41"/>
+      <c r="I73" s="41"/>
+      <c r="J73" s="41"/>
+      <c r="K73" s="41"/>
+      <c r="L73" s="42"/>
     </row>
     <row r="74" spans="2:12">
       <c r="B74" s="40"/>
-      <c r="C74" s="36"/>
-      <c r="D74" s="36"/>
-      <c r="E74" s="36"/>
-      <c r="F74" s="36"/>
-      <c r="G74" s="36"/>
-      <c r="H74" s="36"/>
-      <c r="I74" s="36"/>
-      <c r="J74" s="36"/>
-      <c r="K74" s="36"/>
-      <c r="L74" s="41"/>
+      <c r="C74" s="41"/>
+      <c r="D74" s="41"/>
+      <c r="E74" s="41"/>
+      <c r="F74" s="41"/>
+      <c r="G74" s="41"/>
+      <c r="H74" s="41"/>
+      <c r="I74" s="41"/>
+      <c r="J74" s="41"/>
+      <c r="K74" s="41"/>
+      <c r="L74" s="42"/>
     </row>
     <row r="75" spans="2:12">
       <c r="B75" s="40"/>
-      <c r="C75" s="36"/>
-      <c r="D75" s="36"/>
-      <c r="E75" s="36"/>
-      <c r="F75" s="36"/>
-      <c r="G75" s="36"/>
-      <c r="H75" s="36"/>
-      <c r="I75" s="36"/>
-      <c r="J75" s="36"/>
-      <c r="K75" s="36"/>
-      <c r="L75" s="41"/>
+      <c r="C75" s="41"/>
+      <c r="D75" s="41"/>
+      <c r="E75" s="41"/>
+      <c r="F75" s="41"/>
+      <c r="G75" s="41"/>
+      <c r="H75" s="41"/>
+      <c r="I75" s="41"/>
+      <c r="J75" s="41"/>
+      <c r="K75" s="41"/>
+      <c r="L75" s="42"/>
     </row>
     <row r="76" spans="2:12">
       <c r="B76" s="40"/>
-      <c r="C76" s="36"/>
-      <c r="D76" s="36"/>
-      <c r="E76" s="36"/>
-      <c r="F76" s="36"/>
-      <c r="G76" s="36"/>
-      <c r="H76" s="36"/>
-      <c r="I76" s="36"/>
-      <c r="J76" s="36"/>
-      <c r="K76" s="36"/>
-      <c r="L76" s="41"/>
+      <c r="C76" s="41"/>
+      <c r="D76" s="41"/>
+      <c r="E76" s="41"/>
+      <c r="F76" s="41"/>
+      <c r="G76" s="41"/>
+      <c r="H76" s="41"/>
+      <c r="I76" s="41"/>
+      <c r="J76" s="41"/>
+      <c r="K76" s="41"/>
+      <c r="L76" s="42"/>
     </row>
     <row r="77" spans="2:12">
       <c r="B77" s="40"/>
-      <c r="C77" s="36"/>
-      <c r="D77" s="36"/>
-      <c r="E77" s="36"/>
-      <c r="F77" s="36"/>
-      <c r="G77" s="36"/>
-      <c r="H77" s="36"/>
-      <c r="I77" s="36"/>
-      <c r="J77" s="36"/>
-      <c r="K77" s="36"/>
-      <c r="L77" s="41"/>
+      <c r="C77" s="41"/>
+      <c r="D77" s="41"/>
+      <c r="E77" s="41"/>
+      <c r="F77" s="41"/>
+      <c r="G77" s="41"/>
+      <c r="H77" s="41"/>
+      <c r="I77" s="41"/>
+      <c r="J77" s="41"/>
+      <c r="K77" s="41"/>
+      <c r="L77" s="42"/>
     </row>
     <row r="78" spans="2:12">
       <c r="B78" s="40"/>
-      <c r="C78" s="36"/>
-      <c r="D78" s="36"/>
-      <c r="E78" s="36"/>
-      <c r="F78" s="36"/>
-      <c r="G78" s="36"/>
-      <c r="H78" s="36"/>
-      <c r="I78" s="36"/>
-      <c r="J78" s="36"/>
-      <c r="K78" s="36"/>
-      <c r="L78" s="41"/>
+      <c r="C78" s="41"/>
+      <c r="D78" s="41"/>
+      <c r="E78" s="41"/>
+      <c r="F78" s="41"/>
+      <c r="G78" s="41"/>
+      <c r="H78" s="41"/>
+      <c r="I78" s="41"/>
+      <c r="J78" s="41"/>
+      <c r="K78" s="41"/>
+      <c r="L78" s="42"/>
     </row>
     <row r="79" spans="2:12">
       <c r="B79" s="40"/>
-      <c r="C79" s="36"/>
-      <c r="D79" s="36"/>
-      <c r="E79" s="36"/>
-      <c r="F79" s="36"/>
-      <c r="G79" s="36"/>
-      <c r="H79" s="36"/>
-      <c r="I79" s="36"/>
-      <c r="J79" s="36"/>
-      <c r="K79" s="36"/>
-      <c r="L79" s="41"/>
+      <c r="C79" s="41"/>
+      <c r="D79" s="41"/>
+      <c r="E79" s="41"/>
+      <c r="F79" s="41"/>
+      <c r="G79" s="41"/>
+      <c r="H79" s="41"/>
+      <c r="I79" s="41"/>
+      <c r="J79" s="41"/>
+      <c r="K79" s="41"/>
+      <c r="L79" s="42"/>
     </row>
     <row r="80" spans="2:12">
       <c r="B80" s="40"/>
-      <c r="C80" s="36"/>
-      <c r="D80" s="36"/>
-      <c r="E80" s="36"/>
-      <c r="F80" s="36"/>
-      <c r="G80" s="36"/>
-      <c r="H80" s="36"/>
-      <c r="I80" s="36"/>
-      <c r="J80" s="36"/>
-      <c r="K80" s="36"/>
-      <c r="L80" s="41"/>
+      <c r="C80" s="41"/>
+      <c r="D80" s="41"/>
+      <c r="E80" s="41"/>
+      <c r="F80" s="41"/>
+      <c r="G80" s="41"/>
+      <c r="H80" s="41"/>
+      <c r="I80" s="41"/>
+      <c r="J80" s="41"/>
+      <c r="K80" s="41"/>
+      <c r="L80" s="42"/>
     </row>
     <row r="81" spans="1:12">
       <c r="B81" s="40"/>
-      <c r="C81" s="36"/>
-      <c r="D81" s="36"/>
-      <c r="E81" s="36"/>
-      <c r="F81" s="36"/>
-      <c r="G81" s="36"/>
-      <c r="H81" s="36"/>
-      <c r="I81" s="36"/>
-      <c r="J81" s="36"/>
-      <c r="K81" s="36"/>
-      <c r="L81" s="41"/>
+      <c r="C81" s="41"/>
+      <c r="D81" s="41"/>
+      <c r="E81" s="41"/>
+      <c r="F81" s="41"/>
+      <c r="G81" s="41"/>
+      <c r="H81" s="41"/>
+      <c r="I81" s="41"/>
+      <c r="J81" s="41"/>
+      <c r="K81" s="41"/>
+      <c r="L81" s="42"/>
     </row>
     <row r="82" spans="1:12">
-      <c r="B82" s="42"/>
-      <c r="C82" s="43"/>
-      <c r="D82" s="43"/>
-      <c r="E82" s="43"/>
-      <c r="F82" s="43"/>
-      <c r="G82" s="43"/>
-      <c r="H82" s="43"/>
-      <c r="I82" s="43"/>
-      <c r="J82" s="43"/>
-      <c r="K82" s="43"/>
-      <c r="L82" s="44"/>
+      <c r="B82" s="43"/>
+      <c r="C82" s="44"/>
+      <c r="D82" s="44"/>
+      <c r="E82" s="44"/>
+      <c r="F82" s="44"/>
+      <c r="G82" s="44"/>
+      <c r="H82" s="44"/>
+      <c r="I82" s="44"/>
+      <c r="J82" s="44"/>
+      <c r="K82" s="44"/>
+      <c r="L82" s="45"/>
     </row>
     <row r="83" spans="1:12">
       <c r="A83" t="str">
@@ -41309,250 +41307,250 @@
     </row>
     <row r="84" spans="1:12">
       <c r="B84" s="40"/>
-      <c r="C84" s="36"/>
-      <c r="D84" s="36"/>
-      <c r="E84" s="36"/>
-      <c r="F84" s="36"/>
-      <c r="G84" s="36"/>
-      <c r="H84" s="36"/>
-      <c r="I84" s="36"/>
-      <c r="J84" s="36"/>
-      <c r="K84" s="36"/>
-      <c r="L84" s="41"/>
+      <c r="C84" s="41"/>
+      <c r="D84" s="41"/>
+      <c r="E84" s="41"/>
+      <c r="F84" s="41"/>
+      <c r="G84" s="41"/>
+      <c r="H84" s="41"/>
+      <c r="I84" s="41"/>
+      <c r="J84" s="41"/>
+      <c r="K84" s="41"/>
+      <c r="L84" s="42"/>
     </row>
     <row r="85" spans="1:12">
       <c r="B85" s="40"/>
-      <c r="C85" s="36"/>
-      <c r="D85" s="36"/>
-      <c r="E85" s="36"/>
-      <c r="F85" s="36"/>
-      <c r="G85" s="36"/>
-      <c r="H85" s="36"/>
-      <c r="I85" s="36"/>
-      <c r="J85" s="36"/>
-      <c r="K85" s="36"/>
-      <c r="L85" s="41"/>
+      <c r="C85" s="41"/>
+      <c r="D85" s="41"/>
+      <c r="E85" s="41"/>
+      <c r="F85" s="41"/>
+      <c r="G85" s="41"/>
+      <c r="H85" s="41"/>
+      <c r="I85" s="41"/>
+      <c r="J85" s="41"/>
+      <c r="K85" s="41"/>
+      <c r="L85" s="42"/>
     </row>
     <row r="86" spans="1:12">
       <c r="B86" s="40"/>
-      <c r="C86" s="36"/>
-      <c r="D86" s="36"/>
-      <c r="E86" s="36"/>
-      <c r="F86" s="36"/>
-      <c r="G86" s="36"/>
-      <c r="H86" s="36"/>
-      <c r="I86" s="36"/>
-      <c r="J86" s="36"/>
-      <c r="K86" s="36"/>
-      <c r="L86" s="41"/>
+      <c r="C86" s="41"/>
+      <c r="D86" s="41"/>
+      <c r="E86" s="41"/>
+      <c r="F86" s="41"/>
+      <c r="G86" s="41"/>
+      <c r="H86" s="41"/>
+      <c r="I86" s="41"/>
+      <c r="J86" s="41"/>
+      <c r="K86" s="41"/>
+      <c r="L86" s="42"/>
     </row>
     <row r="87" spans="1:12">
       <c r="B87" s="40"/>
-      <c r="C87" s="36"/>
-      <c r="D87" s="36"/>
-      <c r="E87" s="36"/>
-      <c r="F87" s="36"/>
-      <c r="G87" s="36"/>
-      <c r="H87" s="36"/>
-      <c r="I87" s="36"/>
-      <c r="J87" s="36"/>
-      <c r="K87" s="36"/>
-      <c r="L87" s="41"/>
+      <c r="C87" s="41"/>
+      <c r="D87" s="41"/>
+      <c r="E87" s="41"/>
+      <c r="F87" s="41"/>
+      <c r="G87" s="41"/>
+      <c r="H87" s="41"/>
+      <c r="I87" s="41"/>
+      <c r="J87" s="41"/>
+      <c r="K87" s="41"/>
+      <c r="L87" s="42"/>
     </row>
     <row r="88" spans="1:12">
       <c r="B88" s="40"/>
-      <c r="C88" s="36"/>
-      <c r="D88" s="36"/>
-      <c r="E88" s="36"/>
-      <c r="F88" s="36"/>
-      <c r="G88" s="36"/>
-      <c r="H88" s="36"/>
-      <c r="I88" s="36"/>
-      <c r="J88" s="36"/>
-      <c r="K88" s="36"/>
-      <c r="L88" s="41"/>
+      <c r="C88" s="41"/>
+      <c r="D88" s="41"/>
+      <c r="E88" s="41"/>
+      <c r="F88" s="41"/>
+      <c r="G88" s="41"/>
+      <c r="H88" s="41"/>
+      <c r="I88" s="41"/>
+      <c r="J88" s="41"/>
+      <c r="K88" s="41"/>
+      <c r="L88" s="42"/>
     </row>
     <row r="89" spans="1:12">
       <c r="B89" s="40"/>
-      <c r="C89" s="36"/>
-      <c r="D89" s="36"/>
-      <c r="E89" s="36"/>
-      <c r="F89" s="36"/>
-      <c r="G89" s="36"/>
-      <c r="H89" s="36"/>
-      <c r="I89" s="36"/>
-      <c r="J89" s="36"/>
-      <c r="K89" s="36"/>
-      <c r="L89" s="41"/>
+      <c r="C89" s="41"/>
+      <c r="D89" s="41"/>
+      <c r="E89" s="41"/>
+      <c r="F89" s="41"/>
+      <c r="G89" s="41"/>
+      <c r="H89" s="41"/>
+      <c r="I89" s="41"/>
+      <c r="J89" s="41"/>
+      <c r="K89" s="41"/>
+      <c r="L89" s="42"/>
     </row>
     <row r="90" spans="1:12">
       <c r="B90" s="40"/>
-      <c r="C90" s="36"/>
-      <c r="D90" s="36"/>
-      <c r="E90" s="36"/>
-      <c r="F90" s="36"/>
-      <c r="G90" s="36"/>
-      <c r="H90" s="36"/>
-      <c r="I90" s="36"/>
-      <c r="J90" s="36"/>
-      <c r="K90" s="36"/>
-      <c r="L90" s="41"/>
+      <c r="C90" s="41"/>
+      <c r="D90" s="41"/>
+      <c r="E90" s="41"/>
+      <c r="F90" s="41"/>
+      <c r="G90" s="41"/>
+      <c r="H90" s="41"/>
+      <c r="I90" s="41"/>
+      <c r="J90" s="41"/>
+      <c r="K90" s="41"/>
+      <c r="L90" s="42"/>
     </row>
     <row r="91" spans="1:12">
       <c r="B91" s="40"/>
-      <c r="C91" s="36"/>
-      <c r="D91" s="36"/>
-      <c r="E91" s="36"/>
-      <c r="F91" s="36"/>
-      <c r="G91" s="36"/>
-      <c r="H91" s="36"/>
-      <c r="I91" s="36"/>
-      <c r="J91" s="36"/>
-      <c r="K91" s="36"/>
-      <c r="L91" s="41"/>
+      <c r="C91" s="41"/>
+      <c r="D91" s="41"/>
+      <c r="E91" s="41"/>
+      <c r="F91" s="41"/>
+      <c r="G91" s="41"/>
+      <c r="H91" s="41"/>
+      <c r="I91" s="41"/>
+      <c r="J91" s="41"/>
+      <c r="K91" s="41"/>
+      <c r="L91" s="42"/>
     </row>
     <row r="92" spans="1:12">
       <c r="B92" s="40"/>
-      <c r="C92" s="36"/>
-      <c r="D92" s="36"/>
-      <c r="E92" s="36"/>
-      <c r="F92" s="36"/>
-      <c r="G92" s="36"/>
-      <c r="H92" s="36"/>
-      <c r="I92" s="36"/>
-      <c r="J92" s="36"/>
-      <c r="K92" s="36"/>
-      <c r="L92" s="41"/>
+      <c r="C92" s="41"/>
+      <c r="D92" s="41"/>
+      <c r="E92" s="41"/>
+      <c r="F92" s="41"/>
+      <c r="G92" s="41"/>
+      <c r="H92" s="41"/>
+      <c r="I92" s="41"/>
+      <c r="J92" s="41"/>
+      <c r="K92" s="41"/>
+      <c r="L92" s="42"/>
     </row>
     <row r="93" spans="1:12">
       <c r="B93" s="40"/>
-      <c r="C93" s="36"/>
-      <c r="D93" s="36"/>
-      <c r="E93" s="36"/>
-      <c r="F93" s="36"/>
-      <c r="G93" s="36"/>
-      <c r="H93" s="36"/>
-      <c r="I93" s="36"/>
-      <c r="J93" s="36"/>
-      <c r="K93" s="36"/>
-      <c r="L93" s="41"/>
+      <c r="C93" s="41"/>
+      <c r="D93" s="41"/>
+      <c r="E93" s="41"/>
+      <c r="F93" s="41"/>
+      <c r="G93" s="41"/>
+      <c r="H93" s="41"/>
+      <c r="I93" s="41"/>
+      <c r="J93" s="41"/>
+      <c r="K93" s="41"/>
+      <c r="L93" s="42"/>
     </row>
     <row r="94" spans="1:12">
       <c r="B94" s="40"/>
-      <c r="C94" s="36"/>
-      <c r="D94" s="36"/>
-      <c r="E94" s="36"/>
-      <c r="F94" s="36"/>
-      <c r="G94" s="36"/>
-      <c r="H94" s="36"/>
-      <c r="I94" s="36"/>
-      <c r="J94" s="36"/>
-      <c r="K94" s="36"/>
-      <c r="L94" s="41"/>
+      <c r="C94" s="41"/>
+      <c r="D94" s="41"/>
+      <c r="E94" s="41"/>
+      <c r="F94" s="41"/>
+      <c r="G94" s="41"/>
+      <c r="H94" s="41"/>
+      <c r="I94" s="41"/>
+      <c r="J94" s="41"/>
+      <c r="K94" s="41"/>
+      <c r="L94" s="42"/>
     </row>
     <row r="95" spans="1:12">
       <c r="B95" s="40"/>
-      <c r="C95" s="36"/>
-      <c r="D95" s="36"/>
-      <c r="E95" s="36"/>
-      <c r="F95" s="36"/>
-      <c r="G95" s="36"/>
-      <c r="H95" s="36"/>
-      <c r="I95" s="36"/>
-      <c r="J95" s="36"/>
-      <c r="K95" s="36"/>
-      <c r="L95" s="41"/>
+      <c r="C95" s="41"/>
+      <c r="D95" s="41"/>
+      <c r="E95" s="41"/>
+      <c r="F95" s="41"/>
+      <c r="G95" s="41"/>
+      <c r="H95" s="41"/>
+      <c r="I95" s="41"/>
+      <c r="J95" s="41"/>
+      <c r="K95" s="41"/>
+      <c r="L95" s="42"/>
     </row>
     <row r="96" spans="1:12">
       <c r="B96" s="40"/>
-      <c r="C96" s="36"/>
-      <c r="D96" s="36"/>
-      <c r="E96" s="36"/>
-      <c r="F96" s="36"/>
-      <c r="G96" s="36"/>
-      <c r="H96" s="36"/>
-      <c r="I96" s="36"/>
-      <c r="J96" s="36"/>
-      <c r="K96" s="36"/>
-      <c r="L96" s="41"/>
+      <c r="C96" s="41"/>
+      <c r="D96" s="41"/>
+      <c r="E96" s="41"/>
+      <c r="F96" s="41"/>
+      <c r="G96" s="41"/>
+      <c r="H96" s="41"/>
+      <c r="I96" s="41"/>
+      <c r="J96" s="41"/>
+      <c r="K96" s="41"/>
+      <c r="L96" s="42"/>
     </row>
     <row r="97" spans="1:12">
       <c r="B97" s="40"/>
-      <c r="C97" s="36"/>
-      <c r="D97" s="36"/>
-      <c r="E97" s="36"/>
-      <c r="F97" s="36"/>
-      <c r="G97" s="36"/>
-      <c r="H97" s="36"/>
-      <c r="I97" s="36"/>
-      <c r="J97" s="36"/>
-      <c r="K97" s="36"/>
-      <c r="L97" s="41"/>
+      <c r="C97" s="41"/>
+      <c r="D97" s="41"/>
+      <c r="E97" s="41"/>
+      <c r="F97" s="41"/>
+      <c r="G97" s="41"/>
+      <c r="H97" s="41"/>
+      <c r="I97" s="41"/>
+      <c r="J97" s="41"/>
+      <c r="K97" s="41"/>
+      <c r="L97" s="42"/>
     </row>
     <row r="98" spans="1:12">
       <c r="B98" s="40"/>
-      <c r="C98" s="36"/>
-      <c r="D98" s="36"/>
-      <c r="E98" s="36"/>
-      <c r="F98" s="36"/>
-      <c r="G98" s="36"/>
-      <c r="H98" s="36"/>
-      <c r="I98" s="36"/>
-      <c r="J98" s="36"/>
-      <c r="K98" s="36"/>
-      <c r="L98" s="41"/>
+      <c r="C98" s="41"/>
+      <c r="D98" s="41"/>
+      <c r="E98" s="41"/>
+      <c r="F98" s="41"/>
+      <c r="G98" s="41"/>
+      <c r="H98" s="41"/>
+      <c r="I98" s="41"/>
+      <c r="J98" s="41"/>
+      <c r="K98" s="41"/>
+      <c r="L98" s="42"/>
     </row>
     <row r="99" spans="1:12">
       <c r="B99" s="40"/>
-      <c r="C99" s="36"/>
-      <c r="D99" s="36"/>
-      <c r="E99" s="36"/>
-      <c r="F99" s="36"/>
-      <c r="G99" s="36"/>
-      <c r="H99" s="36"/>
-      <c r="I99" s="36"/>
-      <c r="J99" s="36"/>
-      <c r="K99" s="36"/>
-      <c r="L99" s="41"/>
+      <c r="C99" s="41"/>
+      <c r="D99" s="41"/>
+      <c r="E99" s="41"/>
+      <c r="F99" s="41"/>
+      <c r="G99" s="41"/>
+      <c r="H99" s="41"/>
+      <c r="I99" s="41"/>
+      <c r="J99" s="41"/>
+      <c r="K99" s="41"/>
+      <c r="L99" s="42"/>
     </row>
     <row r="100" spans="1:12">
       <c r="B100" s="40"/>
-      <c r="C100" s="36"/>
-      <c r="D100" s="36"/>
-      <c r="E100" s="36"/>
-      <c r="F100" s="36"/>
-      <c r="G100" s="36"/>
-      <c r="H100" s="36"/>
-      <c r="I100" s="36"/>
-      <c r="J100" s="36"/>
-      <c r="K100" s="36"/>
-      <c r="L100" s="41"/>
+      <c r="C100" s="41"/>
+      <c r="D100" s="41"/>
+      <c r="E100" s="41"/>
+      <c r="F100" s="41"/>
+      <c r="G100" s="41"/>
+      <c r="H100" s="41"/>
+      <c r="I100" s="41"/>
+      <c r="J100" s="41"/>
+      <c r="K100" s="41"/>
+      <c r="L100" s="42"/>
     </row>
     <row r="101" spans="1:12">
       <c r="B101" s="40"/>
-      <c r="C101" s="36"/>
-      <c r="D101" s="36"/>
-      <c r="E101" s="36"/>
-      <c r="F101" s="36"/>
-      <c r="G101" s="36"/>
-      <c r="H101" s="36"/>
-      <c r="I101" s="36"/>
-      <c r="J101" s="36"/>
-      <c r="K101" s="36"/>
-      <c r="L101" s="41"/>
+      <c r="C101" s="41"/>
+      <c r="D101" s="41"/>
+      <c r="E101" s="41"/>
+      <c r="F101" s="41"/>
+      <c r="G101" s="41"/>
+      <c r="H101" s="41"/>
+      <c r="I101" s="41"/>
+      <c r="J101" s="41"/>
+      <c r="K101" s="41"/>
+      <c r="L101" s="42"/>
     </row>
     <row r="102" spans="1:12">
-      <c r="B102" s="42"/>
-      <c r="C102" s="43"/>
-      <c r="D102" s="43"/>
-      <c r="E102" s="43"/>
-      <c r="F102" s="43"/>
-      <c r="G102" s="43"/>
-      <c r="H102" s="43"/>
-      <c r="I102" s="43"/>
-      <c r="J102" s="43"/>
-      <c r="K102" s="43"/>
-      <c r="L102" s="44"/>
+      <c r="B102" s="43"/>
+      <c r="C102" s="44"/>
+      <c r="D102" s="44"/>
+      <c r="E102" s="44"/>
+      <c r="F102" s="44"/>
+      <c r="G102" s="44"/>
+      <c r="H102" s="44"/>
+      <c r="I102" s="44"/>
+      <c r="J102" s="44"/>
+      <c r="K102" s="44"/>
+      <c r="L102" s="45"/>
     </row>
     <row r="103" spans="1:12">
       <c r="A103" t="str">
@@ -41575,250 +41573,250 @@
     </row>
     <row r="104" spans="1:12">
       <c r="B104" s="40"/>
-      <c r="C104" s="36"/>
-      <c r="D104" s="36"/>
-      <c r="E104" s="36"/>
-      <c r="F104" s="36"/>
-      <c r="G104" s="36"/>
-      <c r="H104" s="36"/>
-      <c r="I104" s="36"/>
-      <c r="J104" s="36"/>
-      <c r="K104" s="36"/>
-      <c r="L104" s="41"/>
+      <c r="C104" s="41"/>
+      <c r="D104" s="41"/>
+      <c r="E104" s="41"/>
+      <c r="F104" s="41"/>
+      <c r="G104" s="41"/>
+      <c r="H104" s="41"/>
+      <c r="I104" s="41"/>
+      <c r="J104" s="41"/>
+      <c r="K104" s="41"/>
+      <c r="L104" s="42"/>
     </row>
     <row r="105" spans="1:12">
       <c r="B105" s="40"/>
-      <c r="C105" s="36"/>
-      <c r="D105" s="36"/>
-      <c r="E105" s="36"/>
-      <c r="F105" s="36"/>
-      <c r="G105" s="36"/>
-      <c r="H105" s="36"/>
-      <c r="I105" s="36"/>
-      <c r="J105" s="36"/>
-      <c r="K105" s="36"/>
-      <c r="L105" s="41"/>
+      <c r="C105" s="41"/>
+      <c r="D105" s="41"/>
+      <c r="E105" s="41"/>
+      <c r="F105" s="41"/>
+      <c r="G105" s="41"/>
+      <c r="H105" s="41"/>
+      <c r="I105" s="41"/>
+      <c r="J105" s="41"/>
+      <c r="K105" s="41"/>
+      <c r="L105" s="42"/>
     </row>
     <row r="106" spans="1:12">
       <c r="B106" s="40"/>
-      <c r="C106" s="36"/>
-      <c r="D106" s="36"/>
-      <c r="E106" s="36"/>
-      <c r="F106" s="36"/>
-      <c r="G106" s="36"/>
-      <c r="H106" s="36"/>
-      <c r="I106" s="36"/>
-      <c r="J106" s="36"/>
-      <c r="K106" s="36"/>
-      <c r="L106" s="41"/>
+      <c r="C106" s="41"/>
+      <c r="D106" s="41"/>
+      <c r="E106" s="41"/>
+      <c r="F106" s="41"/>
+      <c r="G106" s="41"/>
+      <c r="H106" s="41"/>
+      <c r="I106" s="41"/>
+      <c r="J106" s="41"/>
+      <c r="K106" s="41"/>
+      <c r="L106" s="42"/>
     </row>
     <row r="107" spans="1:12">
       <c r="B107" s="40"/>
-      <c r="C107" s="36"/>
-      <c r="D107" s="36"/>
-      <c r="E107" s="36"/>
-      <c r="F107" s="36"/>
-      <c r="G107" s="36"/>
-      <c r="H107" s="36"/>
-      <c r="I107" s="36"/>
-      <c r="J107" s="36"/>
-      <c r="K107" s="36"/>
-      <c r="L107" s="41"/>
+      <c r="C107" s="41"/>
+      <c r="D107" s="41"/>
+      <c r="E107" s="41"/>
+      <c r="F107" s="41"/>
+      <c r="G107" s="41"/>
+      <c r="H107" s="41"/>
+      <c r="I107" s="41"/>
+      <c r="J107" s="41"/>
+      <c r="K107" s="41"/>
+      <c r="L107" s="42"/>
     </row>
     <row r="108" spans="1:12">
       <c r="B108" s="40"/>
-      <c r="C108" s="36"/>
-      <c r="D108" s="36"/>
-      <c r="E108" s="36"/>
-      <c r="F108" s="36"/>
-      <c r="G108" s="36"/>
-      <c r="H108" s="36"/>
-      <c r="I108" s="36"/>
-      <c r="J108" s="36"/>
-      <c r="K108" s="36"/>
-      <c r="L108" s="41"/>
+      <c r="C108" s="41"/>
+      <c r="D108" s="41"/>
+      <c r="E108" s="41"/>
+      <c r="F108" s="41"/>
+      <c r="G108" s="41"/>
+      <c r="H108" s="41"/>
+      <c r="I108" s="41"/>
+      <c r="J108" s="41"/>
+      <c r="K108" s="41"/>
+      <c r="L108" s="42"/>
     </row>
     <row r="109" spans="1:12">
       <c r="B109" s="40"/>
-      <c r="C109" s="36"/>
-      <c r="D109" s="36"/>
-      <c r="E109" s="36"/>
-      <c r="F109" s="36"/>
-      <c r="G109" s="36"/>
-      <c r="H109" s="36"/>
-      <c r="I109" s="36"/>
-      <c r="J109" s="36"/>
-      <c r="K109" s="36"/>
-      <c r="L109" s="41"/>
+      <c r="C109" s="41"/>
+      <c r="D109" s="41"/>
+      <c r="E109" s="41"/>
+      <c r="F109" s="41"/>
+      <c r="G109" s="41"/>
+      <c r="H109" s="41"/>
+      <c r="I109" s="41"/>
+      <c r="J109" s="41"/>
+      <c r="K109" s="41"/>
+      <c r="L109" s="42"/>
     </row>
     <row r="110" spans="1:12">
       <c r="B110" s="40"/>
-      <c r="C110" s="36"/>
-      <c r="D110" s="36"/>
-      <c r="E110" s="36"/>
-      <c r="F110" s="36"/>
-      <c r="G110" s="36"/>
-      <c r="H110" s="36"/>
-      <c r="I110" s="36"/>
-      <c r="J110" s="36"/>
-      <c r="K110" s="36"/>
-      <c r="L110" s="41"/>
+      <c r="C110" s="41"/>
+      <c r="D110" s="41"/>
+      <c r="E110" s="41"/>
+      <c r="F110" s="41"/>
+      <c r="G110" s="41"/>
+      <c r="H110" s="41"/>
+      <c r="I110" s="41"/>
+      <c r="J110" s="41"/>
+      <c r="K110" s="41"/>
+      <c r="L110" s="42"/>
     </row>
     <row r="111" spans="1:12">
       <c r="B111" s="40"/>
-      <c r="C111" s="36"/>
-      <c r="D111" s="36"/>
-      <c r="E111" s="36"/>
-      <c r="F111" s="36"/>
-      <c r="G111" s="36"/>
-      <c r="H111" s="36"/>
-      <c r="I111" s="36"/>
-      <c r="J111" s="36"/>
-      <c r="K111" s="36"/>
-      <c r="L111" s="41"/>
+      <c r="C111" s="41"/>
+      <c r="D111" s="41"/>
+      <c r="E111" s="41"/>
+      <c r="F111" s="41"/>
+      <c r="G111" s="41"/>
+      <c r="H111" s="41"/>
+      <c r="I111" s="41"/>
+      <c r="J111" s="41"/>
+      <c r="K111" s="41"/>
+      <c r="L111" s="42"/>
     </row>
     <row r="112" spans="1:12">
       <c r="B112" s="40"/>
-      <c r="C112" s="36"/>
-      <c r="D112" s="36"/>
-      <c r="E112" s="36"/>
-      <c r="F112" s="36"/>
-      <c r="G112" s="36"/>
-      <c r="H112" s="36"/>
-      <c r="I112" s="36"/>
-      <c r="J112" s="36"/>
-      <c r="K112" s="36"/>
-      <c r="L112" s="41"/>
+      <c r="C112" s="41"/>
+      <c r="D112" s="41"/>
+      <c r="E112" s="41"/>
+      <c r="F112" s="41"/>
+      <c r="G112" s="41"/>
+      <c r="H112" s="41"/>
+      <c r="I112" s="41"/>
+      <c r="J112" s="41"/>
+      <c r="K112" s="41"/>
+      <c r="L112" s="42"/>
     </row>
     <row r="113" spans="1:12">
       <c r="B113" s="40"/>
-      <c r="C113" s="36"/>
-      <c r="D113" s="36"/>
-      <c r="E113" s="36"/>
-      <c r="F113" s="36"/>
-      <c r="G113" s="36"/>
-      <c r="H113" s="36"/>
-      <c r="I113" s="36"/>
-      <c r="J113" s="36"/>
-      <c r="K113" s="36"/>
-      <c r="L113" s="41"/>
+      <c r="C113" s="41"/>
+      <c r="D113" s="41"/>
+      <c r="E113" s="41"/>
+      <c r="F113" s="41"/>
+      <c r="G113" s="41"/>
+      <c r="H113" s="41"/>
+      <c r="I113" s="41"/>
+      <c r="J113" s="41"/>
+      <c r="K113" s="41"/>
+      <c r="L113" s="42"/>
     </row>
     <row r="114" spans="1:12">
       <c r="B114" s="40"/>
-      <c r="C114" s="36"/>
-      <c r="D114" s="36"/>
-      <c r="E114" s="36"/>
-      <c r="F114" s="36"/>
-      <c r="G114" s="36"/>
-      <c r="H114" s="36"/>
-      <c r="I114" s="36"/>
-      <c r="J114" s="36"/>
-      <c r="K114" s="36"/>
-      <c r="L114" s="41"/>
+      <c r="C114" s="41"/>
+      <c r="D114" s="41"/>
+      <c r="E114" s="41"/>
+      <c r="F114" s="41"/>
+      <c r="G114" s="41"/>
+      <c r="H114" s="41"/>
+      <c r="I114" s="41"/>
+      <c r="J114" s="41"/>
+      <c r="K114" s="41"/>
+      <c r="L114" s="42"/>
     </row>
     <row r="115" spans="1:12">
       <c r="B115" s="40"/>
-      <c r="C115" s="36"/>
-      <c r="D115" s="36"/>
-      <c r="E115" s="36"/>
-      <c r="F115" s="36"/>
-      <c r="G115" s="36"/>
-      <c r="H115" s="36"/>
-      <c r="I115" s="36"/>
-      <c r="J115" s="36"/>
-      <c r="K115" s="36"/>
-      <c r="L115" s="41"/>
+      <c r="C115" s="41"/>
+      <c r="D115" s="41"/>
+      <c r="E115" s="41"/>
+      <c r="F115" s="41"/>
+      <c r="G115" s="41"/>
+      <c r="H115" s="41"/>
+      <c r="I115" s="41"/>
+      <c r="J115" s="41"/>
+      <c r="K115" s="41"/>
+      <c r="L115" s="42"/>
     </row>
     <row r="116" spans="1:12">
       <c r="B116" s="40"/>
-      <c r="C116" s="36"/>
-      <c r="D116" s="36"/>
-      <c r="E116" s="36"/>
-      <c r="F116" s="36"/>
-      <c r="G116" s="36"/>
-      <c r="H116" s="36"/>
-      <c r="I116" s="36"/>
-      <c r="J116" s="36"/>
-      <c r="K116" s="36"/>
-      <c r="L116" s="41"/>
+      <c r="C116" s="41"/>
+      <c r="D116" s="41"/>
+      <c r="E116" s="41"/>
+      <c r="F116" s="41"/>
+      <c r="G116" s="41"/>
+      <c r="H116" s="41"/>
+      <c r="I116" s="41"/>
+      <c r="J116" s="41"/>
+      <c r="K116" s="41"/>
+      <c r="L116" s="42"/>
     </row>
     <row r="117" spans="1:12">
       <c r="B117" s="40"/>
-      <c r="C117" s="36"/>
-      <c r="D117" s="36"/>
-      <c r="E117" s="36"/>
-      <c r="F117" s="36"/>
-      <c r="G117" s="36"/>
-      <c r="H117" s="36"/>
-      <c r="I117" s="36"/>
-      <c r="J117" s="36"/>
-      <c r="K117" s="36"/>
-      <c r="L117" s="41"/>
+      <c r="C117" s="41"/>
+      <c r="D117" s="41"/>
+      <c r="E117" s="41"/>
+      <c r="F117" s="41"/>
+      <c r="G117" s="41"/>
+      <c r="H117" s="41"/>
+      <c r="I117" s="41"/>
+      <c r="J117" s="41"/>
+      <c r="K117" s="41"/>
+      <c r="L117" s="42"/>
     </row>
     <row r="118" spans="1:12">
       <c r="B118" s="40"/>
-      <c r="C118" s="36"/>
-      <c r="D118" s="36"/>
-      <c r="E118" s="36"/>
-      <c r="F118" s="36"/>
-      <c r="G118" s="36"/>
-      <c r="H118" s="36"/>
-      <c r="I118" s="36"/>
-      <c r="J118" s="36"/>
-      <c r="K118" s="36"/>
-      <c r="L118" s="41"/>
+      <c r="C118" s="41"/>
+      <c r="D118" s="41"/>
+      <c r="E118" s="41"/>
+      <c r="F118" s="41"/>
+      <c r="G118" s="41"/>
+      <c r="H118" s="41"/>
+      <c r="I118" s="41"/>
+      <c r="J118" s="41"/>
+      <c r="K118" s="41"/>
+      <c r="L118" s="42"/>
     </row>
     <row r="119" spans="1:12">
       <c r="B119" s="40"/>
-      <c r="C119" s="36"/>
-      <c r="D119" s="36"/>
-      <c r="E119" s="36"/>
-      <c r="F119" s="36"/>
-      <c r="G119" s="36"/>
-      <c r="H119" s="36"/>
-      <c r="I119" s="36"/>
-      <c r="J119" s="36"/>
-      <c r="K119" s="36"/>
-      <c r="L119" s="41"/>
+      <c r="C119" s="41"/>
+      <c r="D119" s="41"/>
+      <c r="E119" s="41"/>
+      <c r="F119" s="41"/>
+      <c r="G119" s="41"/>
+      <c r="H119" s="41"/>
+      <c r="I119" s="41"/>
+      <c r="J119" s="41"/>
+      <c r="K119" s="41"/>
+      <c r="L119" s="42"/>
     </row>
     <row r="120" spans="1:12">
       <c r="B120" s="40"/>
-      <c r="C120" s="36"/>
-      <c r="D120" s="36"/>
-      <c r="E120" s="36"/>
-      <c r="F120" s="36"/>
-      <c r="G120" s="36"/>
-      <c r="H120" s="36"/>
-      <c r="I120" s="36"/>
-      <c r="J120" s="36"/>
-      <c r="K120" s="36"/>
-      <c r="L120" s="41"/>
+      <c r="C120" s="41"/>
+      <c r="D120" s="41"/>
+      <c r="E120" s="41"/>
+      <c r="F120" s="41"/>
+      <c r="G120" s="41"/>
+      <c r="H120" s="41"/>
+      <c r="I120" s="41"/>
+      <c r="J120" s="41"/>
+      <c r="K120" s="41"/>
+      <c r="L120" s="42"/>
     </row>
     <row r="121" spans="1:12">
       <c r="B121" s="40"/>
-      <c r="C121" s="36"/>
-      <c r="D121" s="36"/>
-      <c r="E121" s="36"/>
-      <c r="F121" s="36"/>
-      <c r="G121" s="36"/>
-      <c r="H121" s="36"/>
-      <c r="I121" s="36"/>
-      <c r="J121" s="36"/>
-      <c r="K121" s="36"/>
-      <c r="L121" s="41"/>
+      <c r="C121" s="41"/>
+      <c r="D121" s="41"/>
+      <c r="E121" s="41"/>
+      <c r="F121" s="41"/>
+      <c r="G121" s="41"/>
+      <c r="H121" s="41"/>
+      <c r="I121" s="41"/>
+      <c r="J121" s="41"/>
+      <c r="K121" s="41"/>
+      <c r="L121" s="42"/>
     </row>
     <row r="122" spans="1:12">
-      <c r="B122" s="42"/>
-      <c r="C122" s="43"/>
-      <c r="D122" s="43"/>
-      <c r="E122" s="43"/>
-      <c r="F122" s="43"/>
-      <c r="G122" s="43"/>
-      <c r="H122" s="43"/>
-      <c r="I122" s="43"/>
-      <c r="J122" s="43"/>
-      <c r="K122" s="43"/>
-      <c r="L122" s="44"/>
+      <c r="B122" s="43"/>
+      <c r="C122" s="44"/>
+      <c r="D122" s="44"/>
+      <c r="E122" s="44"/>
+      <c r="F122" s="44"/>
+      <c r="G122" s="44"/>
+      <c r="H122" s="44"/>
+      <c r="I122" s="44"/>
+      <c r="J122" s="44"/>
+      <c r="K122" s="44"/>
+      <c r="L122" s="45"/>
     </row>
     <row r="123" spans="1:12">
       <c r="A123" t="str">
@@ -41841,250 +41839,250 @@
     </row>
     <row r="124" spans="1:12">
       <c r="B124" s="40"/>
-      <c r="C124" s="36"/>
-      <c r="D124" s="36"/>
-      <c r="E124" s="36"/>
-      <c r="F124" s="36"/>
-      <c r="G124" s="36"/>
-      <c r="H124" s="36"/>
-      <c r="I124" s="36"/>
-      <c r="J124" s="36"/>
-      <c r="K124" s="36"/>
-      <c r="L124" s="41"/>
+      <c r="C124" s="41"/>
+      <c r="D124" s="41"/>
+      <c r="E124" s="41"/>
+      <c r="F124" s="41"/>
+      <c r="G124" s="41"/>
+      <c r="H124" s="41"/>
+      <c r="I124" s="41"/>
+      <c r="J124" s="41"/>
+      <c r="K124" s="41"/>
+      <c r="L124" s="42"/>
     </row>
     <row r="125" spans="1:12">
       <c r="B125" s="40"/>
-      <c r="C125" s="36"/>
-      <c r="D125" s="36"/>
-      <c r="E125" s="36"/>
-      <c r="F125" s="36"/>
-      <c r="G125" s="36"/>
-      <c r="H125" s="36"/>
-      <c r="I125" s="36"/>
-      <c r="J125" s="36"/>
-      <c r="K125" s="36"/>
-      <c r="L125" s="41"/>
+      <c r="C125" s="41"/>
+      <c r="D125" s="41"/>
+      <c r="E125" s="41"/>
+      <c r="F125" s="41"/>
+      <c r="G125" s="41"/>
+      <c r="H125" s="41"/>
+      <c r="I125" s="41"/>
+      <c r="J125" s="41"/>
+      <c r="K125" s="41"/>
+      <c r="L125" s="42"/>
     </row>
     <row r="126" spans="1:12">
       <c r="B126" s="40"/>
-      <c r="C126" s="36"/>
-      <c r="D126" s="36"/>
-      <c r="E126" s="36"/>
-      <c r="F126" s="36"/>
-      <c r="G126" s="36"/>
-      <c r="H126" s="36"/>
-      <c r="I126" s="36"/>
-      <c r="J126" s="36"/>
-      <c r="K126" s="36"/>
-      <c r="L126" s="41"/>
+      <c r="C126" s="41"/>
+      <c r="D126" s="41"/>
+      <c r="E126" s="41"/>
+      <c r="F126" s="41"/>
+      <c r="G126" s="41"/>
+      <c r="H126" s="41"/>
+      <c r="I126" s="41"/>
+      <c r="J126" s="41"/>
+      <c r="K126" s="41"/>
+      <c r="L126" s="42"/>
     </row>
     <row r="127" spans="1:12">
       <c r="B127" s="40"/>
-      <c r="C127" s="36"/>
-      <c r="D127" s="36"/>
-      <c r="E127" s="36"/>
-      <c r="F127" s="36"/>
-      <c r="G127" s="36"/>
-      <c r="H127" s="36"/>
-      <c r="I127" s="36"/>
-      <c r="J127" s="36"/>
-      <c r="K127" s="36"/>
-      <c r="L127" s="41"/>
+      <c r="C127" s="41"/>
+      <c r="D127" s="41"/>
+      <c r="E127" s="41"/>
+      <c r="F127" s="41"/>
+      <c r="G127" s="41"/>
+      <c r="H127" s="41"/>
+      <c r="I127" s="41"/>
+      <c r="J127" s="41"/>
+      <c r="K127" s="41"/>
+      <c r="L127" s="42"/>
     </row>
     <row r="128" spans="1:12">
       <c r="B128" s="40"/>
-      <c r="C128" s="36"/>
-      <c r="D128" s="36"/>
-      <c r="E128" s="36"/>
-      <c r="F128" s="36"/>
-      <c r="G128" s="36"/>
-      <c r="H128" s="36"/>
-      <c r="I128" s="36"/>
-      <c r="J128" s="36"/>
-      <c r="K128" s="36"/>
-      <c r="L128" s="41"/>
+      <c r="C128" s="41"/>
+      <c r="D128" s="41"/>
+      <c r="E128" s="41"/>
+      <c r="F128" s="41"/>
+      <c r="G128" s="41"/>
+      <c r="H128" s="41"/>
+      <c r="I128" s="41"/>
+      <c r="J128" s="41"/>
+      <c r="K128" s="41"/>
+      <c r="L128" s="42"/>
     </row>
     <row r="129" spans="1:12">
       <c r="B129" s="40"/>
-      <c r="C129" s="36"/>
-      <c r="D129" s="36"/>
-      <c r="E129" s="36"/>
-      <c r="F129" s="36"/>
-      <c r="G129" s="36"/>
-      <c r="H129" s="36"/>
-      <c r="I129" s="36"/>
-      <c r="J129" s="36"/>
-      <c r="K129" s="36"/>
-      <c r="L129" s="41"/>
+      <c r="C129" s="41"/>
+      <c r="D129" s="41"/>
+      <c r="E129" s="41"/>
+      <c r="F129" s="41"/>
+      <c r="G129" s="41"/>
+      <c r="H129" s="41"/>
+      <c r="I129" s="41"/>
+      <c r="J129" s="41"/>
+      <c r="K129" s="41"/>
+      <c r="L129" s="42"/>
     </row>
     <row r="130" spans="1:12">
       <c r="B130" s="40"/>
-      <c r="C130" s="36"/>
-      <c r="D130" s="36"/>
-      <c r="E130" s="36"/>
-      <c r="F130" s="36"/>
-      <c r="G130" s="36"/>
-      <c r="H130" s="36"/>
-      <c r="I130" s="36"/>
-      <c r="J130" s="36"/>
-      <c r="K130" s="36"/>
-      <c r="L130" s="41"/>
+      <c r="C130" s="41"/>
+      <c r="D130" s="41"/>
+      <c r="E130" s="41"/>
+      <c r="F130" s="41"/>
+      <c r="G130" s="41"/>
+      <c r="H130" s="41"/>
+      <c r="I130" s="41"/>
+      <c r="J130" s="41"/>
+      <c r="K130" s="41"/>
+      <c r="L130" s="42"/>
     </row>
     <row r="131" spans="1:12">
       <c r="B131" s="40"/>
-      <c r="C131" s="36"/>
-      <c r="D131" s="36"/>
-      <c r="E131" s="36"/>
-      <c r="F131" s="36"/>
-      <c r="G131" s="36"/>
-      <c r="H131" s="36"/>
-      <c r="I131" s="36"/>
-      <c r="J131" s="36"/>
-      <c r="K131" s="36"/>
-      <c r="L131" s="41"/>
+      <c r="C131" s="41"/>
+      <c r="D131" s="41"/>
+      <c r="E131" s="41"/>
+      <c r="F131" s="41"/>
+      <c r="G131" s="41"/>
+      <c r="H131" s="41"/>
+      <c r="I131" s="41"/>
+      <c r="J131" s="41"/>
+      <c r="K131" s="41"/>
+      <c r="L131" s="42"/>
     </row>
     <row r="132" spans="1:12">
       <c r="B132" s="40"/>
-      <c r="C132" s="36"/>
-      <c r="D132" s="36"/>
-      <c r="E132" s="36"/>
-      <c r="F132" s="36"/>
-      <c r="G132" s="36"/>
-      <c r="H132" s="36"/>
-      <c r="I132" s="36"/>
-      <c r="J132" s="36"/>
-      <c r="K132" s="36"/>
-      <c r="L132" s="41"/>
+      <c r="C132" s="41"/>
+      <c r="D132" s="41"/>
+      <c r="E132" s="41"/>
+      <c r="F132" s="41"/>
+      <c r="G132" s="41"/>
+      <c r="H132" s="41"/>
+      <c r="I132" s="41"/>
+      <c r="J132" s="41"/>
+      <c r="K132" s="41"/>
+      <c r="L132" s="42"/>
     </row>
     <row r="133" spans="1:12">
       <c r="B133" s="40"/>
-      <c r="C133" s="36"/>
-      <c r="D133" s="36"/>
-      <c r="E133" s="36"/>
-      <c r="F133" s="36"/>
-      <c r="G133" s="36"/>
-      <c r="H133" s="36"/>
-      <c r="I133" s="36"/>
-      <c r="J133" s="36"/>
-      <c r="K133" s="36"/>
-      <c r="L133" s="41"/>
+      <c r="C133" s="41"/>
+      <c r="D133" s="41"/>
+      <c r="E133" s="41"/>
+      <c r="F133" s="41"/>
+      <c r="G133" s="41"/>
+      <c r="H133" s="41"/>
+      <c r="I133" s="41"/>
+      <c r="J133" s="41"/>
+      <c r="K133" s="41"/>
+      <c r="L133" s="42"/>
     </row>
     <row r="134" spans="1:12">
       <c r="B134" s="40"/>
-      <c r="C134" s="36"/>
-      <c r="D134" s="36"/>
-      <c r="E134" s="36"/>
-      <c r="F134" s="36"/>
-      <c r="G134" s="36"/>
-      <c r="H134" s="36"/>
-      <c r="I134" s="36"/>
-      <c r="J134" s="36"/>
-      <c r="K134" s="36"/>
-      <c r="L134" s="41"/>
+      <c r="C134" s="41"/>
+      <c r="D134" s="41"/>
+      <c r="E134" s="41"/>
+      <c r="F134" s="41"/>
+      <c r="G134" s="41"/>
+      <c r="H134" s="41"/>
+      <c r="I134" s="41"/>
+      <c r="J134" s="41"/>
+      <c r="K134" s="41"/>
+      <c r="L134" s="42"/>
     </row>
     <row r="135" spans="1:12">
       <c r="B135" s="40"/>
-      <c r="C135" s="36"/>
-      <c r="D135" s="36"/>
-      <c r="E135" s="36"/>
-      <c r="F135" s="36"/>
-      <c r="G135" s="36"/>
-      <c r="H135" s="36"/>
-      <c r="I135" s="36"/>
-      <c r="J135" s="36"/>
-      <c r="K135" s="36"/>
-      <c r="L135" s="41"/>
+      <c r="C135" s="41"/>
+      <c r="D135" s="41"/>
+      <c r="E135" s="41"/>
+      <c r="F135" s="41"/>
+      <c r="G135" s="41"/>
+      <c r="H135" s="41"/>
+      <c r="I135" s="41"/>
+      <c r="J135" s="41"/>
+      <c r="K135" s="41"/>
+      <c r="L135" s="42"/>
     </row>
     <row r="136" spans="1:12">
       <c r="B136" s="40"/>
-      <c r="C136" s="36"/>
-      <c r="D136" s="36"/>
-      <c r="E136" s="36"/>
-      <c r="F136" s="36"/>
-      <c r="G136" s="36"/>
-      <c r="H136" s="36"/>
-      <c r="I136" s="36"/>
-      <c r="J136" s="36"/>
-      <c r="K136" s="36"/>
-      <c r="L136" s="41"/>
+      <c r="C136" s="41"/>
+      <c r="D136" s="41"/>
+      <c r="E136" s="41"/>
+      <c r="F136" s="41"/>
+      <c r="G136" s="41"/>
+      <c r="H136" s="41"/>
+      <c r="I136" s="41"/>
+      <c r="J136" s="41"/>
+      <c r="K136" s="41"/>
+      <c r="L136" s="42"/>
     </row>
     <row r="137" spans="1:12">
       <c r="B137" s="40"/>
-      <c r="C137" s="36"/>
-      <c r="D137" s="36"/>
-      <c r="E137" s="36"/>
-      <c r="F137" s="36"/>
-      <c r="G137" s="36"/>
-      <c r="H137" s="36"/>
-      <c r="I137" s="36"/>
-      <c r="J137" s="36"/>
-      <c r="K137" s="36"/>
-      <c r="L137" s="41"/>
+      <c r="C137" s="41"/>
+      <c r="D137" s="41"/>
+      <c r="E137" s="41"/>
+      <c r="F137" s="41"/>
+      <c r="G137" s="41"/>
+      <c r="H137" s="41"/>
+      <c r="I137" s="41"/>
+      <c r="J137" s="41"/>
+      <c r="K137" s="41"/>
+      <c r="L137" s="42"/>
     </row>
     <row r="138" spans="1:12">
       <c r="B138" s="40"/>
-      <c r="C138" s="36"/>
-      <c r="D138" s="36"/>
-      <c r="E138" s="36"/>
-      <c r="F138" s="36"/>
-      <c r="G138" s="36"/>
-      <c r="H138" s="36"/>
-      <c r="I138" s="36"/>
-      <c r="J138" s="36"/>
-      <c r="K138" s="36"/>
-      <c r="L138" s="41"/>
+      <c r="C138" s="41"/>
+      <c r="D138" s="41"/>
+      <c r="E138" s="41"/>
+      <c r="F138" s="41"/>
+      <c r="G138" s="41"/>
+      <c r="H138" s="41"/>
+      <c r="I138" s="41"/>
+      <c r="J138" s="41"/>
+      <c r="K138" s="41"/>
+      <c r="L138" s="42"/>
     </row>
     <row r="139" spans="1:12">
       <c r="B139" s="40"/>
-      <c r="C139" s="36"/>
-      <c r="D139" s="36"/>
-      <c r="E139" s="36"/>
-      <c r="F139" s="36"/>
-      <c r="G139" s="36"/>
-      <c r="H139" s="36"/>
-      <c r="I139" s="36"/>
-      <c r="J139" s="36"/>
-      <c r="K139" s="36"/>
-      <c r="L139" s="41"/>
+      <c r="C139" s="41"/>
+      <c r="D139" s="41"/>
+      <c r="E139" s="41"/>
+      <c r="F139" s="41"/>
+      <c r="G139" s="41"/>
+      <c r="H139" s="41"/>
+      <c r="I139" s="41"/>
+      <c r="J139" s="41"/>
+      <c r="K139" s="41"/>
+      <c r="L139" s="42"/>
     </row>
     <row r="140" spans="1:12">
       <c r="B140" s="40"/>
-      <c r="C140" s="36"/>
-      <c r="D140" s="36"/>
-      <c r="E140" s="36"/>
-      <c r="F140" s="36"/>
-      <c r="G140" s="36"/>
-      <c r="H140" s="36"/>
-      <c r="I140" s="36"/>
-      <c r="J140" s="36"/>
-      <c r="K140" s="36"/>
-      <c r="L140" s="41"/>
+      <c r="C140" s="41"/>
+      <c r="D140" s="41"/>
+      <c r="E140" s="41"/>
+      <c r="F140" s="41"/>
+      <c r="G140" s="41"/>
+      <c r="H140" s="41"/>
+      <c r="I140" s="41"/>
+      <c r="J140" s="41"/>
+      <c r="K140" s="41"/>
+      <c r="L140" s="42"/>
     </row>
     <row r="141" spans="1:12">
       <c r="B141" s="40"/>
-      <c r="C141" s="36"/>
-      <c r="D141" s="36"/>
-      <c r="E141" s="36"/>
-      <c r="F141" s="36"/>
-      <c r="G141" s="36"/>
-      <c r="H141" s="36"/>
-      <c r="I141" s="36"/>
-      <c r="J141" s="36"/>
-      <c r="K141" s="36"/>
-      <c r="L141" s="41"/>
+      <c r="C141" s="41"/>
+      <c r="D141" s="41"/>
+      <c r="E141" s="41"/>
+      <c r="F141" s="41"/>
+      <c r="G141" s="41"/>
+      <c r="H141" s="41"/>
+      <c r="I141" s="41"/>
+      <c r="J141" s="41"/>
+      <c r="K141" s="41"/>
+      <c r="L141" s="42"/>
     </row>
     <row r="142" spans="1:12">
-      <c r="B142" s="42"/>
-      <c r="C142" s="43"/>
-      <c r="D142" s="43"/>
-      <c r="E142" s="43"/>
-      <c r="F142" s="43"/>
-      <c r="G142" s="43"/>
-      <c r="H142" s="43"/>
-      <c r="I142" s="43"/>
-      <c r="J142" s="43"/>
-      <c r="K142" s="43"/>
-      <c r="L142" s="44"/>
+      <c r="B142" s="43"/>
+      <c r="C142" s="44"/>
+      <c r="D142" s="44"/>
+      <c r="E142" s="44"/>
+      <c r="F142" s="44"/>
+      <c r="G142" s="44"/>
+      <c r="H142" s="44"/>
+      <c r="I142" s="44"/>
+      <c r="J142" s="44"/>
+      <c r="K142" s="44"/>
+      <c r="L142" s="45"/>
     </row>
     <row r="143" spans="1:12">
       <c r="A143">
@@ -42107,250 +42105,250 @@
     </row>
     <row r="144" spans="1:12">
       <c r="B144" s="40"/>
-      <c r="C144" s="36"/>
-      <c r="D144" s="36"/>
-      <c r="E144" s="36"/>
-      <c r="F144" s="36"/>
-      <c r="G144" s="36"/>
-      <c r="H144" s="36"/>
-      <c r="I144" s="36"/>
-      <c r="J144" s="36"/>
-      <c r="K144" s="36"/>
-      <c r="L144" s="41"/>
+      <c r="C144" s="41"/>
+      <c r="D144" s="41"/>
+      <c r="E144" s="41"/>
+      <c r="F144" s="41"/>
+      <c r="G144" s="41"/>
+      <c r="H144" s="41"/>
+      <c r="I144" s="41"/>
+      <c r="J144" s="41"/>
+      <c r="K144" s="41"/>
+      <c r="L144" s="42"/>
     </row>
     <row r="145" spans="2:12">
       <c r="B145" s="40"/>
-      <c r="C145" s="36"/>
-      <c r="D145" s="36"/>
-      <c r="E145" s="36"/>
-      <c r="F145" s="36"/>
-      <c r="G145" s="36"/>
-      <c r="H145" s="36"/>
-      <c r="I145" s="36"/>
-      <c r="J145" s="36"/>
-      <c r="K145" s="36"/>
-      <c r="L145" s="41"/>
+      <c r="C145" s="41"/>
+      <c r="D145" s="41"/>
+      <c r="E145" s="41"/>
+      <c r="F145" s="41"/>
+      <c r="G145" s="41"/>
+      <c r="H145" s="41"/>
+      <c r="I145" s="41"/>
+      <c r="J145" s="41"/>
+      <c r="K145" s="41"/>
+      <c r="L145" s="42"/>
     </row>
     <row r="146" spans="2:12">
       <c r="B146" s="40"/>
-      <c r="C146" s="36"/>
-      <c r="D146" s="36"/>
-      <c r="E146" s="36"/>
-      <c r="F146" s="36"/>
-      <c r="G146" s="36"/>
-      <c r="H146" s="36"/>
-      <c r="I146" s="36"/>
-      <c r="J146" s="36"/>
-      <c r="K146" s="36"/>
-      <c r="L146" s="41"/>
+      <c r="C146" s="41"/>
+      <c r="D146" s="41"/>
+      <c r="E146" s="41"/>
+      <c r="F146" s="41"/>
+      <c r="G146" s="41"/>
+      <c r="H146" s="41"/>
+      <c r="I146" s="41"/>
+      <c r="J146" s="41"/>
+      <c r="K146" s="41"/>
+      <c r="L146" s="42"/>
     </row>
     <row r="147" spans="2:12">
       <c r="B147" s="40"/>
-      <c r="C147" s="36"/>
-      <c r="D147" s="36"/>
-      <c r="E147" s="36"/>
-      <c r="F147" s="36"/>
-      <c r="G147" s="36"/>
-      <c r="H147" s="36"/>
-      <c r="I147" s="36"/>
-      <c r="J147" s="36"/>
-      <c r="K147" s="36"/>
-      <c r="L147" s="41"/>
+      <c r="C147" s="41"/>
+      <c r="D147" s="41"/>
+      <c r="E147" s="41"/>
+      <c r="F147" s="41"/>
+      <c r="G147" s="41"/>
+      <c r="H147" s="41"/>
+      <c r="I147" s="41"/>
+      <c r="J147" s="41"/>
+      <c r="K147" s="41"/>
+      <c r="L147" s="42"/>
     </row>
     <row r="148" spans="2:12">
       <c r="B148" s="40"/>
-      <c r="C148" s="36"/>
-      <c r="D148" s="36"/>
-      <c r="E148" s="36"/>
-      <c r="F148" s="36"/>
-      <c r="G148" s="36"/>
-      <c r="H148" s="36"/>
-      <c r="I148" s="36"/>
-      <c r="J148" s="36"/>
-      <c r="K148" s="36"/>
-      <c r="L148" s="41"/>
+      <c r="C148" s="41"/>
+      <c r="D148" s="41"/>
+      <c r="E148" s="41"/>
+      <c r="F148" s="41"/>
+      <c r="G148" s="41"/>
+      <c r="H148" s="41"/>
+      <c r="I148" s="41"/>
+      <c r="J148" s="41"/>
+      <c r="K148" s="41"/>
+      <c r="L148" s="42"/>
     </row>
     <row r="149" spans="2:12">
       <c r="B149" s="40"/>
-      <c r="C149" s="36"/>
-      <c r="D149" s="36"/>
-      <c r="E149" s="36"/>
-      <c r="F149" s="36"/>
-      <c r="G149" s="36"/>
-      <c r="H149" s="36"/>
-      <c r="I149" s="36"/>
-      <c r="J149" s="36"/>
-      <c r="K149" s="36"/>
-      <c r="L149" s="41"/>
+      <c r="C149" s="41"/>
+      <c r="D149" s="41"/>
+      <c r="E149" s="41"/>
+      <c r="F149" s="41"/>
+      <c r="G149" s="41"/>
+      <c r="H149" s="41"/>
+      <c r="I149" s="41"/>
+      <c r="J149" s="41"/>
+      <c r="K149" s="41"/>
+      <c r="L149" s="42"/>
     </row>
     <row r="150" spans="2:12">
       <c r="B150" s="40"/>
-      <c r="C150" s="36"/>
-      <c r="D150" s="36"/>
-      <c r="E150" s="36"/>
-      <c r="F150" s="36"/>
-      <c r="G150" s="36"/>
-      <c r="H150" s="36"/>
-      <c r="I150" s="36"/>
-      <c r="J150" s="36"/>
-      <c r="K150" s="36"/>
-      <c r="L150" s="41"/>
+      <c r="C150" s="41"/>
+      <c r="D150" s="41"/>
+      <c r="E150" s="41"/>
+      <c r="F150" s="41"/>
+      <c r="G150" s="41"/>
+      <c r="H150" s="41"/>
+      <c r="I150" s="41"/>
+      <c r="J150" s="41"/>
+      <c r="K150" s="41"/>
+      <c r="L150" s="42"/>
     </row>
     <row r="151" spans="2:12">
       <c r="B151" s="40"/>
-      <c r="C151" s="36"/>
-      <c r="D151" s="36"/>
-      <c r="E151" s="36"/>
-      <c r="F151" s="36"/>
-      <c r="G151" s="36"/>
-      <c r="H151" s="36"/>
-      <c r="I151" s="36"/>
-      <c r="J151" s="36"/>
-      <c r="K151" s="36"/>
-      <c r="L151" s="41"/>
+      <c r="C151" s="41"/>
+      <c r="D151" s="41"/>
+      <c r="E151" s="41"/>
+      <c r="F151" s="41"/>
+      <c r="G151" s="41"/>
+      <c r="H151" s="41"/>
+      <c r="I151" s="41"/>
+      <c r="J151" s="41"/>
+      <c r="K151" s="41"/>
+      <c r="L151" s="42"/>
     </row>
     <row r="152" spans="2:12">
       <c r="B152" s="40"/>
-      <c r="C152" s="36"/>
-      <c r="D152" s="36"/>
-      <c r="E152" s="36"/>
-      <c r="F152" s="36"/>
-      <c r="G152" s="36"/>
-      <c r="H152" s="36"/>
-      <c r="I152" s="36"/>
-      <c r="J152" s="36"/>
-      <c r="K152" s="36"/>
-      <c r="L152" s="41"/>
+      <c r="C152" s="41"/>
+      <c r="D152" s="41"/>
+      <c r="E152" s="41"/>
+      <c r="F152" s="41"/>
+      <c r="G152" s="41"/>
+      <c r="H152" s="41"/>
+      <c r="I152" s="41"/>
+      <c r="J152" s="41"/>
+      <c r="K152" s="41"/>
+      <c r="L152" s="42"/>
     </row>
     <row r="153" spans="2:12">
       <c r="B153" s="40"/>
-      <c r="C153" s="36"/>
-      <c r="D153" s="36"/>
-      <c r="E153" s="36"/>
-      <c r="F153" s="36"/>
-      <c r="G153" s="36"/>
-      <c r="H153" s="36"/>
-      <c r="I153" s="36"/>
-      <c r="J153" s="36"/>
-      <c r="K153" s="36"/>
-      <c r="L153" s="41"/>
+      <c r="C153" s="41"/>
+      <c r="D153" s="41"/>
+      <c r="E153" s="41"/>
+      <c r="F153" s="41"/>
+      <c r="G153" s="41"/>
+      <c r="H153" s="41"/>
+      <c r="I153" s="41"/>
+      <c r="J153" s="41"/>
+      <c r="K153" s="41"/>
+      <c r="L153" s="42"/>
     </row>
     <row r="154" spans="2:12">
       <c r="B154" s="40"/>
-      <c r="C154" s="36"/>
-      <c r="D154" s="36"/>
-      <c r="E154" s="36"/>
-      <c r="F154" s="36"/>
-      <c r="G154" s="36"/>
-      <c r="H154" s="36"/>
-      <c r="I154" s="36"/>
-      <c r="J154" s="36"/>
-      <c r="K154" s="36"/>
-      <c r="L154" s="41"/>
+      <c r="C154" s="41"/>
+      <c r="D154" s="41"/>
+      <c r="E154" s="41"/>
+      <c r="F154" s="41"/>
+      <c r="G154" s="41"/>
+      <c r="H154" s="41"/>
+      <c r="I154" s="41"/>
+      <c r="J154" s="41"/>
+      <c r="K154" s="41"/>
+      <c r="L154" s="42"/>
     </row>
     <row r="155" spans="2:12">
       <c r="B155" s="40"/>
-      <c r="C155" s="36"/>
-      <c r="D155" s="36"/>
-      <c r="E155" s="36"/>
-      <c r="F155" s="36"/>
-      <c r="G155" s="36"/>
-      <c r="H155" s="36"/>
-      <c r="I155" s="36"/>
-      <c r="J155" s="36"/>
-      <c r="K155" s="36"/>
-      <c r="L155" s="41"/>
+      <c r="C155" s="41"/>
+      <c r="D155" s="41"/>
+      <c r="E155" s="41"/>
+      <c r="F155" s="41"/>
+      <c r="G155" s="41"/>
+      <c r="H155" s="41"/>
+      <c r="I155" s="41"/>
+      <c r="J155" s="41"/>
+      <c r="K155" s="41"/>
+      <c r="L155" s="42"/>
     </row>
     <row r="156" spans="2:12">
       <c r="B156" s="40"/>
-      <c r="C156" s="36"/>
-      <c r="D156" s="36"/>
-      <c r="E156" s="36"/>
-      <c r="F156" s="36"/>
-      <c r="G156" s="36"/>
-      <c r="H156" s="36"/>
-      <c r="I156" s="36"/>
-      <c r="J156" s="36"/>
-      <c r="K156" s="36"/>
-      <c r="L156" s="41"/>
+      <c r="C156" s="41"/>
+      <c r="D156" s="41"/>
+      <c r="E156" s="41"/>
+      <c r="F156" s="41"/>
+      <c r="G156" s="41"/>
+      <c r="H156" s="41"/>
+      <c r="I156" s="41"/>
+      <c r="J156" s="41"/>
+      <c r="K156" s="41"/>
+      <c r="L156" s="42"/>
     </row>
     <row r="157" spans="2:12">
       <c r="B157" s="40"/>
-      <c r="C157" s="36"/>
-      <c r="D157" s="36"/>
-      <c r="E157" s="36"/>
-      <c r="F157" s="36"/>
-      <c r="G157" s="36"/>
-      <c r="H157" s="36"/>
-      <c r="I157" s="36"/>
-      <c r="J157" s="36"/>
-      <c r="K157" s="36"/>
-      <c r="L157" s="41"/>
+      <c r="C157" s="41"/>
+      <c r="D157" s="41"/>
+      <c r="E157" s="41"/>
+      <c r="F157" s="41"/>
+      <c r="G157" s="41"/>
+      <c r="H157" s="41"/>
+      <c r="I157" s="41"/>
+      <c r="J157" s="41"/>
+      <c r="K157" s="41"/>
+      <c r="L157" s="42"/>
     </row>
     <row r="158" spans="2:12">
       <c r="B158" s="40"/>
-      <c r="C158" s="36"/>
-      <c r="D158" s="36"/>
-      <c r="E158" s="36"/>
-      <c r="F158" s="36"/>
-      <c r="G158" s="36"/>
-      <c r="H158" s="36"/>
-      <c r="I158" s="36"/>
-      <c r="J158" s="36"/>
-      <c r="K158" s="36"/>
-      <c r="L158" s="41"/>
+      <c r="C158" s="41"/>
+      <c r="D158" s="41"/>
+      <c r="E158" s="41"/>
+      <c r="F158" s="41"/>
+      <c r="G158" s="41"/>
+      <c r="H158" s="41"/>
+      <c r="I158" s="41"/>
+      <c r="J158" s="41"/>
+      <c r="K158" s="41"/>
+      <c r="L158" s="42"/>
     </row>
     <row r="159" spans="2:12">
       <c r="B159" s="40"/>
-      <c r="C159" s="36"/>
-      <c r="D159" s="36"/>
-      <c r="E159" s="36"/>
-      <c r="F159" s="36"/>
-      <c r="G159" s="36"/>
-      <c r="H159" s="36"/>
-      <c r="I159" s="36"/>
-      <c r="J159" s="36"/>
-      <c r="K159" s="36"/>
-      <c r="L159" s="41"/>
+      <c r="C159" s="41"/>
+      <c r="D159" s="41"/>
+      <c r="E159" s="41"/>
+      <c r="F159" s="41"/>
+      <c r="G159" s="41"/>
+      <c r="H159" s="41"/>
+      <c r="I159" s="41"/>
+      <c r="J159" s="41"/>
+      <c r="K159" s="41"/>
+      <c r="L159" s="42"/>
     </row>
     <row r="160" spans="2:12">
       <c r="B160" s="40"/>
-      <c r="C160" s="36"/>
-      <c r="D160" s="36"/>
-      <c r="E160" s="36"/>
-      <c r="F160" s="36"/>
-      <c r="G160" s="36"/>
-      <c r="H160" s="36"/>
-      <c r="I160" s="36"/>
-      <c r="J160" s="36"/>
-      <c r="K160" s="36"/>
-      <c r="L160" s="41"/>
+      <c r="C160" s="41"/>
+      <c r="D160" s="41"/>
+      <c r="E160" s="41"/>
+      <c r="F160" s="41"/>
+      <c r="G160" s="41"/>
+      <c r="H160" s="41"/>
+      <c r="I160" s="41"/>
+      <c r="J160" s="41"/>
+      <c r="K160" s="41"/>
+      <c r="L160" s="42"/>
     </row>
     <row r="161" spans="1:12">
       <c r="B161" s="40"/>
-      <c r="C161" s="36"/>
-      <c r="D161" s="36"/>
-      <c r="E161" s="36"/>
-      <c r="F161" s="36"/>
-      <c r="G161" s="36"/>
-      <c r="H161" s="36"/>
-      <c r="I161" s="36"/>
-      <c r="J161" s="36"/>
-      <c r="K161" s="36"/>
-      <c r="L161" s="41"/>
+      <c r="C161" s="41"/>
+      <c r="D161" s="41"/>
+      <c r="E161" s="41"/>
+      <c r="F161" s="41"/>
+      <c r="G161" s="41"/>
+      <c r="H161" s="41"/>
+      <c r="I161" s="41"/>
+      <c r="J161" s="41"/>
+      <c r="K161" s="41"/>
+      <c r="L161" s="42"/>
     </row>
     <row r="162" spans="1:12">
-      <c r="B162" s="42"/>
-      <c r="C162" s="43"/>
-      <c r="D162" s="43"/>
-      <c r="E162" s="43"/>
-      <c r="F162" s="43"/>
-      <c r="G162" s="43"/>
-      <c r="H162" s="43"/>
-      <c r="I162" s="43"/>
-      <c r="J162" s="43"/>
-      <c r="K162" s="43"/>
-      <c r="L162" s="44"/>
+      <c r="B162" s="43"/>
+      <c r="C162" s="44"/>
+      <c r="D162" s="44"/>
+      <c r="E162" s="44"/>
+      <c r="F162" s="44"/>
+      <c r="G162" s="44"/>
+      <c r="H162" s="44"/>
+      <c r="I162" s="44"/>
+      <c r="J162" s="44"/>
+      <c r="K162" s="44"/>
+      <c r="L162" s="45"/>
     </row>
     <row r="163" spans="1:12">
       <c r="A163">
@@ -42373,263 +42371,263 @@
     </row>
     <row r="164" spans="1:12">
       <c r="B164" s="40"/>
-      <c r="C164" s="36"/>
-      <c r="D164" s="36"/>
-      <c r="E164" s="36"/>
-      <c r="F164" s="36"/>
-      <c r="G164" s="36"/>
-      <c r="H164" s="36"/>
-      <c r="I164" s="36"/>
-      <c r="J164" s="36"/>
-      <c r="K164" s="36"/>
-      <c r="L164" s="41"/>
+      <c r="C164" s="41"/>
+      <c r="D164" s="41"/>
+      <c r="E164" s="41"/>
+      <c r="F164" s="41"/>
+      <c r="G164" s="41"/>
+      <c r="H164" s="41"/>
+      <c r="I164" s="41"/>
+      <c r="J164" s="41"/>
+      <c r="K164" s="41"/>
+      <c r="L164" s="42"/>
     </row>
     <row r="165" spans="1:12">
       <c r="B165" s="40"/>
-      <c r="C165" s="36"/>
-      <c r="D165" s="36"/>
-      <c r="E165" s="36"/>
-      <c r="F165" s="36"/>
-      <c r="G165" s="36"/>
-      <c r="H165" s="36"/>
-      <c r="I165" s="36"/>
-      <c r="J165" s="36"/>
-      <c r="K165" s="36"/>
-      <c r="L165" s="41"/>
+      <c r="C165" s="41"/>
+      <c r="D165" s="41"/>
+      <c r="E165" s="41"/>
+      <c r="F165" s="41"/>
+      <c r="G165" s="41"/>
+      <c r="H165" s="41"/>
+      <c r="I165" s="41"/>
+      <c r="J165" s="41"/>
+      <c r="K165" s="41"/>
+      <c r="L165" s="42"/>
     </row>
     <row r="166" spans="1:12">
       <c r="B166" s="40"/>
-      <c r="C166" s="36"/>
-      <c r="D166" s="36"/>
-      <c r="E166" s="36"/>
-      <c r="F166" s="36"/>
-      <c r="G166" s="36"/>
-      <c r="H166" s="36"/>
-      <c r="I166" s="36"/>
-      <c r="J166" s="36"/>
-      <c r="K166" s="36"/>
-      <c r="L166" s="41"/>
+      <c r="C166" s="41"/>
+      <c r="D166" s="41"/>
+      <c r="E166" s="41"/>
+      <c r="F166" s="41"/>
+      <c r="G166" s="41"/>
+      <c r="H166" s="41"/>
+      <c r="I166" s="41"/>
+      <c r="J166" s="41"/>
+      <c r="K166" s="41"/>
+      <c r="L166" s="42"/>
     </row>
     <row r="167" spans="1:12">
       <c r="B167" s="40"/>
-      <c r="C167" s="36"/>
-      <c r="D167" s="36"/>
-      <c r="E167" s="36"/>
-      <c r="F167" s="36"/>
-      <c r="G167" s="36"/>
-      <c r="H167" s="36"/>
-      <c r="I167" s="36"/>
-      <c r="J167" s="36"/>
-      <c r="K167" s="36"/>
-      <c r="L167" s="41"/>
+      <c r="C167" s="41"/>
+      <c r="D167" s="41"/>
+      <c r="E167" s="41"/>
+      <c r="F167" s="41"/>
+      <c r="G167" s="41"/>
+      <c r="H167" s="41"/>
+      <c r="I167" s="41"/>
+      <c r="J167" s="41"/>
+      <c r="K167" s="41"/>
+      <c r="L167" s="42"/>
     </row>
     <row r="168" spans="1:12">
       <c r="B168" s="40"/>
-      <c r="C168" s="36"/>
-      <c r="D168" s="36"/>
-      <c r="E168" s="36"/>
-      <c r="F168" s="36"/>
-      <c r="G168" s="36"/>
-      <c r="H168" s="36"/>
-      <c r="I168" s="36"/>
-      <c r="J168" s="36"/>
-      <c r="K168" s="36"/>
-      <c r="L168" s="41"/>
+      <c r="C168" s="41"/>
+      <c r="D168" s="41"/>
+      <c r="E168" s="41"/>
+      <c r="F168" s="41"/>
+      <c r="G168" s="41"/>
+      <c r="H168" s="41"/>
+      <c r="I168" s="41"/>
+      <c r="J168" s="41"/>
+      <c r="K168" s="41"/>
+      <c r="L168" s="42"/>
     </row>
     <row r="169" spans="1:12">
       <c r="B169" s="40"/>
-      <c r="C169" s="36"/>
-      <c r="D169" s="36"/>
-      <c r="E169" s="36"/>
-      <c r="F169" s="36"/>
-      <c r="G169" s="36"/>
-      <c r="H169" s="36"/>
-      <c r="I169" s="36"/>
-      <c r="J169" s="36"/>
-      <c r="K169" s="36"/>
-      <c r="L169" s="41"/>
+      <c r="C169" s="41"/>
+      <c r="D169" s="41"/>
+      <c r="E169" s="41"/>
+      <c r="F169" s="41"/>
+      <c r="G169" s="41"/>
+      <c r="H169" s="41"/>
+      <c r="I169" s="41"/>
+      <c r="J169" s="41"/>
+      <c r="K169" s="41"/>
+      <c r="L169" s="42"/>
     </row>
     <row r="170" spans="1:12">
       <c r="B170" s="40"/>
-      <c r="C170" s="36"/>
-      <c r="D170" s="36"/>
-      <c r="E170" s="36"/>
-      <c r="F170" s="36"/>
-      <c r="G170" s="36"/>
-      <c r="H170" s="36"/>
-      <c r="I170" s="36"/>
-      <c r="J170" s="36"/>
-      <c r="K170" s="36"/>
-      <c r="L170" s="41"/>
+      <c r="C170" s="41"/>
+      <c r="D170" s="41"/>
+      <c r="E170" s="41"/>
+      <c r="F170" s="41"/>
+      <c r="G170" s="41"/>
+      <c r="H170" s="41"/>
+      <c r="I170" s="41"/>
+      <c r="J170" s="41"/>
+      <c r="K170" s="41"/>
+      <c r="L170" s="42"/>
     </row>
     <row r="171" spans="1:12">
       <c r="B171" s="40"/>
-      <c r="C171" s="36"/>
-      <c r="D171" s="36"/>
-      <c r="E171" s="36"/>
-      <c r="F171" s="36"/>
-      <c r="G171" s="36"/>
-      <c r="H171" s="36"/>
-      <c r="I171" s="36"/>
-      <c r="J171" s="36"/>
-      <c r="K171" s="36"/>
-      <c r="L171" s="41"/>
+      <c r="C171" s="41"/>
+      <c r="D171" s="41"/>
+      <c r="E171" s="41"/>
+      <c r="F171" s="41"/>
+      <c r="G171" s="41"/>
+      <c r="H171" s="41"/>
+      <c r="I171" s="41"/>
+      <c r="J171" s="41"/>
+      <c r="K171" s="41"/>
+      <c r="L171" s="42"/>
     </row>
     <row r="172" spans="1:12">
       <c r="B172" s="40"/>
-      <c r="C172" s="36"/>
-      <c r="D172" s="36"/>
-      <c r="E172" s="36"/>
-      <c r="F172" s="36"/>
-      <c r="G172" s="36"/>
-      <c r="H172" s="36"/>
-      <c r="I172" s="36"/>
-      <c r="J172" s="36"/>
-      <c r="K172" s="36"/>
-      <c r="L172" s="41"/>
+      <c r="C172" s="41"/>
+      <c r="D172" s="41"/>
+      <c r="E172" s="41"/>
+      <c r="F172" s="41"/>
+      <c r="G172" s="41"/>
+      <c r="H172" s="41"/>
+      <c r="I172" s="41"/>
+      <c r="J172" s="41"/>
+      <c r="K172" s="41"/>
+      <c r="L172" s="42"/>
     </row>
     <row r="173" spans="1:12">
       <c r="B173" s="40"/>
-      <c r="C173" s="36"/>
-      <c r="D173" s="36"/>
-      <c r="E173" s="36"/>
-      <c r="F173" s="36"/>
-      <c r="G173" s="36"/>
-      <c r="H173" s="36"/>
-      <c r="I173" s="36"/>
-      <c r="J173" s="36"/>
-      <c r="K173" s="36"/>
-      <c r="L173" s="41"/>
+      <c r="C173" s="41"/>
+      <c r="D173" s="41"/>
+      <c r="E173" s="41"/>
+      <c r="F173" s="41"/>
+      <c r="G173" s="41"/>
+      <c r="H173" s="41"/>
+      <c r="I173" s="41"/>
+      <c r="J173" s="41"/>
+      <c r="K173" s="41"/>
+      <c r="L173" s="42"/>
     </row>
     <row r="174" spans="1:12">
       <c r="B174" s="40"/>
-      <c r="C174" s="36"/>
-      <c r="D174" s="36"/>
-      <c r="E174" s="36"/>
-      <c r="F174" s="36"/>
-      <c r="G174" s="36"/>
-      <c r="H174" s="36"/>
-      <c r="I174" s="36"/>
-      <c r="J174" s="36"/>
-      <c r="K174" s="36"/>
-      <c r="L174" s="41"/>
+      <c r="C174" s="41"/>
+      <c r="D174" s="41"/>
+      <c r="E174" s="41"/>
+      <c r="F174" s="41"/>
+      <c r="G174" s="41"/>
+      <c r="H174" s="41"/>
+      <c r="I174" s="41"/>
+      <c r="J174" s="41"/>
+      <c r="K174" s="41"/>
+      <c r="L174" s="42"/>
     </row>
     <row r="175" spans="1:12">
       <c r="B175" s="40"/>
-      <c r="C175" s="36"/>
-      <c r="D175" s="36"/>
-      <c r="E175" s="36"/>
-      <c r="F175" s="36"/>
-      <c r="G175" s="36"/>
-      <c r="H175" s="36"/>
-      <c r="I175" s="36"/>
-      <c r="J175" s="36"/>
-      <c r="K175" s="36"/>
-      <c r="L175" s="41"/>
+      <c r="C175" s="41"/>
+      <c r="D175" s="41"/>
+      <c r="E175" s="41"/>
+      <c r="F175" s="41"/>
+      <c r="G175" s="41"/>
+      <c r="H175" s="41"/>
+      <c r="I175" s="41"/>
+      <c r="J175" s="41"/>
+      <c r="K175" s="41"/>
+      <c r="L175" s="42"/>
     </row>
     <row r="176" spans="1:12">
       <c r="B176" s="40"/>
-      <c r="C176" s="36"/>
-      <c r="D176" s="36"/>
-      <c r="E176" s="36"/>
-      <c r="F176" s="36"/>
-      <c r="G176" s="36"/>
-      <c r="H176" s="36"/>
-      <c r="I176" s="36"/>
-      <c r="J176" s="36"/>
-      <c r="K176" s="36"/>
-      <c r="L176" s="41"/>
+      <c r="C176" s="41"/>
+      <c r="D176" s="41"/>
+      <c r="E176" s="41"/>
+      <c r="F176" s="41"/>
+      <c r="G176" s="41"/>
+      <c r="H176" s="41"/>
+      <c r="I176" s="41"/>
+      <c r="J176" s="41"/>
+      <c r="K176" s="41"/>
+      <c r="L176" s="42"/>
     </row>
     <row r="177" spans="2:12">
       <c r="B177" s="40"/>
-      <c r="C177" s="36"/>
-      <c r="D177" s="36"/>
-      <c r="E177" s="36"/>
-      <c r="F177" s="36"/>
-      <c r="G177" s="36"/>
-      <c r="H177" s="36"/>
-      <c r="I177" s="36"/>
-      <c r="J177" s="36"/>
-      <c r="K177" s="36"/>
-      <c r="L177" s="41"/>
+      <c r="C177" s="41"/>
+      <c r="D177" s="41"/>
+      <c r="E177" s="41"/>
+      <c r="F177" s="41"/>
+      <c r="G177" s="41"/>
+      <c r="H177" s="41"/>
+      <c r="I177" s="41"/>
+      <c r="J177" s="41"/>
+      <c r="K177" s="41"/>
+      <c r="L177" s="42"/>
     </row>
     <row r="178" spans="2:12">
       <c r="B178" s="40"/>
-      <c r="C178" s="36"/>
-      <c r="D178" s="36"/>
-      <c r="E178" s="36"/>
-      <c r="F178" s="36"/>
-      <c r="G178" s="36"/>
-      <c r="H178" s="36"/>
-      <c r="I178" s="36"/>
-      <c r="J178" s="36"/>
-      <c r="K178" s="36"/>
-      <c r="L178" s="41"/>
+      <c r="C178" s="41"/>
+      <c r="D178" s="41"/>
+      <c r="E178" s="41"/>
+      <c r="F178" s="41"/>
+      <c r="G178" s="41"/>
+      <c r="H178" s="41"/>
+      <c r="I178" s="41"/>
+      <c r="J178" s="41"/>
+      <c r="K178" s="41"/>
+      <c r="L178" s="42"/>
     </row>
     <row r="179" spans="2:12">
       <c r="B179" s="40"/>
-      <c r="C179" s="36"/>
-      <c r="D179" s="36"/>
-      <c r="E179" s="36"/>
-      <c r="F179" s="36"/>
-      <c r="G179" s="36"/>
-      <c r="H179" s="36"/>
-      <c r="I179" s="36"/>
-      <c r="J179" s="36"/>
-      <c r="K179" s="36"/>
-      <c r="L179" s="41"/>
+      <c r="C179" s="41"/>
+      <c r="D179" s="41"/>
+      <c r="E179" s="41"/>
+      <c r="F179" s="41"/>
+      <c r="G179" s="41"/>
+      <c r="H179" s="41"/>
+      <c r="I179" s="41"/>
+      <c r="J179" s="41"/>
+      <c r="K179" s="41"/>
+      <c r="L179" s="42"/>
     </row>
     <row r="180" spans="2:12">
       <c r="B180" s="40"/>
-      <c r="C180" s="36"/>
-      <c r="D180" s="36"/>
-      <c r="E180" s="36"/>
-      <c r="F180" s="36"/>
-      <c r="G180" s="36"/>
-      <c r="H180" s="36"/>
-      <c r="I180" s="36"/>
-      <c r="J180" s="36"/>
-      <c r="K180" s="36"/>
-      <c r="L180" s="41"/>
+      <c r="C180" s="41"/>
+      <c r="D180" s="41"/>
+      <c r="E180" s="41"/>
+      <c r="F180" s="41"/>
+      <c r="G180" s="41"/>
+      <c r="H180" s="41"/>
+      <c r="I180" s="41"/>
+      <c r="J180" s="41"/>
+      <c r="K180" s="41"/>
+      <c r="L180" s="42"/>
     </row>
     <row r="181" spans="2:12">
       <c r="B181" s="40"/>
-      <c r="C181" s="36"/>
-      <c r="D181" s="36"/>
-      <c r="E181" s="36"/>
-      <c r="F181" s="36"/>
-      <c r="G181" s="36"/>
-      <c r="H181" s="36"/>
-      <c r="I181" s="36"/>
-      <c r="J181" s="36"/>
-      <c r="K181" s="36"/>
-      <c r="L181" s="41"/>
+      <c r="C181" s="41"/>
+      <c r="D181" s="41"/>
+      <c r="E181" s="41"/>
+      <c r="F181" s="41"/>
+      <c r="G181" s="41"/>
+      <c r="H181" s="41"/>
+      <c r="I181" s="41"/>
+      <c r="J181" s="41"/>
+      <c r="K181" s="41"/>
+      <c r="L181" s="42"/>
     </row>
     <row r="182" spans="2:12">
-      <c r="B182" s="42"/>
-      <c r="C182" s="43"/>
-      <c r="D182" s="43"/>
-      <c r="E182" s="43"/>
-      <c r="F182" s="43"/>
-      <c r="G182" s="43"/>
-      <c r="H182" s="43"/>
-      <c r="I182" s="43"/>
-      <c r="J182" s="43"/>
-      <c r="K182" s="43"/>
-      <c r="L182" s="44"/>
+      <c r="B182" s="43"/>
+      <c r="C182" s="44"/>
+      <c r="D182" s="44"/>
+      <c r="E182" s="44"/>
+      <c r="F182" s="44"/>
+      <c r="G182" s="44"/>
+      <c r="H182" s="44"/>
+      <c r="I182" s="44"/>
+      <c r="J182" s="44"/>
+      <c r="K182" s="44"/>
+      <c r="L182" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B2:L21"/>
+    <mergeCell ref="B23:L42"/>
+    <mergeCell ref="B43:L62"/>
+    <mergeCell ref="B63:L82"/>
     <mergeCell ref="B83:L102"/>
     <mergeCell ref="B103:L122"/>
     <mergeCell ref="B123:L142"/>
     <mergeCell ref="B143:L162"/>
     <mergeCell ref="B163:L182"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="B2:L21"/>
-    <mergeCell ref="B23:L42"/>
-    <mergeCell ref="B43:L62"/>
-    <mergeCell ref="B63:L82"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -42957,10 +42955,10 @@
         <v>9</v>
       </c>
       <c r="E15" s="17"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
       <c r="J15" s="17"/>
       <c r="K15" s="17"/>
       <c r="L15" s="17"/>
@@ -43197,82 +43195,82 @@
     <row r="25" spans="2:19" ht="30" customHeight="1">
       <c r="B25" s="3"/>
       <c r="C25" s="4"/>
-      <c r="D25" s="29" t="s">
+      <c r="D25" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="29"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="30"/>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="30"/>
       <c r="R25" s="4"/>
       <c r="S25" s="3"/>
     </row>
     <row r="26" spans="2:19" ht="30" customHeight="1">
       <c r="B26" s="3"/>
       <c r="C26" s="4"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="31"/>
-      <c r="O26" s="31"/>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="32"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="32"/>
+      <c r="P26" s="32"/>
+      <c r="Q26" s="33"/>
       <c r="R26" s="4"/>
       <c r="S26" s="3"/>
     </row>
     <row r="27" spans="2:19" ht="30" customHeight="1">
       <c r="B27" s="3"/>
       <c r="C27" s="4"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="34"/>
-      <c r="N27" s="34"/>
-      <c r="O27" s="34"/>
-      <c r="P27" s="34"/>
-      <c r="Q27" s="35"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="35"/>
+      <c r="O27" s="35"/>
+      <c r="P27" s="35"/>
+      <c r="Q27" s="36"/>
       <c r="R27" s="4"/>
       <c r="S27" s="3"/>
     </row>
     <row r="28" spans="2:19" ht="30" customHeight="1">
       <c r="B28" s="3"/>
       <c r="C28" s="4"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="34"/>
-      <c r="M28" s="34"/>
-      <c r="N28" s="34"/>
-      <c r="O28" s="34"/>
-      <c r="P28" s="34"/>
-      <c r="Q28" s="35"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="35"/>
+      <c r="O28" s="35"/>
+      <c r="P28" s="35"/>
+      <c r="Q28" s="36"/>
       <c r="R28" s="4"/>
       <c r="S28" s="3"/>
     </row>
@@ -46124,22 +46122,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="str">
@@ -46171,7 +46169,7 @@
       <c r="I3" s="37"/>
       <c r="J3" s="37"/>
       <c r="K3" s="37"/>
-      <c r="L3" s="41"/>
+      <c r="L3" s="42"/>
     </row>
     <row r="4" spans="1:14">
       <c r="B4" s="40"/>
@@ -46184,7 +46182,7 @@
       <c r="I4" s="37"/>
       <c r="J4" s="37"/>
       <c r="K4" s="37"/>
-      <c r="L4" s="41"/>
+      <c r="L4" s="42"/>
     </row>
     <row r="5" spans="1:14">
       <c r="B5" s="40"/>
@@ -46197,7 +46195,7 @@
       <c r="I5" s="37"/>
       <c r="J5" s="37"/>
       <c r="K5" s="37"/>
-      <c r="L5" s="41"/>
+      <c r="L5" s="42"/>
     </row>
     <row r="6" spans="1:14">
       <c r="B6" s="40"/>
@@ -46210,7 +46208,7 @@
       <c r="I6" s="37"/>
       <c r="J6" s="37"/>
       <c r="K6" s="37"/>
-      <c r="L6" s="41"/>
+      <c r="L6" s="42"/>
     </row>
     <row r="7" spans="1:14">
       <c r="B7" s="40"/>
@@ -46223,7 +46221,7 @@
       <c r="I7" s="37"/>
       <c r="J7" s="37"/>
       <c r="K7" s="37"/>
-      <c r="L7" s="41"/>
+      <c r="L7" s="42"/>
     </row>
     <row r="8" spans="1:14">
       <c r="B8" s="40"/>
@@ -46236,7 +46234,7 @@
       <c r="I8" s="37"/>
       <c r="J8" s="37"/>
       <c r="K8" s="37"/>
-      <c r="L8" s="41"/>
+      <c r="L8" s="42"/>
     </row>
     <row r="9" spans="1:14">
       <c r="B9" s="40"/>
@@ -46249,7 +46247,7 @@
       <c r="I9" s="37"/>
       <c r="J9" s="37"/>
       <c r="K9" s="37"/>
-      <c r="L9" s="41"/>
+      <c r="L9" s="42"/>
     </row>
     <row r="10" spans="1:14">
       <c r="B10" s="40"/>
@@ -46262,7 +46260,7 @@
       <c r="I10" s="37"/>
       <c r="J10" s="37"/>
       <c r="K10" s="37"/>
-      <c r="L10" s="41"/>
+      <c r="L10" s="42"/>
     </row>
     <row r="11" spans="1:14">
       <c r="B11" s="40"/>
@@ -46275,7 +46273,7 @@
       <c r="I11" s="37"/>
       <c r="J11" s="37"/>
       <c r="K11" s="37"/>
-      <c r="L11" s="41"/>
+      <c r="L11" s="42"/>
     </row>
     <row r="12" spans="1:14">
       <c r="B12" s="40"/>
@@ -46288,7 +46286,7 @@
       <c r="I12" s="37"/>
       <c r="J12" s="37"/>
       <c r="K12" s="37"/>
-      <c r="L12" s="41"/>
+      <c r="L12" s="42"/>
     </row>
     <row r="13" spans="1:14">
       <c r="B13" s="40"/>
@@ -46301,7 +46299,7 @@
       <c r="I13" s="37"/>
       <c r="J13" s="37"/>
       <c r="K13" s="37"/>
-      <c r="L13" s="41"/>
+      <c r="L13" s="42"/>
     </row>
     <row r="14" spans="1:14">
       <c r="B14" s="40"/>
@@ -46314,7 +46312,7 @@
       <c r="I14" s="37"/>
       <c r="J14" s="37"/>
       <c r="K14" s="37"/>
-      <c r="L14" s="41"/>
+      <c r="L14" s="42"/>
     </row>
     <row r="15" spans="1:14">
       <c r="B15" s="40"/>
@@ -46327,7 +46325,7 @@
       <c r="I15" s="37"/>
       <c r="J15" s="37"/>
       <c r="K15" s="37"/>
-      <c r="L15" s="41"/>
+      <c r="L15" s="42"/>
     </row>
     <row r="16" spans="1:14">
       <c r="B16" s="40"/>
@@ -46340,7 +46338,7 @@
       <c r="I16" s="37"/>
       <c r="J16" s="37"/>
       <c r="K16" s="37"/>
-      <c r="L16" s="41"/>
+      <c r="L16" s="42"/>
     </row>
     <row r="17" spans="1:12">
       <c r="B17" s="40"/>
@@ -46353,7 +46351,7 @@
       <c r="I17" s="37"/>
       <c r="J17" s="37"/>
       <c r="K17" s="37"/>
-      <c r="L17" s="41"/>
+      <c r="L17" s="42"/>
     </row>
     <row r="18" spans="1:12">
       <c r="B18" s="40"/>
@@ -46366,7 +46364,7 @@
       <c r="I18" s="37"/>
       <c r="J18" s="37"/>
       <c r="K18" s="37"/>
-      <c r="L18" s="41"/>
+      <c r="L18" s="42"/>
     </row>
     <row r="19" spans="1:12">
       <c r="B19" s="40"/>
@@ -46379,7 +46377,7 @@
       <c r="I19" s="37"/>
       <c r="J19" s="37"/>
       <c r="K19" s="37"/>
-      <c r="L19" s="41"/>
+      <c r="L19" s="42"/>
     </row>
     <row r="20" spans="1:12">
       <c r="B20" s="40"/>
@@ -46392,20 +46390,20 @@
       <c r="I20" s="37"/>
       <c r="J20" s="37"/>
       <c r="K20" s="37"/>
-      <c r="L20" s="41"/>
+      <c r="L20" s="42"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="B21" s="42"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="44"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="45"/>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="str">
@@ -46437,7 +46435,7 @@
       <c r="I24" s="37"/>
       <c r="J24" s="37"/>
       <c r="K24" s="37"/>
-      <c r="L24" s="41"/>
+      <c r="L24" s="42"/>
     </row>
     <row r="25" spans="1:12">
       <c r="B25" s="40"/>
@@ -46450,7 +46448,7 @@
       <c r="I25" s="37"/>
       <c r="J25" s="37"/>
       <c r="K25" s="37"/>
-      <c r="L25" s="41"/>
+      <c r="L25" s="42"/>
     </row>
     <row r="26" spans="1:12">
       <c r="B26" s="40"/>
@@ -46463,7 +46461,7 @@
       <c r="I26" s="37"/>
       <c r="J26" s="37"/>
       <c r="K26" s="37"/>
-      <c r="L26" s="41"/>
+      <c r="L26" s="42"/>
     </row>
     <row r="27" spans="1:12">
       <c r="B27" s="40"/>
@@ -46476,7 +46474,7 @@
       <c r="I27" s="37"/>
       <c r="J27" s="37"/>
       <c r="K27" s="37"/>
-      <c r="L27" s="41"/>
+      <c r="L27" s="42"/>
     </row>
     <row r="28" spans="1:12">
       <c r="B28" s="40"/>
@@ -46489,7 +46487,7 @@
       <c r="I28" s="37"/>
       <c r="J28" s="37"/>
       <c r="K28" s="37"/>
-      <c r="L28" s="41"/>
+      <c r="L28" s="42"/>
     </row>
     <row r="29" spans="1:12">
       <c r="B29" s="40"/>
@@ -46502,7 +46500,7 @@
       <c r="I29" s="37"/>
       <c r="J29" s="37"/>
       <c r="K29" s="37"/>
-      <c r="L29" s="41"/>
+      <c r="L29" s="42"/>
     </row>
     <row r="30" spans="1:12">
       <c r="B30" s="40"/>
@@ -46515,7 +46513,7 @@
       <c r="I30" s="37"/>
       <c r="J30" s="37"/>
       <c r="K30" s="37"/>
-      <c r="L30" s="41"/>
+      <c r="L30" s="42"/>
     </row>
     <row r="31" spans="1:12">
       <c r="B31" s="40"/>
@@ -46528,7 +46526,7 @@
       <c r="I31" s="37"/>
       <c r="J31" s="37"/>
       <c r="K31" s="37"/>
-      <c r="L31" s="41"/>
+      <c r="L31" s="42"/>
     </row>
     <row r="32" spans="1:12">
       <c r="B32" s="40"/>
@@ -46541,7 +46539,7 @@
       <c r="I32" s="37"/>
       <c r="J32" s="37"/>
       <c r="K32" s="37"/>
-      <c r="L32" s="41"/>
+      <c r="L32" s="42"/>
     </row>
     <row r="33" spans="1:12">
       <c r="B33" s="40"/>
@@ -46554,7 +46552,7 @@
       <c r="I33" s="37"/>
       <c r="J33" s="37"/>
       <c r="K33" s="37"/>
-      <c r="L33" s="41"/>
+      <c r="L33" s="42"/>
     </row>
     <row r="34" spans="1:12">
       <c r="B34" s="40"/>
@@ -46567,7 +46565,7 @@
       <c r="I34" s="37"/>
       <c r="J34" s="37"/>
       <c r="K34" s="37"/>
-      <c r="L34" s="41"/>
+      <c r="L34" s="42"/>
     </row>
     <row r="35" spans="1:12">
       <c r="B35" s="40"/>
@@ -46580,7 +46578,7 @@
       <c r="I35" s="37"/>
       <c r="J35" s="37"/>
       <c r="K35" s="37"/>
-      <c r="L35" s="41"/>
+      <c r="L35" s="42"/>
     </row>
     <row r="36" spans="1:12">
       <c r="B36" s="40"/>
@@ -46593,7 +46591,7 @@
       <c r="I36" s="37"/>
       <c r="J36" s="37"/>
       <c r="K36" s="37"/>
-      <c r="L36" s="41"/>
+      <c r="L36" s="42"/>
     </row>
     <row r="37" spans="1:12">
       <c r="B37" s="40"/>
@@ -46606,7 +46604,7 @@
       <c r="I37" s="37"/>
       <c r="J37" s="37"/>
       <c r="K37" s="37"/>
-      <c r="L37" s="41"/>
+      <c r="L37" s="42"/>
     </row>
     <row r="38" spans="1:12">
       <c r="B38" s="40"/>
@@ -46619,7 +46617,7 @@
       <c r="I38" s="37"/>
       <c r="J38" s="37"/>
       <c r="K38" s="37"/>
-      <c r="L38" s="41"/>
+      <c r="L38" s="42"/>
     </row>
     <row r="39" spans="1:12">
       <c r="B39" s="40"/>
@@ -46632,7 +46630,7 @@
       <c r="I39" s="37"/>
       <c r="J39" s="37"/>
       <c r="K39" s="37"/>
-      <c r="L39" s="41"/>
+      <c r="L39" s="42"/>
     </row>
     <row r="40" spans="1:12">
       <c r="B40" s="40"/>
@@ -46645,7 +46643,7 @@
       <c r="I40" s="37"/>
       <c r="J40" s="37"/>
       <c r="K40" s="37"/>
-      <c r="L40" s="41"/>
+      <c r="L40" s="42"/>
     </row>
     <row r="41" spans="1:12">
       <c r="B41" s="40"/>
@@ -46658,20 +46656,20 @@
       <c r="I41" s="37"/>
       <c r="J41" s="37"/>
       <c r="K41" s="37"/>
-      <c r="L41" s="41"/>
+      <c r="L41" s="42"/>
     </row>
     <row r="42" spans="1:12">
-      <c r="B42" s="42"/>
-      <c r="C42" s="43"/>
-      <c r="D42" s="43"/>
-      <c r="E42" s="43"/>
-      <c r="F42" s="43"/>
-      <c r="G42" s="43"/>
-      <c r="H42" s="43"/>
-      <c r="I42" s="43"/>
-      <c r="J42" s="43"/>
-      <c r="K42" s="43"/>
-      <c r="L42" s="44"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="44"/>
+      <c r="E42" s="44"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="44"/>
+      <c r="H42" s="44"/>
+      <c r="I42" s="44"/>
+      <c r="J42" s="44"/>
+      <c r="K42" s="44"/>
+      <c r="L42" s="45"/>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" t="str">
@@ -46703,7 +46701,7 @@
       <c r="I44" s="37"/>
       <c r="J44" s="37"/>
       <c r="K44" s="37"/>
-      <c r="L44" s="41"/>
+      <c r="L44" s="42"/>
     </row>
     <row r="45" spans="1:12">
       <c r="B45" s="40"/>
@@ -46716,7 +46714,7 @@
       <c r="I45" s="37"/>
       <c r="J45" s="37"/>
       <c r="K45" s="37"/>
-      <c r="L45" s="41"/>
+      <c r="L45" s="42"/>
     </row>
     <row r="46" spans="1:12">
       <c r="B46" s="40"/>
@@ -46729,7 +46727,7 @@
       <c r="I46" s="37"/>
       <c r="J46" s="37"/>
       <c r="K46" s="37"/>
-      <c r="L46" s="41"/>
+      <c r="L46" s="42"/>
     </row>
     <row r="47" spans="1:12">
       <c r="B47" s="40"/>
@@ -46742,7 +46740,7 @@
       <c r="I47" s="37"/>
       <c r="J47" s="37"/>
       <c r="K47" s="37"/>
-      <c r="L47" s="41"/>
+      <c r="L47" s="42"/>
     </row>
     <row r="48" spans="1:12">
       <c r="B48" s="40"/>
@@ -46755,7 +46753,7 @@
       <c r="I48" s="37"/>
       <c r="J48" s="37"/>
       <c r="K48" s="37"/>
-      <c r="L48" s="41"/>
+      <c r="L48" s="42"/>
     </row>
     <row r="49" spans="1:12">
       <c r="B49" s="40"/>
@@ -46768,7 +46766,7 @@
       <c r="I49" s="37"/>
       <c r="J49" s="37"/>
       <c r="K49" s="37"/>
-      <c r="L49" s="41"/>
+      <c r="L49" s="42"/>
     </row>
     <row r="50" spans="1:12">
       <c r="B50" s="40"/>
@@ -46781,7 +46779,7 @@
       <c r="I50" s="37"/>
       <c r="J50" s="37"/>
       <c r="K50" s="37"/>
-      <c r="L50" s="41"/>
+      <c r="L50" s="42"/>
     </row>
     <row r="51" spans="1:12">
       <c r="B51" s="40"/>
@@ -46794,7 +46792,7 @@
       <c r="I51" s="37"/>
       <c r="J51" s="37"/>
       <c r="K51" s="37"/>
-      <c r="L51" s="41"/>
+      <c r="L51" s="42"/>
     </row>
     <row r="52" spans="1:12">
       <c r="B52" s="40"/>
@@ -46807,7 +46805,7 @@
       <c r="I52" s="37"/>
       <c r="J52" s="37"/>
       <c r="K52" s="37"/>
-      <c r="L52" s="41"/>
+      <c r="L52" s="42"/>
     </row>
     <row r="53" spans="1:12">
       <c r="B53" s="40"/>
@@ -46820,7 +46818,7 @@
       <c r="I53" s="37"/>
       <c r="J53" s="37"/>
       <c r="K53" s="37"/>
-      <c r="L53" s="41"/>
+      <c r="L53" s="42"/>
     </row>
     <row r="54" spans="1:12">
       <c r="B54" s="40"/>
@@ -46833,7 +46831,7 @@
       <c r="I54" s="37"/>
       <c r="J54" s="37"/>
       <c r="K54" s="37"/>
-      <c r="L54" s="41"/>
+      <c r="L54" s="42"/>
     </row>
     <row r="55" spans="1:12">
       <c r="B55" s="40"/>
@@ -46846,7 +46844,7 @@
       <c r="I55" s="37"/>
       <c r="J55" s="37"/>
       <c r="K55" s="37"/>
-      <c r="L55" s="41"/>
+      <c r="L55" s="42"/>
     </row>
     <row r="56" spans="1:12">
       <c r="B56" s="40"/>
@@ -46859,7 +46857,7 @@
       <c r="I56" s="37"/>
       <c r="J56" s="37"/>
       <c r="K56" s="37"/>
-      <c r="L56" s="41"/>
+      <c r="L56" s="42"/>
     </row>
     <row r="57" spans="1:12">
       <c r="B57" s="40"/>
@@ -46872,7 +46870,7 @@
       <c r="I57" s="37"/>
       <c r="J57" s="37"/>
       <c r="K57" s="37"/>
-      <c r="L57" s="41"/>
+      <c r="L57" s="42"/>
     </row>
     <row r="58" spans="1:12">
       <c r="B58" s="40"/>
@@ -46885,7 +46883,7 @@
       <c r="I58" s="37"/>
       <c r="J58" s="37"/>
       <c r="K58" s="37"/>
-      <c r="L58" s="41"/>
+      <c r="L58" s="42"/>
     </row>
     <row r="59" spans="1:12">
       <c r="B59" s="40"/>
@@ -46898,7 +46896,7 @@
       <c r="I59" s="37"/>
       <c r="J59" s="37"/>
       <c r="K59" s="37"/>
-      <c r="L59" s="41"/>
+      <c r="L59" s="42"/>
     </row>
     <row r="60" spans="1:12">
       <c r="B60" s="40"/>
@@ -46911,7 +46909,7 @@
       <c r="I60" s="37"/>
       <c r="J60" s="37"/>
       <c r="K60" s="37"/>
-      <c r="L60" s="41"/>
+      <c r="L60" s="42"/>
     </row>
     <row r="61" spans="1:12">
       <c r="B61" s="40"/>
@@ -46924,20 +46922,20 @@
       <c r="I61" s="37"/>
       <c r="J61" s="37"/>
       <c r="K61" s="37"/>
-      <c r="L61" s="41"/>
+      <c r="L61" s="42"/>
     </row>
     <row r="62" spans="1:12">
-      <c r="B62" s="42"/>
-      <c r="C62" s="43"/>
-      <c r="D62" s="43"/>
-      <c r="E62" s="43"/>
-      <c r="F62" s="43"/>
-      <c r="G62" s="43"/>
-      <c r="H62" s="43"/>
-      <c r="I62" s="43"/>
-      <c r="J62" s="43"/>
-      <c r="K62" s="43"/>
-      <c r="L62" s="44"/>
+      <c r="B62" s="43"/>
+      <c r="C62" s="44"/>
+      <c r="D62" s="44"/>
+      <c r="E62" s="44"/>
+      <c r="F62" s="44"/>
+      <c r="G62" s="44"/>
+      <c r="H62" s="44"/>
+      <c r="I62" s="44"/>
+      <c r="J62" s="44"/>
+      <c r="K62" s="44"/>
+      <c r="L62" s="45"/>
     </row>
     <row r="63" spans="1:12">
       <c r="A63" t="str">
@@ -46969,7 +46967,7 @@
       <c r="I64" s="37"/>
       <c r="J64" s="37"/>
       <c r="K64" s="37"/>
-      <c r="L64" s="41"/>
+      <c r="L64" s="42"/>
     </row>
     <row r="65" spans="2:12">
       <c r="B65" s="40"/>
@@ -46982,7 +46980,7 @@
       <c r="I65" s="37"/>
       <c r="J65" s="37"/>
       <c r="K65" s="37"/>
-      <c r="L65" s="41"/>
+      <c r="L65" s="42"/>
     </row>
     <row r="66" spans="2:12">
       <c r="B66" s="40"/>
@@ -46995,7 +46993,7 @@
       <c r="I66" s="37"/>
       <c r="J66" s="37"/>
       <c r="K66" s="37"/>
-      <c r="L66" s="41"/>
+      <c r="L66" s="42"/>
     </row>
     <row r="67" spans="2:12">
       <c r="B67" s="40"/>
@@ -47008,7 +47006,7 @@
       <c r="I67" s="37"/>
       <c r="J67" s="37"/>
       <c r="K67" s="37"/>
-      <c r="L67" s="41"/>
+      <c r="L67" s="42"/>
     </row>
     <row r="68" spans="2:12">
       <c r="B68" s="40"/>
@@ -47021,7 +47019,7 @@
       <c r="I68" s="37"/>
       <c r="J68" s="37"/>
       <c r="K68" s="37"/>
-      <c r="L68" s="41"/>
+      <c r="L68" s="42"/>
     </row>
     <row r="69" spans="2:12">
       <c r="B69" s="40"/>
@@ -47034,7 +47032,7 @@
       <c r="I69" s="37"/>
       <c r="J69" s="37"/>
       <c r="K69" s="37"/>
-      <c r="L69" s="41"/>
+      <c r="L69" s="42"/>
     </row>
     <row r="70" spans="2:12">
       <c r="B70" s="40"/>
@@ -47047,7 +47045,7 @@
       <c r="I70" s="37"/>
       <c r="J70" s="37"/>
       <c r="K70" s="37"/>
-      <c r="L70" s="41"/>
+      <c r="L70" s="42"/>
     </row>
     <row r="71" spans="2:12">
       <c r="B71" s="40"/>
@@ -47060,7 +47058,7 @@
       <c r="I71" s="37"/>
       <c r="J71" s="37"/>
       <c r="K71" s="37"/>
-      <c r="L71" s="41"/>
+      <c r="L71" s="42"/>
     </row>
     <row r="72" spans="2:12">
       <c r="B72" s="40"/>
@@ -47073,7 +47071,7 @@
       <c r="I72" s="37"/>
       <c r="J72" s="37"/>
       <c r="K72" s="37"/>
-      <c r="L72" s="41"/>
+      <c r="L72" s="42"/>
     </row>
     <row r="73" spans="2:12">
       <c r="B73" s="40"/>
@@ -47086,7 +47084,7 @@
       <c r="I73" s="37"/>
       <c r="J73" s="37"/>
       <c r="K73" s="37"/>
-      <c r="L73" s="41"/>
+      <c r="L73" s="42"/>
     </row>
     <row r="74" spans="2:12">
       <c r="B74" s="40"/>
@@ -47099,7 +47097,7 @@
       <c r="I74" s="37"/>
       <c r="J74" s="37"/>
       <c r="K74" s="37"/>
-      <c r="L74" s="41"/>
+      <c r="L74" s="42"/>
     </row>
     <row r="75" spans="2:12">
       <c r="B75" s="40"/>
@@ -47112,7 +47110,7 @@
       <c r="I75" s="37"/>
       <c r="J75" s="37"/>
       <c r="K75" s="37"/>
-      <c r="L75" s="41"/>
+      <c r="L75" s="42"/>
     </row>
     <row r="76" spans="2:12">
       <c r="B76" s="40"/>
@@ -47125,7 +47123,7 @@
       <c r="I76" s="37"/>
       <c r="J76" s="37"/>
       <c r="K76" s="37"/>
-      <c r="L76" s="41"/>
+      <c r="L76" s="42"/>
     </row>
     <row r="77" spans="2:12">
       <c r="B77" s="40"/>
@@ -47138,7 +47136,7 @@
       <c r="I77" s="37"/>
       <c r="J77" s="37"/>
       <c r="K77" s="37"/>
-      <c r="L77" s="41"/>
+      <c r="L77" s="42"/>
     </row>
     <row r="78" spans="2:12">
       <c r="B78" s="40"/>
@@ -47151,7 +47149,7 @@
       <c r="I78" s="37"/>
       <c r="J78" s="37"/>
       <c r="K78" s="37"/>
-      <c r="L78" s="41"/>
+      <c r="L78" s="42"/>
     </row>
     <row r="79" spans="2:12">
       <c r="B79" s="40"/>
@@ -47164,7 +47162,7 @@
       <c r="I79" s="37"/>
       <c r="J79" s="37"/>
       <c r="K79" s="37"/>
-      <c r="L79" s="41"/>
+      <c r="L79" s="42"/>
     </row>
     <row r="80" spans="2:12">
       <c r="B80" s="40"/>
@@ -47177,7 +47175,7 @@
       <c r="I80" s="37"/>
       <c r="J80" s="37"/>
       <c r="K80" s="37"/>
-      <c r="L80" s="41"/>
+      <c r="L80" s="42"/>
     </row>
     <row r="81" spans="1:12">
       <c r="B81" s="40"/>
@@ -47190,20 +47188,20 @@
       <c r="I81" s="37"/>
       <c r="J81" s="37"/>
       <c r="K81" s="37"/>
-      <c r="L81" s="41"/>
+      <c r="L81" s="42"/>
     </row>
     <row r="82" spans="1:12">
-      <c r="B82" s="42"/>
-      <c r="C82" s="43"/>
-      <c r="D82" s="43"/>
-      <c r="E82" s="43"/>
-      <c r="F82" s="43"/>
-      <c r="G82" s="43"/>
-      <c r="H82" s="43"/>
-      <c r="I82" s="43"/>
-      <c r="J82" s="43"/>
-      <c r="K82" s="43"/>
-      <c r="L82" s="44"/>
+      <c r="B82" s="43"/>
+      <c r="C82" s="44"/>
+      <c r="D82" s="44"/>
+      <c r="E82" s="44"/>
+      <c r="F82" s="44"/>
+      <c r="G82" s="44"/>
+      <c r="H82" s="44"/>
+      <c r="I82" s="44"/>
+      <c r="J82" s="44"/>
+      <c r="K82" s="44"/>
+      <c r="L82" s="45"/>
     </row>
     <row r="83" spans="1:12">
       <c r="A83" t="str">
@@ -47235,7 +47233,7 @@
       <c r="I84" s="37"/>
       <c r="J84" s="37"/>
       <c r="K84" s="37"/>
-      <c r="L84" s="41"/>
+      <c r="L84" s="42"/>
     </row>
     <row r="85" spans="1:12">
       <c r="B85" s="40"/>
@@ -47248,7 +47246,7 @@
       <c r="I85" s="37"/>
       <c r="J85" s="37"/>
       <c r="K85" s="37"/>
-      <c r="L85" s="41"/>
+      <c r="L85" s="42"/>
     </row>
     <row r="86" spans="1:12">
       <c r="B86" s="40"/>
@@ -47261,7 +47259,7 @@
       <c r="I86" s="37"/>
       <c r="J86" s="37"/>
       <c r="K86" s="37"/>
-      <c r="L86" s="41"/>
+      <c r="L86" s="42"/>
     </row>
     <row r="87" spans="1:12">
       <c r="B87" s="40"/>
@@ -47274,7 +47272,7 @@
       <c r="I87" s="37"/>
       <c r="J87" s="37"/>
       <c r="K87" s="37"/>
-      <c r="L87" s="41"/>
+      <c r="L87" s="42"/>
     </row>
     <row r="88" spans="1:12">
       <c r="B88" s="40"/>
@@ -47287,7 +47285,7 @@
       <c r="I88" s="37"/>
       <c r="J88" s="37"/>
       <c r="K88" s="37"/>
-      <c r="L88" s="41"/>
+      <c r="L88" s="42"/>
     </row>
     <row r="89" spans="1:12">
       <c r="B89" s="40"/>
@@ -47300,7 +47298,7 @@
       <c r="I89" s="37"/>
       <c r="J89" s="37"/>
       <c r="K89" s="37"/>
-      <c r="L89" s="41"/>
+      <c r="L89" s="42"/>
     </row>
     <row r="90" spans="1:12">
       <c r="B90" s="40"/>
@@ -47313,7 +47311,7 @@
       <c r="I90" s="37"/>
       <c r="J90" s="37"/>
       <c r="K90" s="37"/>
-      <c r="L90" s="41"/>
+      <c r="L90" s="42"/>
     </row>
     <row r="91" spans="1:12">
       <c r="B91" s="40"/>
@@ -47326,7 +47324,7 @@
       <c r="I91" s="37"/>
       <c r="J91" s="37"/>
       <c r="K91" s="37"/>
-      <c r="L91" s="41"/>
+      <c r="L91" s="42"/>
     </row>
     <row r="92" spans="1:12">
       <c r="B92" s="40"/>
@@ -47339,7 +47337,7 @@
       <c r="I92" s="37"/>
       <c r="J92" s="37"/>
       <c r="K92" s="37"/>
-      <c r="L92" s="41"/>
+      <c r="L92" s="42"/>
     </row>
     <row r="93" spans="1:12">
       <c r="B93" s="40"/>
@@ -47352,7 +47350,7 @@
       <c r="I93" s="37"/>
       <c r="J93" s="37"/>
       <c r="K93" s="37"/>
-      <c r="L93" s="41"/>
+      <c r="L93" s="42"/>
     </row>
     <row r="94" spans="1:12">
       <c r="B94" s="40"/>
@@ -47365,7 +47363,7 @@
       <c r="I94" s="37"/>
       <c r="J94" s="37"/>
       <c r="K94" s="37"/>
-      <c r="L94" s="41"/>
+      <c r="L94" s="42"/>
     </row>
     <row r="95" spans="1:12">
       <c r="B95" s="40"/>
@@ -47378,7 +47376,7 @@
       <c r="I95" s="37"/>
       <c r="J95" s="37"/>
       <c r="K95" s="37"/>
-      <c r="L95" s="41"/>
+      <c r="L95" s="42"/>
     </row>
     <row r="96" spans="1:12">
       <c r="B96" s="40"/>
@@ -47391,7 +47389,7 @@
       <c r="I96" s="37"/>
       <c r="J96" s="37"/>
       <c r="K96" s="37"/>
-      <c r="L96" s="41"/>
+      <c r="L96" s="42"/>
     </row>
     <row r="97" spans="1:12">
       <c r="B97" s="40"/>
@@ -47404,7 +47402,7 @@
       <c r="I97" s="37"/>
       <c r="J97" s="37"/>
       <c r="K97" s="37"/>
-      <c r="L97" s="41"/>
+      <c r="L97" s="42"/>
     </row>
     <row r="98" spans="1:12">
       <c r="B98" s="40"/>
@@ -47417,7 +47415,7 @@
       <c r="I98" s="37"/>
       <c r="J98" s="37"/>
       <c r="K98" s="37"/>
-      <c r="L98" s="41"/>
+      <c r="L98" s="42"/>
     </row>
     <row r="99" spans="1:12">
       <c r="B99" s="40"/>
@@ -47430,7 +47428,7 @@
       <c r="I99" s="37"/>
       <c r="J99" s="37"/>
       <c r="K99" s="37"/>
-      <c r="L99" s="41"/>
+      <c r="L99" s="42"/>
     </row>
     <row r="100" spans="1:12">
       <c r="B100" s="40"/>
@@ -47443,7 +47441,7 @@
       <c r="I100" s="37"/>
       <c r="J100" s="37"/>
       <c r="K100" s="37"/>
-      <c r="L100" s="41"/>
+      <c r="L100" s="42"/>
     </row>
     <row r="101" spans="1:12">
       <c r="B101" s="40"/>
@@ -47456,20 +47454,20 @@
       <c r="I101" s="37"/>
       <c r="J101" s="37"/>
       <c r="K101" s="37"/>
-      <c r="L101" s="41"/>
+      <c r="L101" s="42"/>
     </row>
     <row r="102" spans="1:12">
-      <c r="B102" s="42"/>
-      <c r="C102" s="43"/>
-      <c r="D102" s="43"/>
-      <c r="E102" s="43"/>
-      <c r="F102" s="43"/>
-      <c r="G102" s="43"/>
-      <c r="H102" s="43"/>
-      <c r="I102" s="43"/>
-      <c r="J102" s="43"/>
-      <c r="K102" s="43"/>
-      <c r="L102" s="44"/>
+      <c r="B102" s="43"/>
+      <c r="C102" s="44"/>
+      <c r="D102" s="44"/>
+      <c r="E102" s="44"/>
+      <c r="F102" s="44"/>
+      <c r="G102" s="44"/>
+      <c r="H102" s="44"/>
+      <c r="I102" s="44"/>
+      <c r="J102" s="44"/>
+      <c r="K102" s="44"/>
+      <c r="L102" s="45"/>
     </row>
     <row r="103" spans="1:12">
       <c r="A103" t="str">
@@ -47501,7 +47499,7 @@
       <c r="I104" s="37"/>
       <c r="J104" s="37"/>
       <c r="K104" s="37"/>
-      <c r="L104" s="41"/>
+      <c r="L104" s="42"/>
     </row>
     <row r="105" spans="1:12">
       <c r="B105" s="40"/>
@@ -47514,7 +47512,7 @@
       <c r="I105" s="37"/>
       <c r="J105" s="37"/>
       <c r="K105" s="37"/>
-      <c r="L105" s="41"/>
+      <c r="L105" s="42"/>
     </row>
     <row r="106" spans="1:12">
       <c r="B106" s="40"/>
@@ -47527,7 +47525,7 @@
       <c r="I106" s="37"/>
       <c r="J106" s="37"/>
       <c r="K106" s="37"/>
-      <c r="L106" s="41"/>
+      <c r="L106" s="42"/>
     </row>
     <row r="107" spans="1:12">
       <c r="B107" s="40"/>
@@ -47540,7 +47538,7 @@
       <c r="I107" s="37"/>
       <c r="J107" s="37"/>
       <c r="K107" s="37"/>
-      <c r="L107" s="41"/>
+      <c r="L107" s="42"/>
     </row>
     <row r="108" spans="1:12">
       <c r="B108" s="40"/>
@@ -47553,7 +47551,7 @@
       <c r="I108" s="37"/>
       <c r="J108" s="37"/>
       <c r="K108" s="37"/>
-      <c r="L108" s="41"/>
+      <c r="L108" s="42"/>
     </row>
     <row r="109" spans="1:12">
       <c r="B109" s="40"/>
@@ -47566,7 +47564,7 @@
       <c r="I109" s="37"/>
       <c r="J109" s="37"/>
       <c r="K109" s="37"/>
-      <c r="L109" s="41"/>
+      <c r="L109" s="42"/>
     </row>
     <row r="110" spans="1:12">
       <c r="B110" s="40"/>
@@ -47579,7 +47577,7 @@
       <c r="I110" s="37"/>
       <c r="J110" s="37"/>
       <c r="K110" s="37"/>
-      <c r="L110" s="41"/>
+      <c r="L110" s="42"/>
     </row>
     <row r="111" spans="1:12">
       <c r="B111" s="40"/>
@@ -47592,7 +47590,7 @@
       <c r="I111" s="37"/>
       <c r="J111" s="37"/>
       <c r="K111" s="37"/>
-      <c r="L111" s="41"/>
+      <c r="L111" s="42"/>
     </row>
     <row r="112" spans="1:12">
       <c r="B112" s="40"/>
@@ -47605,7 +47603,7 @@
       <c r="I112" s="37"/>
       <c r="J112" s="37"/>
       <c r="K112" s="37"/>
-      <c r="L112" s="41"/>
+      <c r="L112" s="42"/>
     </row>
     <row r="113" spans="1:12">
       <c r="B113" s="40"/>
@@ -47618,7 +47616,7 @@
       <c r="I113" s="37"/>
       <c r="J113" s="37"/>
       <c r="K113" s="37"/>
-      <c r="L113" s="41"/>
+      <c r="L113" s="42"/>
     </row>
     <row r="114" spans="1:12">
       <c r="B114" s="40"/>
@@ -47631,7 +47629,7 @@
       <c r="I114" s="37"/>
       <c r="J114" s="37"/>
       <c r="K114" s="37"/>
-      <c r="L114" s="41"/>
+      <c r="L114" s="42"/>
     </row>
     <row r="115" spans="1:12">
       <c r="B115" s="40"/>
@@ -47644,7 +47642,7 @@
       <c r="I115" s="37"/>
       <c r="J115" s="37"/>
       <c r="K115" s="37"/>
-      <c r="L115" s="41"/>
+      <c r="L115" s="42"/>
     </row>
     <row r="116" spans="1:12">
       <c r="B116" s="40"/>
@@ -47657,7 +47655,7 @@
       <c r="I116" s="37"/>
       <c r="J116" s="37"/>
       <c r="K116" s="37"/>
-      <c r="L116" s="41"/>
+      <c r="L116" s="42"/>
     </row>
     <row r="117" spans="1:12">
       <c r="B117" s="40"/>
@@ -47670,7 +47668,7 @@
       <c r="I117" s="37"/>
       <c r="J117" s="37"/>
       <c r="K117" s="37"/>
-      <c r="L117" s="41"/>
+      <c r="L117" s="42"/>
     </row>
     <row r="118" spans="1:12">
       <c r="B118" s="40"/>
@@ -47683,7 +47681,7 @@
       <c r="I118" s="37"/>
       <c r="J118" s="37"/>
       <c r="K118" s="37"/>
-      <c r="L118" s="41"/>
+      <c r="L118" s="42"/>
     </row>
     <row r="119" spans="1:12">
       <c r="B119" s="40"/>
@@ -47696,7 +47694,7 @@
       <c r="I119" s="37"/>
       <c r="J119" s="37"/>
       <c r="K119" s="37"/>
-      <c r="L119" s="41"/>
+      <c r="L119" s="42"/>
     </row>
     <row r="120" spans="1:12">
       <c r="B120" s="40"/>
@@ -47709,7 +47707,7 @@
       <c r="I120" s="37"/>
       <c r="J120" s="37"/>
       <c r="K120" s="37"/>
-      <c r="L120" s="41"/>
+      <c r="L120" s="42"/>
     </row>
     <row r="121" spans="1:12">
       <c r="B121" s="40"/>
@@ -47722,20 +47720,20 @@
       <c r="I121" s="37"/>
       <c r="J121" s="37"/>
       <c r="K121" s="37"/>
-      <c r="L121" s="41"/>
+      <c r="L121" s="42"/>
     </row>
     <row r="122" spans="1:12">
-      <c r="B122" s="42"/>
-      <c r="C122" s="43"/>
-      <c r="D122" s="43"/>
-      <c r="E122" s="43"/>
-      <c r="F122" s="43"/>
-      <c r="G122" s="43"/>
-      <c r="H122" s="43"/>
-      <c r="I122" s="43"/>
-      <c r="J122" s="43"/>
-      <c r="K122" s="43"/>
-      <c r="L122" s="44"/>
+      <c r="B122" s="43"/>
+      <c r="C122" s="44"/>
+      <c r="D122" s="44"/>
+      <c r="E122" s="44"/>
+      <c r="F122" s="44"/>
+      <c r="G122" s="44"/>
+      <c r="H122" s="44"/>
+      <c r="I122" s="44"/>
+      <c r="J122" s="44"/>
+      <c r="K122" s="44"/>
+      <c r="L122" s="45"/>
     </row>
     <row r="123" spans="1:12">
       <c r="A123" t="str">
@@ -47767,7 +47765,7 @@
       <c r="I124" s="37"/>
       <c r="J124" s="37"/>
       <c r="K124" s="37"/>
-      <c r="L124" s="41"/>
+      <c r="L124" s="42"/>
     </row>
     <row r="125" spans="1:12">
       <c r="B125" s="40"/>
@@ -47780,7 +47778,7 @@
       <c r="I125" s="37"/>
       <c r="J125" s="37"/>
       <c r="K125" s="37"/>
-      <c r="L125" s="41"/>
+      <c r="L125" s="42"/>
     </row>
     <row r="126" spans="1:12">
       <c r="B126" s="40"/>
@@ -47793,7 +47791,7 @@
       <c r="I126" s="37"/>
       <c r="J126" s="37"/>
       <c r="K126" s="37"/>
-      <c r="L126" s="41"/>
+      <c r="L126" s="42"/>
     </row>
     <row r="127" spans="1:12">
       <c r="B127" s="40"/>
@@ -47806,7 +47804,7 @@
       <c r="I127" s="37"/>
       <c r="J127" s="37"/>
       <c r="K127" s="37"/>
-      <c r="L127" s="41"/>
+      <c r="L127" s="42"/>
     </row>
     <row r="128" spans="1:12">
       <c r="B128" s="40"/>
@@ -47819,7 +47817,7 @@
       <c r="I128" s="37"/>
       <c r="J128" s="37"/>
       <c r="K128" s="37"/>
-      <c r="L128" s="41"/>
+      <c r="L128" s="42"/>
     </row>
     <row r="129" spans="1:12">
       <c r="B129" s="40"/>
@@ -47832,7 +47830,7 @@
       <c r="I129" s="37"/>
       <c r="J129" s="37"/>
       <c r="K129" s="37"/>
-      <c r="L129" s="41"/>
+      <c r="L129" s="42"/>
     </row>
     <row r="130" spans="1:12">
       <c r="B130" s="40"/>
@@ -47845,7 +47843,7 @@
       <c r="I130" s="37"/>
       <c r="J130" s="37"/>
       <c r="K130" s="37"/>
-      <c r="L130" s="41"/>
+      <c r="L130" s="42"/>
     </row>
     <row r="131" spans="1:12">
       <c r="B131" s="40"/>
@@ -47858,7 +47856,7 @@
       <c r="I131" s="37"/>
       <c r="J131" s="37"/>
       <c r="K131" s="37"/>
-      <c r="L131" s="41"/>
+      <c r="L131" s="42"/>
     </row>
     <row r="132" spans="1:12">
       <c r="B132" s="40"/>
@@ -47871,7 +47869,7 @@
       <c r="I132" s="37"/>
       <c r="J132" s="37"/>
       <c r="K132" s="37"/>
-      <c r="L132" s="41"/>
+      <c r="L132" s="42"/>
     </row>
     <row r="133" spans="1:12">
       <c r="B133" s="40"/>
@@ -47884,7 +47882,7 @@
       <c r="I133" s="37"/>
       <c r="J133" s="37"/>
       <c r="K133" s="37"/>
-      <c r="L133" s="41"/>
+      <c r="L133" s="42"/>
     </row>
     <row r="134" spans="1:12">
       <c r="B134" s="40"/>
@@ -47897,7 +47895,7 @@
       <c r="I134" s="37"/>
       <c r="J134" s="37"/>
       <c r="K134" s="37"/>
-      <c r="L134" s="41"/>
+      <c r="L134" s="42"/>
     </row>
     <row r="135" spans="1:12">
       <c r="B135" s="40"/>
@@ -47910,7 +47908,7 @@
       <c r="I135" s="37"/>
       <c r="J135" s="37"/>
       <c r="K135" s="37"/>
-      <c r="L135" s="41"/>
+      <c r="L135" s="42"/>
     </row>
     <row r="136" spans="1:12">
       <c r="B136" s="40"/>
@@ -47923,7 +47921,7 @@
       <c r="I136" s="37"/>
       <c r="J136" s="37"/>
       <c r="K136" s="37"/>
-      <c r="L136" s="41"/>
+      <c r="L136" s="42"/>
     </row>
     <row r="137" spans="1:12">
       <c r="B137" s="40"/>
@@ -47936,7 +47934,7 @@
       <c r="I137" s="37"/>
       <c r="J137" s="37"/>
       <c r="K137" s="37"/>
-      <c r="L137" s="41"/>
+      <c r="L137" s="42"/>
     </row>
     <row r="138" spans="1:12">
       <c r="B138" s="40"/>
@@ -47949,7 +47947,7 @@
       <c r="I138" s="37"/>
       <c r="J138" s="37"/>
       <c r="K138" s="37"/>
-      <c r="L138" s="41"/>
+      <c r="L138" s="42"/>
     </row>
     <row r="139" spans="1:12">
       <c r="B139" s="40"/>
@@ -47962,7 +47960,7 @@
       <c r="I139" s="37"/>
       <c r="J139" s="37"/>
       <c r="K139" s="37"/>
-      <c r="L139" s="41"/>
+      <c r="L139" s="42"/>
     </row>
     <row r="140" spans="1:12">
       <c r="B140" s="40"/>
@@ -47975,7 +47973,7 @@
       <c r="I140" s="37"/>
       <c r="J140" s="37"/>
       <c r="K140" s="37"/>
-      <c r="L140" s="41"/>
+      <c r="L140" s="42"/>
     </row>
     <row r="141" spans="1:12">
       <c r="B141" s="40"/>
@@ -47988,20 +47986,20 @@
       <c r="I141" s="37"/>
       <c r="J141" s="37"/>
       <c r="K141" s="37"/>
-      <c r="L141" s="41"/>
+      <c r="L141" s="42"/>
     </row>
     <row r="142" spans="1:12">
-      <c r="B142" s="42"/>
-      <c r="C142" s="43"/>
-      <c r="D142" s="43"/>
-      <c r="E142" s="43"/>
-      <c r="F142" s="43"/>
-      <c r="G142" s="43"/>
-      <c r="H142" s="43"/>
-      <c r="I142" s="43"/>
-      <c r="J142" s="43"/>
-      <c r="K142" s="43"/>
-      <c r="L142" s="44"/>
+      <c r="B142" s="43"/>
+      <c r="C142" s="44"/>
+      <c r="D142" s="44"/>
+      <c r="E142" s="44"/>
+      <c r="F142" s="44"/>
+      <c r="G142" s="44"/>
+      <c r="H142" s="44"/>
+      <c r="I142" s="44"/>
+      <c r="J142" s="44"/>
+      <c r="K142" s="44"/>
+      <c r="L142" s="45"/>
     </row>
     <row r="143" spans="1:12">
       <c r="A143" t="str">
@@ -48033,7 +48031,7 @@
       <c r="I144" s="37"/>
       <c r="J144" s="37"/>
       <c r="K144" s="37"/>
-      <c r="L144" s="41"/>
+      <c r="L144" s="42"/>
     </row>
     <row r="145" spans="2:12">
       <c r="B145" s="40"/>
@@ -48046,7 +48044,7 @@
       <c r="I145" s="37"/>
       <c r="J145" s="37"/>
       <c r="K145" s="37"/>
-      <c r="L145" s="41"/>
+      <c r="L145" s="42"/>
     </row>
     <row r="146" spans="2:12">
       <c r="B146" s="40"/>
@@ -48059,7 +48057,7 @@
       <c r="I146" s="37"/>
       <c r="J146" s="37"/>
       <c r="K146" s="37"/>
-      <c r="L146" s="41"/>
+      <c r="L146" s="42"/>
     </row>
     <row r="147" spans="2:12">
       <c r="B147" s="40"/>
@@ -48072,7 +48070,7 @@
       <c r="I147" s="37"/>
       <c r="J147" s="37"/>
       <c r="K147" s="37"/>
-      <c r="L147" s="41"/>
+      <c r="L147" s="42"/>
     </row>
     <row r="148" spans="2:12">
       <c r="B148" s="40"/>
@@ -48085,7 +48083,7 @@
       <c r="I148" s="37"/>
       <c r="J148" s="37"/>
       <c r="K148" s="37"/>
-      <c r="L148" s="41"/>
+      <c r="L148" s="42"/>
     </row>
     <row r="149" spans="2:12">
       <c r="B149" s="40"/>
@@ -48098,7 +48096,7 @@
       <c r="I149" s="37"/>
       <c r="J149" s="37"/>
       <c r="K149" s="37"/>
-      <c r="L149" s="41"/>
+      <c r="L149" s="42"/>
     </row>
     <row r="150" spans="2:12">
       <c r="B150" s="40"/>
@@ -48111,7 +48109,7 @@
       <c r="I150" s="37"/>
       <c r="J150" s="37"/>
       <c r="K150" s="37"/>
-      <c r="L150" s="41"/>
+      <c r="L150" s="42"/>
     </row>
     <row r="151" spans="2:12">
       <c r="B151" s="40"/>
@@ -48124,7 +48122,7 @@
       <c r="I151" s="37"/>
       <c r="J151" s="37"/>
       <c r="K151" s="37"/>
-      <c r="L151" s="41"/>
+      <c r="L151" s="42"/>
     </row>
     <row r="152" spans="2:12">
       <c r="B152" s="40"/>
@@ -48137,7 +48135,7 @@
       <c r="I152" s="37"/>
       <c r="J152" s="37"/>
       <c r="K152" s="37"/>
-      <c r="L152" s="41"/>
+      <c r="L152" s="42"/>
     </row>
     <row r="153" spans="2:12">
       <c r="B153" s="40"/>
@@ -48150,7 +48148,7 @@
       <c r="I153" s="37"/>
       <c r="J153" s="37"/>
       <c r="K153" s="37"/>
-      <c r="L153" s="41"/>
+      <c r="L153" s="42"/>
     </row>
     <row r="154" spans="2:12">
       <c r="B154" s="40"/>
@@ -48163,7 +48161,7 @@
       <c r="I154" s="37"/>
       <c r="J154" s="37"/>
       <c r="K154" s="37"/>
-      <c r="L154" s="41"/>
+      <c r="L154" s="42"/>
     </row>
     <row r="155" spans="2:12">
       <c r="B155" s="40"/>
@@ -48176,7 +48174,7 @@
       <c r="I155" s="37"/>
       <c r="J155" s="37"/>
       <c r="K155" s="37"/>
-      <c r="L155" s="41"/>
+      <c r="L155" s="42"/>
     </row>
     <row r="156" spans="2:12">
       <c r="B156" s="40"/>
@@ -48189,7 +48187,7 @@
       <c r="I156" s="37"/>
       <c r="J156" s="37"/>
       <c r="K156" s="37"/>
-      <c r="L156" s="41"/>
+      <c r="L156" s="42"/>
     </row>
     <row r="157" spans="2:12">
       <c r="B157" s="40"/>
@@ -48202,7 +48200,7 @@
       <c r="I157" s="37"/>
       <c r="J157" s="37"/>
       <c r="K157" s="37"/>
-      <c r="L157" s="41"/>
+      <c r="L157" s="42"/>
     </row>
     <row r="158" spans="2:12">
       <c r="B158" s="40"/>
@@ -48215,7 +48213,7 @@
       <c r="I158" s="37"/>
       <c r="J158" s="37"/>
       <c r="K158" s="37"/>
-      <c r="L158" s="41"/>
+      <c r="L158" s="42"/>
     </row>
     <row r="159" spans="2:12">
       <c r="B159" s="40"/>
@@ -48228,7 +48226,7 @@
       <c r="I159" s="37"/>
       <c r="J159" s="37"/>
       <c r="K159" s="37"/>
-      <c r="L159" s="41"/>
+      <c r="L159" s="42"/>
     </row>
     <row r="160" spans="2:12">
       <c r="B160" s="40"/>
@@ -48241,7 +48239,7 @@
       <c r="I160" s="37"/>
       <c r="J160" s="37"/>
       <c r="K160" s="37"/>
-      <c r="L160" s="41"/>
+      <c r="L160" s="42"/>
     </row>
     <row r="161" spans="1:12">
       <c r="B161" s="40"/>
@@ -48254,20 +48252,20 @@
       <c r="I161" s="37"/>
       <c r="J161" s="37"/>
       <c r="K161" s="37"/>
-      <c r="L161" s="41"/>
+      <c r="L161" s="42"/>
     </row>
     <row r="162" spans="1:12">
-      <c r="B162" s="42"/>
-      <c r="C162" s="43"/>
-      <c r="D162" s="43"/>
-      <c r="E162" s="43"/>
-      <c r="F162" s="43"/>
-      <c r="G162" s="43"/>
-      <c r="H162" s="43"/>
-      <c r="I162" s="43"/>
-      <c r="J162" s="43"/>
-      <c r="K162" s="43"/>
-      <c r="L162" s="44"/>
+      <c r="B162" s="43"/>
+      <c r="C162" s="44"/>
+      <c r="D162" s="44"/>
+      <c r="E162" s="44"/>
+      <c r="F162" s="44"/>
+      <c r="G162" s="44"/>
+      <c r="H162" s="44"/>
+      <c r="I162" s="44"/>
+      <c r="J162" s="44"/>
+      <c r="K162" s="44"/>
+      <c r="L162" s="45"/>
     </row>
     <row r="163" spans="1:12">
       <c r="A163">
@@ -48299,7 +48297,7 @@
       <c r="I164" s="37"/>
       <c r="J164" s="37"/>
       <c r="K164" s="37"/>
-      <c r="L164" s="41"/>
+      <c r="L164" s="42"/>
     </row>
     <row r="165" spans="1:12">
       <c r="B165" s="40"/>
@@ -48312,7 +48310,7 @@
       <c r="I165" s="37"/>
       <c r="J165" s="37"/>
       <c r="K165" s="37"/>
-      <c r="L165" s="41"/>
+      <c r="L165" s="42"/>
     </row>
     <row r="166" spans="1:12">
       <c r="B166" s="40"/>
@@ -48325,7 +48323,7 @@
       <c r="I166" s="37"/>
       <c r="J166" s="37"/>
       <c r="K166" s="37"/>
-      <c r="L166" s="41"/>
+      <c r="L166" s="42"/>
     </row>
     <row r="167" spans="1:12">
       <c r="B167" s="40"/>
@@ -48338,7 +48336,7 @@
       <c r="I167" s="37"/>
       <c r="J167" s="37"/>
       <c r="K167" s="37"/>
-      <c r="L167" s="41"/>
+      <c r="L167" s="42"/>
     </row>
     <row r="168" spans="1:12">
       <c r="B168" s="40"/>
@@ -48351,7 +48349,7 @@
       <c r="I168" s="37"/>
       <c r="J168" s="37"/>
       <c r="K168" s="37"/>
-      <c r="L168" s="41"/>
+      <c r="L168" s="42"/>
     </row>
     <row r="169" spans="1:12">
       <c r="B169" s="40"/>
@@ -48364,7 +48362,7 @@
       <c r="I169" s="37"/>
       <c r="J169" s="37"/>
       <c r="K169" s="37"/>
-      <c r="L169" s="41"/>
+      <c r="L169" s="42"/>
     </row>
     <row r="170" spans="1:12">
       <c r="B170" s="40"/>
@@ -48377,7 +48375,7 @@
       <c r="I170" s="37"/>
       <c r="J170" s="37"/>
       <c r="K170" s="37"/>
-      <c r="L170" s="41"/>
+      <c r="L170" s="42"/>
     </row>
     <row r="171" spans="1:12">
       <c r="B171" s="40"/>
@@ -48390,7 +48388,7 @@
       <c r="I171" s="37"/>
       <c r="J171" s="37"/>
       <c r="K171" s="37"/>
-      <c r="L171" s="41"/>
+      <c r="L171" s="42"/>
     </row>
     <row r="172" spans="1:12">
       <c r="B172" s="40"/>
@@ -48403,7 +48401,7 @@
       <c r="I172" s="37"/>
       <c r="J172" s="37"/>
       <c r="K172" s="37"/>
-      <c r="L172" s="41"/>
+      <c r="L172" s="42"/>
     </row>
     <row r="173" spans="1:12">
       <c r="B173" s="40"/>
@@ -48416,7 +48414,7 @@
       <c r="I173" s="37"/>
       <c r="J173" s="37"/>
       <c r="K173" s="37"/>
-      <c r="L173" s="41"/>
+      <c r="L173" s="42"/>
     </row>
     <row r="174" spans="1:12">
       <c r="B174" s="40"/>
@@ -48429,7 +48427,7 @@
       <c r="I174" s="37"/>
       <c r="J174" s="37"/>
       <c r="K174" s="37"/>
-      <c r="L174" s="41"/>
+      <c r="L174" s="42"/>
     </row>
     <row r="175" spans="1:12">
       <c r="B175" s="40"/>
@@ -48442,7 +48440,7 @@
       <c r="I175" s="37"/>
       <c r="J175" s="37"/>
       <c r="K175" s="37"/>
-      <c r="L175" s="41"/>
+      <c r="L175" s="42"/>
     </row>
     <row r="176" spans="1:12">
       <c r="B176" s="40"/>
@@ -48455,7 +48453,7 @@
       <c r="I176" s="37"/>
       <c r="J176" s="37"/>
       <c r="K176" s="37"/>
-      <c r="L176" s="41"/>
+      <c r="L176" s="42"/>
     </row>
     <row r="177" spans="2:12">
       <c r="B177" s="40"/>
@@ -48468,7 +48466,7 @@
       <c r="I177" s="37"/>
       <c r="J177" s="37"/>
       <c r="K177" s="37"/>
-      <c r="L177" s="41"/>
+      <c r="L177" s="42"/>
     </row>
     <row r="178" spans="2:12">
       <c r="B178" s="40"/>
@@ -48481,7 +48479,7 @@
       <c r="I178" s="37"/>
       <c r="J178" s="37"/>
       <c r="K178" s="37"/>
-      <c r="L178" s="41"/>
+      <c r="L178" s="42"/>
     </row>
     <row r="179" spans="2:12">
       <c r="B179" s="40"/>
@@ -48494,7 +48492,7 @@
       <c r="I179" s="37"/>
       <c r="J179" s="37"/>
       <c r="K179" s="37"/>
-      <c r="L179" s="41"/>
+      <c r="L179" s="42"/>
     </row>
     <row r="180" spans="2:12">
       <c r="B180" s="40"/>
@@ -48507,7 +48505,7 @@
       <c r="I180" s="37"/>
       <c r="J180" s="37"/>
       <c r="K180" s="37"/>
-      <c r="L180" s="41"/>
+      <c r="L180" s="42"/>
     </row>
     <row r="181" spans="2:12">
       <c r="B181" s="40"/>
@@ -48520,33 +48518,33 @@
       <c r="I181" s="37"/>
       <c r="J181" s="37"/>
       <c r="K181" s="37"/>
-      <c r="L181" s="41"/>
+      <c r="L181" s="42"/>
     </row>
     <row r="182" spans="2:12">
-      <c r="B182" s="42"/>
-      <c r="C182" s="43"/>
-      <c r="D182" s="43"/>
-      <c r="E182" s="43"/>
-      <c r="F182" s="43"/>
-      <c r="G182" s="43"/>
-      <c r="H182" s="43"/>
-      <c r="I182" s="43"/>
-      <c r="J182" s="43"/>
-      <c r="K182" s="43"/>
-      <c r="L182" s="44"/>
+      <c r="B182" s="43"/>
+      <c r="C182" s="44"/>
+      <c r="D182" s="44"/>
+      <c r="E182" s="44"/>
+      <c r="F182" s="44"/>
+      <c r="G182" s="44"/>
+      <c r="H182" s="44"/>
+      <c r="I182" s="44"/>
+      <c r="J182" s="44"/>
+      <c r="K182" s="44"/>
+      <c r="L182" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B2:L21"/>
+    <mergeCell ref="B23:L42"/>
+    <mergeCell ref="B43:L62"/>
+    <mergeCell ref="B63:L82"/>
     <mergeCell ref="B83:L102"/>
     <mergeCell ref="B103:L122"/>
     <mergeCell ref="B123:L142"/>
     <mergeCell ref="B143:L162"/>
     <mergeCell ref="B163:L182"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="B2:L21"/>
-    <mergeCell ref="B23:L42"/>
-    <mergeCell ref="B43:L62"/>
-    <mergeCell ref="B63:L82"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -48559,7 +48557,7 @@
   </sheetPr>
   <dimension ref="B2:AA30"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C13" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="C15" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -48876,10 +48874,10 @@
         <v>9</v>
       </c>
       <c r="E15" s="17"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
       <c r="J15" s="17"/>
       <c r="K15" s="17"/>
       <c r="L15" s="17"/>
@@ -49116,82 +49114,82 @@
     <row r="25" spans="2:19" ht="30" customHeight="1">
       <c r="B25" s="3"/>
       <c r="C25" s="4"/>
-      <c r="D25" s="29" t="s">
+      <c r="D25" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="29"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="30"/>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="30"/>
       <c r="R25" s="4"/>
       <c r="S25" s="3"/>
     </row>
     <row r="26" spans="2:19" ht="30" customHeight="1">
       <c r="B26" s="3"/>
       <c r="C26" s="4"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="31"/>
-      <c r="O26" s="31"/>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="32"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="32"/>
+      <c r="P26" s="32"/>
+      <c r="Q26" s="33"/>
       <c r="R26" s="4"/>
       <c r="S26" s="3"/>
     </row>
     <row r="27" spans="2:19" ht="30" customHeight="1">
       <c r="B27" s="3"/>
       <c r="C27" s="4"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="34"/>
-      <c r="N27" s="34"/>
-      <c r="O27" s="34"/>
-      <c r="P27" s="34"/>
-      <c r="Q27" s="35"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="35"/>
+      <c r="O27" s="35"/>
+      <c r="P27" s="35"/>
+      <c r="Q27" s="36"/>
       <c r="R27" s="4"/>
       <c r="S27" s="3"/>
     </row>
     <row r="28" spans="2:19" ht="30" customHeight="1">
       <c r="B28" s="3"/>
       <c r="C28" s="4"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="34"/>
-      <c r="M28" s="34"/>
-      <c r="N28" s="34"/>
-      <c r="O28" s="34"/>
-      <c r="P28" s="34"/>
-      <c r="Q28" s="35"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="35"/>
+      <c r="O28" s="35"/>
+      <c r="P28" s="35"/>
+      <c r="Q28" s="36"/>
       <c r="R28" s="4"/>
       <c r="S28" s="3"/>
     </row>
@@ -52043,22 +52041,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="str">
@@ -52090,7 +52088,7 @@
       <c r="I3" s="37"/>
       <c r="J3" s="37"/>
       <c r="K3" s="37"/>
-      <c r="L3" s="41"/>
+      <c r="L3" s="42"/>
     </row>
     <row r="4" spans="1:14">
       <c r="B4" s="40"/>
@@ -52103,7 +52101,7 @@
       <c r="I4" s="37"/>
       <c r="J4" s="37"/>
       <c r="K4" s="37"/>
-      <c r="L4" s="41"/>
+      <c r="L4" s="42"/>
     </row>
     <row r="5" spans="1:14">
       <c r="B5" s="40"/>
@@ -52116,7 +52114,7 @@
       <c r="I5" s="37"/>
       <c r="J5" s="37"/>
       <c r="K5" s="37"/>
-      <c r="L5" s="41"/>
+      <c r="L5" s="42"/>
     </row>
     <row r="6" spans="1:14">
       <c r="B6" s="40"/>
@@ -52129,7 +52127,7 @@
       <c r="I6" s="37"/>
       <c r="J6" s="37"/>
       <c r="K6" s="37"/>
-      <c r="L6" s="41"/>
+      <c r="L6" s="42"/>
     </row>
     <row r="7" spans="1:14">
       <c r="B7" s="40"/>
@@ -52142,7 +52140,7 @@
       <c r="I7" s="37"/>
       <c r="J7" s="37"/>
       <c r="K7" s="37"/>
-      <c r="L7" s="41"/>
+      <c r="L7" s="42"/>
     </row>
     <row r="8" spans="1:14">
       <c r="B8" s="40"/>
@@ -52155,7 +52153,7 @@
       <c r="I8" s="37"/>
       <c r="J8" s="37"/>
       <c r="K8" s="37"/>
-      <c r="L8" s="41"/>
+      <c r="L8" s="42"/>
     </row>
     <row r="9" spans="1:14">
       <c r="B9" s="40"/>
@@ -52168,7 +52166,7 @@
       <c r="I9" s="37"/>
       <c r="J9" s="37"/>
       <c r="K9" s="37"/>
-      <c r="L9" s="41"/>
+      <c r="L9" s="42"/>
     </row>
     <row r="10" spans="1:14">
       <c r="B10" s="40"/>
@@ -52181,7 +52179,7 @@
       <c r="I10" s="37"/>
       <c r="J10" s="37"/>
       <c r="K10" s="37"/>
-      <c r="L10" s="41"/>
+      <c r="L10" s="42"/>
     </row>
     <row r="11" spans="1:14">
       <c r="B11" s="40"/>
@@ -52194,7 +52192,7 @@
       <c r="I11" s="37"/>
       <c r="J11" s="37"/>
       <c r="K11" s="37"/>
-      <c r="L11" s="41"/>
+      <c r="L11" s="42"/>
     </row>
     <row r="12" spans="1:14">
       <c r="B12" s="40"/>
@@ -52207,7 +52205,7 @@
       <c r="I12" s="37"/>
       <c r="J12" s="37"/>
       <c r="K12" s="37"/>
-      <c r="L12" s="41"/>
+      <c r="L12" s="42"/>
     </row>
     <row r="13" spans="1:14">
       <c r="B13" s="40"/>
@@ -52220,7 +52218,7 @@
       <c r="I13" s="37"/>
       <c r="J13" s="37"/>
       <c r="K13" s="37"/>
-      <c r="L13" s="41"/>
+      <c r="L13" s="42"/>
     </row>
     <row r="14" spans="1:14">
       <c r="B14" s="40"/>
@@ -52233,7 +52231,7 @@
       <c r="I14" s="37"/>
       <c r="J14" s="37"/>
       <c r="K14" s="37"/>
-      <c r="L14" s="41"/>
+      <c r="L14" s="42"/>
     </row>
     <row r="15" spans="1:14">
       <c r="B15" s="40"/>
@@ -52246,7 +52244,7 @@
       <c r="I15" s="37"/>
       <c r="J15" s="37"/>
       <c r="K15" s="37"/>
-      <c r="L15" s="41"/>
+      <c r="L15" s="42"/>
     </row>
     <row r="16" spans="1:14">
       <c r="B16" s="40"/>
@@ -52259,7 +52257,7 @@
       <c r="I16" s="37"/>
       <c r="J16" s="37"/>
       <c r="K16" s="37"/>
-      <c r="L16" s="41"/>
+      <c r="L16" s="42"/>
     </row>
     <row r="17" spans="1:12">
       <c r="B17" s="40"/>
@@ -52272,7 +52270,7 @@
       <c r="I17" s="37"/>
       <c r="J17" s="37"/>
       <c r="K17" s="37"/>
-      <c r="L17" s="41"/>
+      <c r="L17" s="42"/>
     </row>
     <row r="18" spans="1:12">
       <c r="B18" s="40"/>
@@ -52285,7 +52283,7 @@
       <c r="I18" s="37"/>
       <c r="J18" s="37"/>
       <c r="K18" s="37"/>
-      <c r="L18" s="41"/>
+      <c r="L18" s="42"/>
     </row>
     <row r="19" spans="1:12">
       <c r="B19" s="40"/>
@@ -52298,7 +52296,7 @@
       <c r="I19" s="37"/>
       <c r="J19" s="37"/>
       <c r="K19" s="37"/>
-      <c r="L19" s="41"/>
+      <c r="L19" s="42"/>
     </row>
     <row r="20" spans="1:12">
       <c r="B20" s="40"/>
@@ -52311,20 +52309,20 @@
       <c r="I20" s="37"/>
       <c r="J20" s="37"/>
       <c r="K20" s="37"/>
-      <c r="L20" s="41"/>
+      <c r="L20" s="42"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="B21" s="42"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="44"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="45"/>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="str">
@@ -52356,7 +52354,7 @@
       <c r="I24" s="37"/>
       <c r="J24" s="37"/>
       <c r="K24" s="37"/>
-      <c r="L24" s="41"/>
+      <c r="L24" s="42"/>
     </row>
     <row r="25" spans="1:12">
       <c r="B25" s="40"/>
@@ -52369,7 +52367,7 @@
       <c r="I25" s="37"/>
       <c r="J25" s="37"/>
       <c r="K25" s="37"/>
-      <c r="L25" s="41"/>
+      <c r="L25" s="42"/>
     </row>
     <row r="26" spans="1:12">
       <c r="B26" s="40"/>
@@ -52382,7 +52380,7 @@
       <c r="I26" s="37"/>
       <c r="J26" s="37"/>
       <c r="K26" s="37"/>
-      <c r="L26" s="41"/>
+      <c r="L26" s="42"/>
     </row>
     <row r="27" spans="1:12">
       <c r="B27" s="40"/>
@@ -52395,7 +52393,7 @@
       <c r="I27" s="37"/>
       <c r="J27" s="37"/>
       <c r="K27" s="37"/>
-      <c r="L27" s="41"/>
+      <c r="L27" s="42"/>
     </row>
     <row r="28" spans="1:12">
       <c r="B28" s="40"/>
@@ -52408,7 +52406,7 @@
       <c r="I28" s="37"/>
       <c r="J28" s="37"/>
       <c r="K28" s="37"/>
-      <c r="L28" s="41"/>
+      <c r="L28" s="42"/>
     </row>
     <row r="29" spans="1:12">
       <c r="B29" s="40"/>
@@ -52421,7 +52419,7 @@
       <c r="I29" s="37"/>
       <c r="J29" s="37"/>
       <c r="K29" s="37"/>
-      <c r="L29" s="41"/>
+      <c r="L29" s="42"/>
     </row>
     <row r="30" spans="1:12">
       <c r="B30" s="40"/>
@@ -52434,7 +52432,7 @@
       <c r="I30" s="37"/>
       <c r="J30" s="37"/>
       <c r="K30" s="37"/>
-      <c r="L30" s="41"/>
+      <c r="L30" s="42"/>
     </row>
     <row r="31" spans="1:12">
       <c r="B31" s="40"/>
@@ -52447,7 +52445,7 @@
       <c r="I31" s="37"/>
       <c r="J31" s="37"/>
       <c r="K31" s="37"/>
-      <c r="L31" s="41"/>
+      <c r="L31" s="42"/>
     </row>
     <row r="32" spans="1:12">
       <c r="B32" s="40"/>
@@ -52460,7 +52458,7 @@
       <c r="I32" s="37"/>
       <c r="J32" s="37"/>
       <c r="K32" s="37"/>
-      <c r="L32" s="41"/>
+      <c r="L32" s="42"/>
     </row>
     <row r="33" spans="1:12">
       <c r="B33" s="40"/>
@@ -52473,7 +52471,7 @@
       <c r="I33" s="37"/>
       <c r="J33" s="37"/>
       <c r="K33" s="37"/>
-      <c r="L33" s="41"/>
+      <c r="L33" s="42"/>
     </row>
     <row r="34" spans="1:12">
       <c r="B34" s="40"/>
@@ -52486,7 +52484,7 @@
       <c r="I34" s="37"/>
       <c r="J34" s="37"/>
       <c r="K34" s="37"/>
-      <c r="L34" s="41"/>
+      <c r="L34" s="42"/>
     </row>
     <row r="35" spans="1:12">
       <c r="B35" s="40"/>
@@ -52499,7 +52497,7 @@
       <c r="I35" s="37"/>
       <c r="J35" s="37"/>
       <c r="K35" s="37"/>
-      <c r="L35" s="41"/>
+      <c r="L35" s="42"/>
     </row>
     <row r="36" spans="1:12">
       <c r="B36" s="40"/>
@@ -52512,7 +52510,7 @@
       <c r="I36" s="37"/>
       <c r="J36" s="37"/>
       <c r="K36" s="37"/>
-      <c r="L36" s="41"/>
+      <c r="L36" s="42"/>
     </row>
     <row r="37" spans="1:12">
       <c r="B37" s="40"/>
@@ -52525,7 +52523,7 @@
       <c r="I37" s="37"/>
       <c r="J37" s="37"/>
       <c r="K37" s="37"/>
-      <c r="L37" s="41"/>
+      <c r="L37" s="42"/>
     </row>
     <row r="38" spans="1:12">
       <c r="B38" s="40"/>
@@ -52538,7 +52536,7 @@
       <c r="I38" s="37"/>
       <c r="J38" s="37"/>
       <c r="K38" s="37"/>
-      <c r="L38" s="41"/>
+      <c r="L38" s="42"/>
     </row>
     <row r="39" spans="1:12">
       <c r="B39" s="40"/>
@@ -52551,7 +52549,7 @@
       <c r="I39" s="37"/>
       <c r="J39" s="37"/>
       <c r="K39" s="37"/>
-      <c r="L39" s="41"/>
+      <c r="L39" s="42"/>
     </row>
     <row r="40" spans="1:12">
       <c r="B40" s="40"/>
@@ -52564,7 +52562,7 @@
       <c r="I40" s="37"/>
       <c r="J40" s="37"/>
       <c r="K40" s="37"/>
-      <c r="L40" s="41"/>
+      <c r="L40" s="42"/>
     </row>
     <row r="41" spans="1:12">
       <c r="B41" s="40"/>
@@ -52577,20 +52575,20 @@
       <c r="I41" s="37"/>
       <c r="J41" s="37"/>
       <c r="K41" s="37"/>
-      <c r="L41" s="41"/>
+      <c r="L41" s="42"/>
     </row>
     <row r="42" spans="1:12">
-      <c r="B42" s="42"/>
-      <c r="C42" s="43"/>
-      <c r="D42" s="43"/>
-      <c r="E42" s="43"/>
-      <c r="F42" s="43"/>
-      <c r="G42" s="43"/>
-      <c r="H42" s="43"/>
-      <c r="I42" s="43"/>
-      <c r="J42" s="43"/>
-      <c r="K42" s="43"/>
-      <c r="L42" s="44"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="44"/>
+      <c r="E42" s="44"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="44"/>
+      <c r="H42" s="44"/>
+      <c r="I42" s="44"/>
+      <c r="J42" s="44"/>
+      <c r="K42" s="44"/>
+      <c r="L42" s="45"/>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" t="str">
@@ -52622,7 +52620,7 @@
       <c r="I44" s="37"/>
       <c r="J44" s="37"/>
       <c r="K44" s="37"/>
-      <c r="L44" s="41"/>
+      <c r="L44" s="42"/>
     </row>
     <row r="45" spans="1:12">
       <c r="B45" s="40"/>
@@ -52635,7 +52633,7 @@
       <c r="I45" s="37"/>
       <c r="J45" s="37"/>
       <c r="K45" s="37"/>
-      <c r="L45" s="41"/>
+      <c r="L45" s="42"/>
     </row>
     <row r="46" spans="1:12">
       <c r="B46" s="40"/>
@@ -52648,7 +52646,7 @@
       <c r="I46" s="37"/>
       <c r="J46" s="37"/>
       <c r="K46" s="37"/>
-      <c r="L46" s="41"/>
+      <c r="L46" s="42"/>
     </row>
     <row r="47" spans="1:12">
       <c r="B47" s="40"/>
@@ -52661,7 +52659,7 @@
       <c r="I47" s="37"/>
       <c r="J47" s="37"/>
       <c r="K47" s="37"/>
-      <c r="L47" s="41"/>
+      <c r="L47" s="42"/>
     </row>
     <row r="48" spans="1:12">
       <c r="B48" s="40"/>
@@ -52674,7 +52672,7 @@
       <c r="I48" s="37"/>
       <c r="J48" s="37"/>
       <c r="K48" s="37"/>
-      <c r="L48" s="41"/>
+      <c r="L48" s="42"/>
     </row>
     <row r="49" spans="1:12">
       <c r="B49" s="40"/>
@@ -52687,7 +52685,7 @@
       <c r="I49" s="37"/>
       <c r="J49" s="37"/>
       <c r="K49" s="37"/>
-      <c r="L49" s="41"/>
+      <c r="L49" s="42"/>
     </row>
     <row r="50" spans="1:12">
       <c r="B50" s="40"/>
@@ -52700,7 +52698,7 @@
       <c r="I50" s="37"/>
       <c r="J50" s="37"/>
       <c r="K50" s="37"/>
-      <c r="L50" s="41"/>
+      <c r="L50" s="42"/>
     </row>
     <row r="51" spans="1:12">
       <c r="B51" s="40"/>
@@ -52713,7 +52711,7 @@
       <c r="I51" s="37"/>
       <c r="J51" s="37"/>
       <c r="K51" s="37"/>
-      <c r="L51" s="41"/>
+      <c r="L51" s="42"/>
     </row>
     <row r="52" spans="1:12">
       <c r="B52" s="40"/>
@@ -52726,7 +52724,7 @@
       <c r="I52" s="37"/>
       <c r="J52" s="37"/>
       <c r="K52" s="37"/>
-      <c r="L52" s="41"/>
+      <c r="L52" s="42"/>
     </row>
     <row r="53" spans="1:12">
       <c r="B53" s="40"/>
@@ -52739,7 +52737,7 @@
       <c r="I53" s="37"/>
       <c r="J53" s="37"/>
       <c r="K53" s="37"/>
-      <c r="L53" s="41"/>
+      <c r="L53" s="42"/>
     </row>
     <row r="54" spans="1:12">
       <c r="B54" s="40"/>
@@ -52752,7 +52750,7 @@
       <c r="I54" s="37"/>
       <c r="J54" s="37"/>
       <c r="K54" s="37"/>
-      <c r="L54" s="41"/>
+      <c r="L54" s="42"/>
     </row>
     <row r="55" spans="1:12">
       <c r="B55" s="40"/>
@@ -52765,7 +52763,7 @@
       <c r="I55" s="37"/>
       <c r="J55" s="37"/>
       <c r="K55" s="37"/>
-      <c r="L55" s="41"/>
+      <c r="L55" s="42"/>
     </row>
     <row r="56" spans="1:12">
       <c r="B56" s="40"/>
@@ -52778,7 +52776,7 @@
       <c r="I56" s="37"/>
       <c r="J56" s="37"/>
       <c r="K56" s="37"/>
-      <c r="L56" s="41"/>
+      <c r="L56" s="42"/>
     </row>
     <row r="57" spans="1:12">
       <c r="B57" s="40"/>
@@ -52791,7 +52789,7 @@
       <c r="I57" s="37"/>
       <c r="J57" s="37"/>
       <c r="K57" s="37"/>
-      <c r="L57" s="41"/>
+      <c r="L57" s="42"/>
     </row>
     <row r="58" spans="1:12">
       <c r="B58" s="40"/>
@@ -52804,7 +52802,7 @@
       <c r="I58" s="37"/>
       <c r="J58" s="37"/>
       <c r="K58" s="37"/>
-      <c r="L58" s="41"/>
+      <c r="L58" s="42"/>
     </row>
     <row r="59" spans="1:12">
       <c r="B59" s="40"/>
@@ -52817,7 +52815,7 @@
       <c r="I59" s="37"/>
       <c r="J59" s="37"/>
       <c r="K59" s="37"/>
-      <c r="L59" s="41"/>
+      <c r="L59" s="42"/>
     </row>
     <row r="60" spans="1:12">
       <c r="B60" s="40"/>
@@ -52830,7 +52828,7 @@
       <c r="I60" s="37"/>
       <c r="J60" s="37"/>
       <c r="K60" s="37"/>
-      <c r="L60" s="41"/>
+      <c r="L60" s="42"/>
     </row>
     <row r="61" spans="1:12">
       <c r="B61" s="40"/>
@@ -52843,20 +52841,20 @@
       <c r="I61" s="37"/>
       <c r="J61" s="37"/>
       <c r="K61" s="37"/>
-      <c r="L61" s="41"/>
+      <c r="L61" s="42"/>
     </row>
     <row r="62" spans="1:12">
-      <c r="B62" s="42"/>
-      <c r="C62" s="43"/>
-      <c r="D62" s="43"/>
-      <c r="E62" s="43"/>
-      <c r="F62" s="43"/>
-      <c r="G62" s="43"/>
-      <c r="H62" s="43"/>
-      <c r="I62" s="43"/>
-      <c r="J62" s="43"/>
-      <c r="K62" s="43"/>
-      <c r="L62" s="44"/>
+      <c r="B62" s="43"/>
+      <c r="C62" s="44"/>
+      <c r="D62" s="44"/>
+      <c r="E62" s="44"/>
+      <c r="F62" s="44"/>
+      <c r="G62" s="44"/>
+      <c r="H62" s="44"/>
+      <c r="I62" s="44"/>
+      <c r="J62" s="44"/>
+      <c r="K62" s="44"/>
+      <c r="L62" s="45"/>
     </row>
     <row r="63" spans="1:12">
       <c r="A63" t="str">
@@ -52888,7 +52886,7 @@
       <c r="I64" s="37"/>
       <c r="J64" s="37"/>
       <c r="K64" s="37"/>
-      <c r="L64" s="41"/>
+      <c r="L64" s="42"/>
     </row>
     <row r="65" spans="2:12">
       <c r="B65" s="40"/>
@@ -52901,7 +52899,7 @@
       <c r="I65" s="37"/>
       <c r="J65" s="37"/>
       <c r="K65" s="37"/>
-      <c r="L65" s="41"/>
+      <c r="L65" s="42"/>
     </row>
     <row r="66" spans="2:12">
       <c r="B66" s="40"/>
@@ -52914,7 +52912,7 @@
       <c r="I66" s="37"/>
       <c r="J66" s="37"/>
       <c r="K66" s="37"/>
-      <c r="L66" s="41"/>
+      <c r="L66" s="42"/>
     </row>
     <row r="67" spans="2:12">
       <c r="B67" s="40"/>
@@ -52927,7 +52925,7 @@
       <c r="I67" s="37"/>
       <c r="J67" s="37"/>
       <c r="K67" s="37"/>
-      <c r="L67" s="41"/>
+      <c r="L67" s="42"/>
     </row>
     <row r="68" spans="2:12">
       <c r="B68" s="40"/>
@@ -52940,7 +52938,7 @@
       <c r="I68" s="37"/>
       <c r="J68" s="37"/>
       <c r="K68" s="37"/>
-      <c r="L68" s="41"/>
+      <c r="L68" s="42"/>
     </row>
     <row r="69" spans="2:12">
       <c r="B69" s="40"/>
@@ -52953,7 +52951,7 @@
       <c r="I69" s="37"/>
       <c r="J69" s="37"/>
       <c r="K69" s="37"/>
-      <c r="L69" s="41"/>
+      <c r="L69" s="42"/>
     </row>
     <row r="70" spans="2:12">
       <c r="B70" s="40"/>
@@ -52966,7 +52964,7 @@
       <c r="I70" s="37"/>
       <c r="J70" s="37"/>
       <c r="K70" s="37"/>
-      <c r="L70" s="41"/>
+      <c r="L70" s="42"/>
     </row>
     <row r="71" spans="2:12">
       <c r="B71" s="40"/>
@@ -52979,7 +52977,7 @@
       <c r="I71" s="37"/>
       <c r="J71" s="37"/>
       <c r="K71" s="37"/>
-      <c r="L71" s="41"/>
+      <c r="L71" s="42"/>
     </row>
     <row r="72" spans="2:12">
       <c r="B72" s="40"/>
@@ -52992,7 +52990,7 @@
       <c r="I72" s="37"/>
       <c r="J72" s="37"/>
       <c r="K72" s="37"/>
-      <c r="L72" s="41"/>
+      <c r="L72" s="42"/>
     </row>
     <row r="73" spans="2:12">
       <c r="B73" s="40"/>
@@ -53005,7 +53003,7 @@
       <c r="I73" s="37"/>
       <c r="J73" s="37"/>
       <c r="K73" s="37"/>
-      <c r="L73" s="41"/>
+      <c r="L73" s="42"/>
     </row>
     <row r="74" spans="2:12">
       <c r="B74" s="40"/>
@@ -53018,7 +53016,7 @@
       <c r="I74" s="37"/>
       <c r="J74" s="37"/>
       <c r="K74" s="37"/>
-      <c r="L74" s="41"/>
+      <c r="L74" s="42"/>
     </row>
     <row r="75" spans="2:12">
       <c r="B75" s="40"/>
@@ -53031,7 +53029,7 @@
       <c r="I75" s="37"/>
       <c r="J75" s="37"/>
       <c r="K75" s="37"/>
-      <c r="L75" s="41"/>
+      <c r="L75" s="42"/>
     </row>
     <row r="76" spans="2:12">
       <c r="B76" s="40"/>
@@ -53044,7 +53042,7 @@
       <c r="I76" s="37"/>
       <c r="J76" s="37"/>
       <c r="K76" s="37"/>
-      <c r="L76" s="41"/>
+      <c r="L76" s="42"/>
     </row>
     <row r="77" spans="2:12">
       <c r="B77" s="40"/>
@@ -53057,7 +53055,7 @@
       <c r="I77" s="37"/>
       <c r="J77" s="37"/>
       <c r="K77" s="37"/>
-      <c r="L77" s="41"/>
+      <c r="L77" s="42"/>
     </row>
     <row r="78" spans="2:12">
       <c r="B78" s="40"/>
@@ -53070,7 +53068,7 @@
       <c r="I78" s="37"/>
       <c r="J78" s="37"/>
       <c r="K78" s="37"/>
-      <c r="L78" s="41"/>
+      <c r="L78" s="42"/>
     </row>
     <row r="79" spans="2:12">
       <c r="B79" s="40"/>
@@ -53083,7 +53081,7 @@
       <c r="I79" s="37"/>
       <c r="J79" s="37"/>
       <c r="K79" s="37"/>
-      <c r="L79" s="41"/>
+      <c r="L79" s="42"/>
     </row>
     <row r="80" spans="2:12">
       <c r="B80" s="40"/>
@@ -53096,7 +53094,7 @@
       <c r="I80" s="37"/>
       <c r="J80" s="37"/>
       <c r="K80" s="37"/>
-      <c r="L80" s="41"/>
+      <c r="L80" s="42"/>
     </row>
     <row r="81" spans="1:12">
       <c r="B81" s="40"/>
@@ -53109,20 +53107,20 @@
       <c r="I81" s="37"/>
       <c r="J81" s="37"/>
       <c r="K81" s="37"/>
-      <c r="L81" s="41"/>
+      <c r="L81" s="42"/>
     </row>
     <row r="82" spans="1:12">
-      <c r="B82" s="42"/>
-      <c r="C82" s="43"/>
-      <c r="D82" s="43"/>
-      <c r="E82" s="43"/>
-      <c r="F82" s="43"/>
-      <c r="G82" s="43"/>
-      <c r="H82" s="43"/>
-      <c r="I82" s="43"/>
-      <c r="J82" s="43"/>
-      <c r="K82" s="43"/>
-      <c r="L82" s="44"/>
+      <c r="B82" s="43"/>
+      <c r="C82" s="44"/>
+      <c r="D82" s="44"/>
+      <c r="E82" s="44"/>
+      <c r="F82" s="44"/>
+      <c r="G82" s="44"/>
+      <c r="H82" s="44"/>
+      <c r="I82" s="44"/>
+      <c r="J82" s="44"/>
+      <c r="K82" s="44"/>
+      <c r="L82" s="45"/>
     </row>
     <row r="83" spans="1:12">
       <c r="A83" t="str">
@@ -53154,7 +53152,7 @@
       <c r="I84" s="37"/>
       <c r="J84" s="37"/>
       <c r="K84" s="37"/>
-      <c r="L84" s="41"/>
+      <c r="L84" s="42"/>
     </row>
     <row r="85" spans="1:12">
       <c r="B85" s="40"/>
@@ -53167,7 +53165,7 @@
       <c r="I85" s="37"/>
       <c r="J85" s="37"/>
       <c r="K85" s="37"/>
-      <c r="L85" s="41"/>
+      <c r="L85" s="42"/>
     </row>
     <row r="86" spans="1:12">
       <c r="B86" s="40"/>
@@ -53180,7 +53178,7 @@
       <c r="I86" s="37"/>
       <c r="J86" s="37"/>
       <c r="K86" s="37"/>
-      <c r="L86" s="41"/>
+      <c r="L86" s="42"/>
     </row>
     <row r="87" spans="1:12">
       <c r="B87" s="40"/>
@@ -53193,7 +53191,7 @@
       <c r="I87" s="37"/>
       <c r="J87" s="37"/>
       <c r="K87" s="37"/>
-      <c r="L87" s="41"/>
+      <c r="L87" s="42"/>
     </row>
     <row r="88" spans="1:12">
       <c r="B88" s="40"/>
@@ -53206,7 +53204,7 @@
       <c r="I88" s="37"/>
       <c r="J88" s="37"/>
       <c r="K88" s="37"/>
-      <c r="L88" s="41"/>
+      <c r="L88" s="42"/>
     </row>
     <row r="89" spans="1:12">
       <c r="B89" s="40"/>
@@ -53219,7 +53217,7 @@
       <c r="I89" s="37"/>
       <c r="J89" s="37"/>
       <c r="K89" s="37"/>
-      <c r="L89" s="41"/>
+      <c r="L89" s="42"/>
     </row>
     <row r="90" spans="1:12">
       <c r="B90" s="40"/>
@@ -53232,7 +53230,7 @@
       <c r="I90" s="37"/>
       <c r="J90" s="37"/>
       <c r="K90" s="37"/>
-      <c r="L90" s="41"/>
+      <c r="L90" s="42"/>
     </row>
     <row r="91" spans="1:12">
       <c r="B91" s="40"/>
@@ -53245,7 +53243,7 @@
       <c r="I91" s="37"/>
       <c r="J91" s="37"/>
       <c r="K91" s="37"/>
-      <c r="L91" s="41"/>
+      <c r="L91" s="42"/>
     </row>
     <row r="92" spans="1:12">
       <c r="B92" s="40"/>
@@ -53258,7 +53256,7 @@
       <c r="I92" s="37"/>
       <c r="J92" s="37"/>
       <c r="K92" s="37"/>
-      <c r="L92" s="41"/>
+      <c r="L92" s="42"/>
     </row>
     <row r="93" spans="1:12">
       <c r="B93" s="40"/>
@@ -53271,7 +53269,7 @@
       <c r="I93" s="37"/>
       <c r="J93" s="37"/>
       <c r="K93" s="37"/>
-      <c r="L93" s="41"/>
+      <c r="L93" s="42"/>
     </row>
     <row r="94" spans="1:12">
       <c r="B94" s="40"/>
@@ -53284,7 +53282,7 @@
       <c r="I94" s="37"/>
       <c r="J94" s="37"/>
       <c r="K94" s="37"/>
-      <c r="L94" s="41"/>
+      <c r="L94" s="42"/>
     </row>
     <row r="95" spans="1:12">
       <c r="B95" s="40"/>
@@ -53297,7 +53295,7 @@
       <c r="I95" s="37"/>
       <c r="J95" s="37"/>
       <c r="K95" s="37"/>
-      <c r="L95" s="41"/>
+      <c r="L95" s="42"/>
     </row>
     <row r="96" spans="1:12">
       <c r="B96" s="40"/>
@@ -53310,7 +53308,7 @@
       <c r="I96" s="37"/>
       <c r="J96" s="37"/>
       <c r="K96" s="37"/>
-      <c r="L96" s="41"/>
+      <c r="L96" s="42"/>
     </row>
     <row r="97" spans="1:12">
       <c r="B97" s="40"/>
@@ -53323,7 +53321,7 @@
       <c r="I97" s="37"/>
       <c r="J97" s="37"/>
       <c r="K97" s="37"/>
-      <c r="L97" s="41"/>
+      <c r="L97" s="42"/>
     </row>
     <row r="98" spans="1:12">
       <c r="B98" s="40"/>
@@ -53336,7 +53334,7 @@
       <c r="I98" s="37"/>
       <c r="J98" s="37"/>
       <c r="K98" s="37"/>
-      <c r="L98" s="41"/>
+      <c r="L98" s="42"/>
     </row>
     <row r="99" spans="1:12">
       <c r="B99" s="40"/>
@@ -53349,7 +53347,7 @@
       <c r="I99" s="37"/>
       <c r="J99" s="37"/>
       <c r="K99" s="37"/>
-      <c r="L99" s="41"/>
+      <c r="L99" s="42"/>
     </row>
     <row r="100" spans="1:12">
       <c r="B100" s="40"/>
@@ -53362,7 +53360,7 @@
       <c r="I100" s="37"/>
       <c r="J100" s="37"/>
       <c r="K100" s="37"/>
-      <c r="L100" s="41"/>
+      <c r="L100" s="42"/>
     </row>
     <row r="101" spans="1:12">
       <c r="B101" s="40"/>
@@ -53375,20 +53373,20 @@
       <c r="I101" s="37"/>
       <c r="J101" s="37"/>
       <c r="K101" s="37"/>
-      <c r="L101" s="41"/>
+      <c r="L101" s="42"/>
     </row>
     <row r="102" spans="1:12">
-      <c r="B102" s="42"/>
-      <c r="C102" s="43"/>
-      <c r="D102" s="43"/>
-      <c r="E102" s="43"/>
-      <c r="F102" s="43"/>
-      <c r="G102" s="43"/>
-      <c r="H102" s="43"/>
-      <c r="I102" s="43"/>
-      <c r="J102" s="43"/>
-      <c r="K102" s="43"/>
-      <c r="L102" s="44"/>
+      <c r="B102" s="43"/>
+      <c r="C102" s="44"/>
+      <c r="D102" s="44"/>
+      <c r="E102" s="44"/>
+      <c r="F102" s="44"/>
+      <c r="G102" s="44"/>
+      <c r="H102" s="44"/>
+      <c r="I102" s="44"/>
+      <c r="J102" s="44"/>
+      <c r="K102" s="44"/>
+      <c r="L102" s="45"/>
     </row>
     <row r="103" spans="1:12">
       <c r="A103" t="str">
@@ -53420,7 +53418,7 @@
       <c r="I104" s="37"/>
       <c r="J104" s="37"/>
       <c r="K104" s="37"/>
-      <c r="L104" s="41"/>
+      <c r="L104" s="42"/>
     </row>
     <row r="105" spans="1:12">
       <c r="B105" s="40"/>
@@ -53433,7 +53431,7 @@
       <c r="I105" s="37"/>
       <c r="J105" s="37"/>
       <c r="K105" s="37"/>
-      <c r="L105" s="41"/>
+      <c r="L105" s="42"/>
     </row>
     <row r="106" spans="1:12">
       <c r="B106" s="40"/>
@@ -53446,7 +53444,7 @@
       <c r="I106" s="37"/>
       <c r="J106" s="37"/>
       <c r="K106" s="37"/>
-      <c r="L106" s="41"/>
+      <c r="L106" s="42"/>
     </row>
     <row r="107" spans="1:12">
       <c r="B107" s="40"/>
@@ -53459,7 +53457,7 @@
       <c r="I107" s="37"/>
       <c r="J107" s="37"/>
       <c r="K107" s="37"/>
-      <c r="L107" s="41"/>
+      <c r="L107" s="42"/>
     </row>
     <row r="108" spans="1:12">
       <c r="B108" s="40"/>
@@ -53472,7 +53470,7 @@
       <c r="I108" s="37"/>
       <c r="J108" s="37"/>
       <c r="K108" s="37"/>
-      <c r="L108" s="41"/>
+      <c r="L108" s="42"/>
     </row>
     <row r="109" spans="1:12">
       <c r="B109" s="40"/>
@@ -53485,7 +53483,7 @@
       <c r="I109" s="37"/>
       <c r="J109" s="37"/>
       <c r="K109" s="37"/>
-      <c r="L109" s="41"/>
+      <c r="L109" s="42"/>
     </row>
     <row r="110" spans="1:12">
       <c r="B110" s="40"/>
@@ -53498,7 +53496,7 @@
       <c r="I110" s="37"/>
       <c r="J110" s="37"/>
       <c r="K110" s="37"/>
-      <c r="L110" s="41"/>
+      <c r="L110" s="42"/>
     </row>
     <row r="111" spans="1:12">
       <c r="B111" s="40"/>
@@ -53511,7 +53509,7 @@
       <c r="I111" s="37"/>
       <c r="J111" s="37"/>
       <c r="K111" s="37"/>
-      <c r="L111" s="41"/>
+      <c r="L111" s="42"/>
     </row>
     <row r="112" spans="1:12">
       <c r="B112" s="40"/>
@@ -53524,7 +53522,7 @@
       <c r="I112" s="37"/>
       <c r="J112" s="37"/>
       <c r="K112" s="37"/>
-      <c r="L112" s="41"/>
+      <c r="L112" s="42"/>
     </row>
     <row r="113" spans="1:12">
       <c r="B113" s="40"/>
@@ -53537,7 +53535,7 @@
       <c r="I113" s="37"/>
       <c r="J113" s="37"/>
       <c r="K113" s="37"/>
-      <c r="L113" s="41"/>
+      <c r="L113" s="42"/>
     </row>
     <row r="114" spans="1:12">
       <c r="B114" s="40"/>
@@ -53550,7 +53548,7 @@
       <c r="I114" s="37"/>
       <c r="J114" s="37"/>
       <c r="K114" s="37"/>
-      <c r="L114" s="41"/>
+      <c r="L114" s="42"/>
     </row>
     <row r="115" spans="1:12">
       <c r="B115" s="40"/>
@@ -53563,7 +53561,7 @@
       <c r="I115" s="37"/>
       <c r="J115" s="37"/>
       <c r="K115" s="37"/>
-      <c r="L115" s="41"/>
+      <c r="L115" s="42"/>
     </row>
     <row r="116" spans="1:12">
       <c r="B116" s="40"/>
@@ -53576,7 +53574,7 @@
       <c r="I116" s="37"/>
       <c r="J116" s="37"/>
       <c r="K116" s="37"/>
-      <c r="L116" s="41"/>
+      <c r="L116" s="42"/>
     </row>
     <row r="117" spans="1:12">
       <c r="B117" s="40"/>
@@ -53589,7 +53587,7 @@
       <c r="I117" s="37"/>
       <c r="J117" s="37"/>
       <c r="K117" s="37"/>
-      <c r="L117" s="41"/>
+      <c r="L117" s="42"/>
     </row>
     <row r="118" spans="1:12">
       <c r="B118" s="40"/>
@@ -53602,7 +53600,7 @@
       <c r="I118" s="37"/>
       <c r="J118" s="37"/>
       <c r="K118" s="37"/>
-      <c r="L118" s="41"/>
+      <c r="L118" s="42"/>
     </row>
     <row r="119" spans="1:12">
       <c r="B119" s="40"/>
@@ -53615,7 +53613,7 @@
       <c r="I119" s="37"/>
       <c r="J119" s="37"/>
       <c r="K119" s="37"/>
-      <c r="L119" s="41"/>
+      <c r="L119" s="42"/>
     </row>
     <row r="120" spans="1:12">
       <c r="B120" s="40"/>
@@ -53628,7 +53626,7 @@
       <c r="I120" s="37"/>
       <c r="J120" s="37"/>
       <c r="K120" s="37"/>
-      <c r="L120" s="41"/>
+      <c r="L120" s="42"/>
     </row>
     <row r="121" spans="1:12">
       <c r="B121" s="40"/>
@@ -53641,20 +53639,20 @@
       <c r="I121" s="37"/>
       <c r="J121" s="37"/>
       <c r="K121" s="37"/>
-      <c r="L121" s="41"/>
+      <c r="L121" s="42"/>
     </row>
     <row r="122" spans="1:12">
-      <c r="B122" s="42"/>
-      <c r="C122" s="43"/>
-      <c r="D122" s="43"/>
-      <c r="E122" s="43"/>
-      <c r="F122" s="43"/>
-      <c r="G122" s="43"/>
-      <c r="H122" s="43"/>
-      <c r="I122" s="43"/>
-      <c r="J122" s="43"/>
-      <c r="K122" s="43"/>
-      <c r="L122" s="44"/>
+      <c r="B122" s="43"/>
+      <c r="C122" s="44"/>
+      <c r="D122" s="44"/>
+      <c r="E122" s="44"/>
+      <c r="F122" s="44"/>
+      <c r="G122" s="44"/>
+      <c r="H122" s="44"/>
+      <c r="I122" s="44"/>
+      <c r="J122" s="44"/>
+      <c r="K122" s="44"/>
+      <c r="L122" s="45"/>
     </row>
     <row r="123" spans="1:12">
       <c r="A123" t="str">
@@ -53686,7 +53684,7 @@
       <c r="I124" s="37"/>
       <c r="J124" s="37"/>
       <c r="K124" s="37"/>
-      <c r="L124" s="41"/>
+      <c r="L124" s="42"/>
     </row>
     <row r="125" spans="1:12">
       <c r="B125" s="40"/>
@@ -53699,7 +53697,7 @@
       <c r="I125" s="37"/>
       <c r="J125" s="37"/>
       <c r="K125" s="37"/>
-      <c r="L125" s="41"/>
+      <c r="L125" s="42"/>
     </row>
     <row r="126" spans="1:12">
       <c r="B126" s="40"/>
@@ -53712,7 +53710,7 @@
       <c r="I126" s="37"/>
       <c r="J126" s="37"/>
       <c r="K126" s="37"/>
-      <c r="L126" s="41"/>
+      <c r="L126" s="42"/>
     </row>
     <row r="127" spans="1:12">
       <c r="B127" s="40"/>
@@ -53725,7 +53723,7 @@
       <c r="I127" s="37"/>
       <c r="J127" s="37"/>
       <c r="K127" s="37"/>
-      <c r="L127" s="41"/>
+      <c r="L127" s="42"/>
     </row>
     <row r="128" spans="1:12">
       <c r="B128" s="40"/>
@@ -53738,7 +53736,7 @@
       <c r="I128" s="37"/>
       <c r="J128" s="37"/>
       <c r="K128" s="37"/>
-      <c r="L128" s="41"/>
+      <c r="L128" s="42"/>
     </row>
     <row r="129" spans="1:12">
       <c r="B129" s="40"/>
@@ -53751,7 +53749,7 @@
       <c r="I129" s="37"/>
       <c r="J129" s="37"/>
       <c r="K129" s="37"/>
-      <c r="L129" s="41"/>
+      <c r="L129" s="42"/>
     </row>
     <row r="130" spans="1:12">
       <c r="B130" s="40"/>
@@ -53764,7 +53762,7 @@
       <c r="I130" s="37"/>
       <c r="J130" s="37"/>
       <c r="K130" s="37"/>
-      <c r="L130" s="41"/>
+      <c r="L130" s="42"/>
     </row>
     <row r="131" spans="1:12">
       <c r="B131" s="40"/>
@@ -53777,7 +53775,7 @@
       <c r="I131" s="37"/>
       <c r="J131" s="37"/>
       <c r="K131" s="37"/>
-      <c r="L131" s="41"/>
+      <c r="L131" s="42"/>
     </row>
     <row r="132" spans="1:12">
       <c r="B132" s="40"/>
@@ -53790,7 +53788,7 @@
       <c r="I132" s="37"/>
       <c r="J132" s="37"/>
       <c r="K132" s="37"/>
-      <c r="L132" s="41"/>
+      <c r="L132" s="42"/>
     </row>
     <row r="133" spans="1:12">
       <c r="B133" s="40"/>
@@ -53803,7 +53801,7 @@
       <c r="I133" s="37"/>
       <c r="J133" s="37"/>
       <c r="K133" s="37"/>
-      <c r="L133" s="41"/>
+      <c r="L133" s="42"/>
     </row>
     <row r="134" spans="1:12">
       <c r="B134" s="40"/>
@@ -53816,7 +53814,7 @@
       <c r="I134" s="37"/>
       <c r="J134" s="37"/>
       <c r="K134" s="37"/>
-      <c r="L134" s="41"/>
+      <c r="L134" s="42"/>
     </row>
     <row r="135" spans="1:12">
       <c r="B135" s="40"/>
@@ -53829,7 +53827,7 @@
       <c r="I135" s="37"/>
       <c r="J135" s="37"/>
       <c r="K135" s="37"/>
-      <c r="L135" s="41"/>
+      <c r="L135" s="42"/>
     </row>
     <row r="136" spans="1:12">
       <c r="B136" s="40"/>
@@ -53842,7 +53840,7 @@
       <c r="I136" s="37"/>
       <c r="J136" s="37"/>
       <c r="K136" s="37"/>
-      <c r="L136" s="41"/>
+      <c r="L136" s="42"/>
     </row>
     <row r="137" spans="1:12">
       <c r="B137" s="40"/>
@@ -53855,7 +53853,7 @@
       <c r="I137" s="37"/>
       <c r="J137" s="37"/>
       <c r="K137" s="37"/>
-      <c r="L137" s="41"/>
+      <c r="L137" s="42"/>
     </row>
     <row r="138" spans="1:12">
       <c r="B138" s="40"/>
@@ -53868,7 +53866,7 @@
       <c r="I138" s="37"/>
       <c r="J138" s="37"/>
       <c r="K138" s="37"/>
-      <c r="L138" s="41"/>
+      <c r="L138" s="42"/>
     </row>
     <row r="139" spans="1:12">
       <c r="B139" s="40"/>
@@ -53881,7 +53879,7 @@
       <c r="I139" s="37"/>
       <c r="J139" s="37"/>
       <c r="K139" s="37"/>
-      <c r="L139" s="41"/>
+      <c r="L139" s="42"/>
     </row>
     <row r="140" spans="1:12">
       <c r="B140" s="40"/>
@@ -53894,7 +53892,7 @@
       <c r="I140" s="37"/>
       <c r="J140" s="37"/>
       <c r="K140" s="37"/>
-      <c r="L140" s="41"/>
+      <c r="L140" s="42"/>
     </row>
     <row r="141" spans="1:12">
       <c r="B141" s="40"/>
@@ -53907,20 +53905,20 @@
       <c r="I141" s="37"/>
       <c r="J141" s="37"/>
       <c r="K141" s="37"/>
-      <c r="L141" s="41"/>
+      <c r="L141" s="42"/>
     </row>
     <row r="142" spans="1:12">
-      <c r="B142" s="42"/>
-      <c r="C142" s="43"/>
-      <c r="D142" s="43"/>
-      <c r="E142" s="43"/>
-      <c r="F142" s="43"/>
-      <c r="G142" s="43"/>
-      <c r="H142" s="43"/>
-      <c r="I142" s="43"/>
-      <c r="J142" s="43"/>
-      <c r="K142" s="43"/>
-      <c r="L142" s="44"/>
+      <c r="B142" s="43"/>
+      <c r="C142" s="44"/>
+      <c r="D142" s="44"/>
+      <c r="E142" s="44"/>
+      <c r="F142" s="44"/>
+      <c r="G142" s="44"/>
+      <c r="H142" s="44"/>
+      <c r="I142" s="44"/>
+      <c r="J142" s="44"/>
+      <c r="K142" s="44"/>
+      <c r="L142" s="45"/>
     </row>
     <row r="143" spans="1:12">
       <c r="A143" t="str">
@@ -53952,7 +53950,7 @@
       <c r="I144" s="37"/>
       <c r="J144" s="37"/>
       <c r="K144" s="37"/>
-      <c r="L144" s="41"/>
+      <c r="L144" s="42"/>
     </row>
     <row r="145" spans="2:12">
       <c r="B145" s="40"/>
@@ -53965,7 +53963,7 @@
       <c r="I145" s="37"/>
       <c r="J145" s="37"/>
       <c r="K145" s="37"/>
-      <c r="L145" s="41"/>
+      <c r="L145" s="42"/>
     </row>
     <row r="146" spans="2:12">
       <c r="B146" s="40"/>
@@ -53978,7 +53976,7 @@
       <c r="I146" s="37"/>
       <c r="J146" s="37"/>
       <c r="K146" s="37"/>
-      <c r="L146" s="41"/>
+      <c r="L146" s="42"/>
     </row>
     <row r="147" spans="2:12">
       <c r="B147" s="40"/>
@@ -53991,7 +53989,7 @@
       <c r="I147" s="37"/>
       <c r="J147" s="37"/>
       <c r="K147" s="37"/>
-      <c r="L147" s="41"/>
+      <c r="L147" s="42"/>
     </row>
     <row r="148" spans="2:12">
       <c r="B148" s="40"/>
@@ -54004,7 +54002,7 @@
       <c r="I148" s="37"/>
       <c r="J148" s="37"/>
       <c r="K148" s="37"/>
-      <c r="L148" s="41"/>
+      <c r="L148" s="42"/>
     </row>
     <row r="149" spans="2:12">
       <c r="B149" s="40"/>
@@ -54017,7 +54015,7 @@
       <c r="I149" s="37"/>
       <c r="J149" s="37"/>
       <c r="K149" s="37"/>
-      <c r="L149" s="41"/>
+      <c r="L149" s="42"/>
     </row>
     <row r="150" spans="2:12">
       <c r="B150" s="40"/>
@@ -54030,7 +54028,7 @@
       <c r="I150" s="37"/>
       <c r="J150" s="37"/>
       <c r="K150" s="37"/>
-      <c r="L150" s="41"/>
+      <c r="L150" s="42"/>
     </row>
     <row r="151" spans="2:12">
       <c r="B151" s="40"/>
@@ -54043,7 +54041,7 @@
       <c r="I151" s="37"/>
       <c r="J151" s="37"/>
       <c r="K151" s="37"/>
-      <c r="L151" s="41"/>
+      <c r="L151" s="42"/>
     </row>
     <row r="152" spans="2:12">
       <c r="B152" s="40"/>
@@ -54056,7 +54054,7 @@
       <c r="I152" s="37"/>
       <c r="J152" s="37"/>
       <c r="K152" s="37"/>
-      <c r="L152" s="41"/>
+      <c r="L152" s="42"/>
     </row>
     <row r="153" spans="2:12">
       <c r="B153" s="40"/>
@@ -54069,7 +54067,7 @@
       <c r="I153" s="37"/>
       <c r="J153" s="37"/>
       <c r="K153" s="37"/>
-      <c r="L153" s="41"/>
+      <c r="L153" s="42"/>
     </row>
     <row r="154" spans="2:12">
       <c r="B154" s="40"/>
@@ -54082,7 +54080,7 @@
       <c r="I154" s="37"/>
       <c r="J154" s="37"/>
       <c r="K154" s="37"/>
-      <c r="L154" s="41"/>
+      <c r="L154" s="42"/>
     </row>
     <row r="155" spans="2:12">
       <c r="B155" s="40"/>
@@ -54095,7 +54093,7 @@
       <c r="I155" s="37"/>
       <c r="J155" s="37"/>
       <c r="K155" s="37"/>
-      <c r="L155" s="41"/>
+      <c r="L155" s="42"/>
     </row>
     <row r="156" spans="2:12">
       <c r="B156" s="40"/>
@@ -54108,7 +54106,7 @@
       <c r="I156" s="37"/>
       <c r="J156" s="37"/>
       <c r="K156" s="37"/>
-      <c r="L156" s="41"/>
+      <c r="L156" s="42"/>
     </row>
     <row r="157" spans="2:12">
       <c r="B157" s="40"/>
@@ -54121,7 +54119,7 @@
       <c r="I157" s="37"/>
       <c r="J157" s="37"/>
       <c r="K157" s="37"/>
-      <c r="L157" s="41"/>
+      <c r="L157" s="42"/>
     </row>
     <row r="158" spans="2:12">
       <c r="B158" s="40"/>
@@ -54134,7 +54132,7 @@
       <c r="I158" s="37"/>
       <c r="J158" s="37"/>
       <c r="K158" s="37"/>
-      <c r="L158" s="41"/>
+      <c r="L158" s="42"/>
     </row>
     <row r="159" spans="2:12">
       <c r="B159" s="40"/>
@@ -54147,7 +54145,7 @@
       <c r="I159" s="37"/>
       <c r="J159" s="37"/>
       <c r="K159" s="37"/>
-      <c r="L159" s="41"/>
+      <c r="L159" s="42"/>
     </row>
     <row r="160" spans="2:12">
       <c r="B160" s="40"/>
@@ -54160,7 +54158,7 @@
       <c r="I160" s="37"/>
       <c r="J160" s="37"/>
       <c r="K160" s="37"/>
-      <c r="L160" s="41"/>
+      <c r="L160" s="42"/>
     </row>
     <row r="161" spans="1:12">
       <c r="B161" s="40"/>
@@ -54173,20 +54171,20 @@
       <c r="I161" s="37"/>
       <c r="J161" s="37"/>
       <c r="K161" s="37"/>
-      <c r="L161" s="41"/>
+      <c r="L161" s="42"/>
     </row>
     <row r="162" spans="1:12">
-      <c r="B162" s="42"/>
-      <c r="C162" s="43"/>
-      <c r="D162" s="43"/>
-      <c r="E162" s="43"/>
-      <c r="F162" s="43"/>
-      <c r="G162" s="43"/>
-      <c r="H162" s="43"/>
-      <c r="I162" s="43"/>
-      <c r="J162" s="43"/>
-      <c r="K162" s="43"/>
-      <c r="L162" s="44"/>
+      <c r="B162" s="43"/>
+      <c r="C162" s="44"/>
+      <c r="D162" s="44"/>
+      <c r="E162" s="44"/>
+      <c r="F162" s="44"/>
+      <c r="G162" s="44"/>
+      <c r="H162" s="44"/>
+      <c r="I162" s="44"/>
+      <c r="J162" s="44"/>
+      <c r="K162" s="44"/>
+      <c r="L162" s="45"/>
     </row>
     <row r="163" spans="1:12">
       <c r="A163" t="str">
@@ -54218,7 +54216,7 @@
       <c r="I164" s="37"/>
       <c r="J164" s="37"/>
       <c r="K164" s="37"/>
-      <c r="L164" s="41"/>
+      <c r="L164" s="42"/>
     </row>
     <row r="165" spans="1:12">
       <c r="B165" s="40"/>
@@ -54231,7 +54229,7 @@
       <c r="I165" s="37"/>
       <c r="J165" s="37"/>
       <c r="K165" s="37"/>
-      <c r="L165" s="41"/>
+      <c r="L165" s="42"/>
     </row>
     <row r="166" spans="1:12">
       <c r="B166" s="40"/>
@@ -54244,7 +54242,7 @@
       <c r="I166" s="37"/>
       <c r="J166" s="37"/>
       <c r="K166" s="37"/>
-      <c r="L166" s="41"/>
+      <c r="L166" s="42"/>
     </row>
     <row r="167" spans="1:12">
       <c r="B167" s="40"/>
@@ -54257,7 +54255,7 @@
       <c r="I167" s="37"/>
       <c r="J167" s="37"/>
       <c r="K167" s="37"/>
-      <c r="L167" s="41"/>
+      <c r="L167" s="42"/>
     </row>
     <row r="168" spans="1:12">
       <c r="B168" s="40"/>
@@ -54270,7 +54268,7 @@
       <c r="I168" s="37"/>
       <c r="J168" s="37"/>
       <c r="K168" s="37"/>
-      <c r="L168" s="41"/>
+      <c r="L168" s="42"/>
     </row>
     <row r="169" spans="1:12">
       <c r="B169" s="40"/>
@@ -54283,7 +54281,7 @@
       <c r="I169" s="37"/>
       <c r="J169" s="37"/>
       <c r="K169" s="37"/>
-      <c r="L169" s="41"/>
+      <c r="L169" s="42"/>
     </row>
     <row r="170" spans="1:12">
       <c r="B170" s="40"/>
@@ -54296,7 +54294,7 @@
       <c r="I170" s="37"/>
       <c r="J170" s="37"/>
       <c r="K170" s="37"/>
-      <c r="L170" s="41"/>
+      <c r="L170" s="42"/>
     </row>
     <row r="171" spans="1:12">
       <c r="B171" s="40"/>
@@ -54309,7 +54307,7 @@
       <c r="I171" s="37"/>
       <c r="J171" s="37"/>
       <c r="K171" s="37"/>
-      <c r="L171" s="41"/>
+      <c r="L171" s="42"/>
     </row>
     <row r="172" spans="1:12">
       <c r="B172" s="40"/>
@@ -54322,7 +54320,7 @@
       <c r="I172" s="37"/>
       <c r="J172" s="37"/>
       <c r="K172" s="37"/>
-      <c r="L172" s="41"/>
+      <c r="L172" s="42"/>
     </row>
     <row r="173" spans="1:12">
       <c r="B173" s="40"/>
@@ -54335,7 +54333,7 @@
       <c r="I173" s="37"/>
       <c r="J173" s="37"/>
       <c r="K173" s="37"/>
-      <c r="L173" s="41"/>
+      <c r="L173" s="42"/>
     </row>
     <row r="174" spans="1:12">
       <c r="B174" s="40"/>
@@ -54348,7 +54346,7 @@
       <c r="I174" s="37"/>
       <c r="J174" s="37"/>
       <c r="K174" s="37"/>
-      <c r="L174" s="41"/>
+      <c r="L174" s="42"/>
     </row>
     <row r="175" spans="1:12">
       <c r="B175" s="40"/>
@@ -54361,7 +54359,7 @@
       <c r="I175" s="37"/>
       <c r="J175" s="37"/>
       <c r="K175" s="37"/>
-      <c r="L175" s="41"/>
+      <c r="L175" s="42"/>
     </row>
     <row r="176" spans="1:12">
       <c r="B176" s="40"/>
@@ -54374,7 +54372,7 @@
       <c r="I176" s="37"/>
       <c r="J176" s="37"/>
       <c r="K176" s="37"/>
-      <c r="L176" s="41"/>
+      <c r="L176" s="42"/>
     </row>
     <row r="177" spans="2:12">
       <c r="B177" s="40"/>
@@ -54387,7 +54385,7 @@
       <c r="I177" s="37"/>
       <c r="J177" s="37"/>
       <c r="K177" s="37"/>
-      <c r="L177" s="41"/>
+      <c r="L177" s="42"/>
     </row>
     <row r="178" spans="2:12">
       <c r="B178" s="40"/>
@@ -54400,7 +54398,7 @@
       <c r="I178" s="37"/>
       <c r="J178" s="37"/>
       <c r="K178" s="37"/>
-      <c r="L178" s="41"/>
+      <c r="L178" s="42"/>
     </row>
     <row r="179" spans="2:12">
       <c r="B179" s="40"/>
@@ -54413,7 +54411,7 @@
       <c r="I179" s="37"/>
       <c r="J179" s="37"/>
       <c r="K179" s="37"/>
-      <c r="L179" s="41"/>
+      <c r="L179" s="42"/>
     </row>
     <row r="180" spans="2:12">
       <c r="B180" s="40"/>
@@ -54426,7 +54424,7 @@
       <c r="I180" s="37"/>
       <c r="J180" s="37"/>
       <c r="K180" s="37"/>
-      <c r="L180" s="41"/>
+      <c r="L180" s="42"/>
     </row>
     <row r="181" spans="2:12">
       <c r="B181" s="40"/>
@@ -54439,33 +54437,33 @@
       <c r="I181" s="37"/>
       <c r="J181" s="37"/>
       <c r="K181" s="37"/>
-      <c r="L181" s="41"/>
+      <c r="L181" s="42"/>
     </row>
     <row r="182" spans="2:12">
-      <c r="B182" s="42"/>
-      <c r="C182" s="43"/>
-      <c r="D182" s="43"/>
-      <c r="E182" s="43"/>
-      <c r="F182" s="43"/>
-      <c r="G182" s="43"/>
-      <c r="H182" s="43"/>
-      <c r="I182" s="43"/>
-      <c r="J182" s="43"/>
-      <c r="K182" s="43"/>
-      <c r="L182" s="44"/>
+      <c r="B182" s="43"/>
+      <c r="C182" s="44"/>
+      <c r="D182" s="44"/>
+      <c r="E182" s="44"/>
+      <c r="F182" s="44"/>
+      <c r="G182" s="44"/>
+      <c r="H182" s="44"/>
+      <c r="I182" s="44"/>
+      <c r="J182" s="44"/>
+      <c r="K182" s="44"/>
+      <c r="L182" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B2:L21"/>
+    <mergeCell ref="B23:L42"/>
+    <mergeCell ref="B43:L62"/>
+    <mergeCell ref="B63:L82"/>
     <mergeCell ref="B83:L102"/>
     <mergeCell ref="B103:L122"/>
     <mergeCell ref="B123:L142"/>
     <mergeCell ref="B143:L162"/>
     <mergeCell ref="B163:L182"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="B2:L21"/>
-    <mergeCell ref="B23:L42"/>
-    <mergeCell ref="B43:L62"/>
-    <mergeCell ref="B63:L82"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
